--- a/reviewsummary_public.xlsx
+++ b/reviewsummary_public.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\sd card materials\software\unity3d-projects\Review_LibraryProject\Compile\ReviewLibraryExe_v2-8\ReviewLibraryExe_v2-8_Data\Resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\sd card materials\software\unity3d-projects\Review_LibraryProject\Compile\ReviewLibraryExe_v2-8\ReviewLibraryExe_v2-8_Data\Resources\webpage\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8349799B-8CC0-4518-B109-716E7E864B84}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4505B951-CBE9-46B1-82A7-33233AF58E11}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="27360" windowHeight="13880" activeTab="4" xr2:uid="{A58E8F5E-137C-4732-BF16-A9BCF0B50BB6}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="27360" windowHeight="13880" xr2:uid="{A58E8F5E-137C-4732-BF16-A9BCF0B50BB6}"/>
   </bookViews>
   <sheets>
     <sheet name="Home" sheetId="1" r:id="rId1"/>
@@ -7757,7 +7757,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B2202B2-3CBF-4558-AA45-F3FC95D4932C}">
   <dimension ref="B3:B45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B46" sqref="B46"/>
     </sheetView>
   </sheetViews>
@@ -36319,7 +36319,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E734FB8-0D13-426B-B5EB-8AA79C0C5BB6}">
   <dimension ref="B3:D42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>

--- a/reviewsummary_public.xlsx
+++ b/reviewsummary_public.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDA18B82-A7C7-4AAB-BE09-413F474A6DB1}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AA6B329-AB27-4C28-9E60-A00E0EA31635}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="27360" windowHeight="13880" activeTab="1" xr2:uid="{A58E8F5E-137C-4732-BF16-A9BCF0B50BB6}"/>
   </bookViews>
@@ -9033,7 +9033,7 @@
   <dimension ref="B2:S276"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C276"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/reviewsummary_public.xlsx
+++ b/reviewsummary_public.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30DB8025-41FB-4FD7-AA31-FECB39A6E887}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F171EC1E-DCF2-496C-A825-3160E49E97DA}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="27360" windowHeight="17640" xr2:uid="{A58E8F5E-137C-4732-BF16-A9BCF0B50BB6}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="27360" windowHeight="17640" activeTab="1" xr2:uid="{A58E8F5E-137C-4732-BF16-A9BCF0B50BB6}"/>
   </bookViews>
   <sheets>
     <sheet name="Home" sheetId="1" r:id="rId1"/>
@@ -7837,26 +7837,9 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C50BF76C-923B-42AF-BD58-C5AF21145B26}" name="Table1" displayName="Table1" ref="B2:S306" totalsRowShown="0" dataDxfId="77">
-  <autoFilter ref="B2:S306" xr:uid="{BF850E12-6FCD-45DC-BC44-9D63E95AAFF8}">
-    <filterColumn colId="3">
-      <filters>
-        <filter val="Brazil"/>
-        <filter val="Canada"/>
-        <filter val="China"/>
-        <filter val="France"/>
-        <filter val="French"/>
-        <filter val="Hungary"/>
-        <filter val="Ireland"/>
-        <filter val="Poland"/>
-        <filter val="South Korea"/>
-        <filter val="Spain"/>
-        <filter val="United Kingdom"/>
-        <filter val="USA"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B4:S304">
-    <sortCondition descending="1" ref="D2:D306"/>
+  <autoFilter ref="B2:S306" xr:uid="{BF850E12-6FCD-45DC-BC44-9D63E95AAFF8}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:S306">
+    <sortCondition ref="C2:C306"/>
   </sortState>
   <tableColumns count="18">
     <tableColumn id="1" xr3:uid="{98A049F6-BCE2-4EA4-AA7A-289B06AF0073}" name="in." dataDxfId="76"/>
@@ -8272,7 +8255,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B2202B2-3CBF-4558-AA45-F3FC95D4932C}">
   <dimension ref="B3:B46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B45" sqref="B45"/>
     </sheetView>
   </sheetViews>
@@ -8432,10 +8415,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{658C7E18-BC47-4414-9164-3B2A1C501471}">
-  <dimension ref="B2:X306"/>
+  <dimension ref="B2:S306"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4:S304"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Z23" sqref="Z23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -8455,7 +8438,7 @@
     <col min="20" max="16384" width="8.7265625" style="5"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:24" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B2" s="8" t="s">
         <v>42</v>
       </c>
@@ -8511,7 +8494,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="3" spans="2:24" hidden="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B3" s="8">
         <v>0</v>
       </c>
@@ -8567,146 +8550,122 @@
         <f xml:space="preserve"> HYPERLINK("ReviewHtml/review_5_Centimeters_per_Second.html", "https://2danicritic.github.io/ReviewHtml/review_5_Centimeters_per_Second.html")</f>
         <v>https://2danicritic.github.io/ReviewHtml/review_5_Centimeters_per_Second.html</v>
       </c>
-      <c r="V3" s="5" t="str">
-        <f>TRIM(CLEAN(SUBSTITUTE(E3,CHAR(160)," ")))</f>
-        <v>Japan</v>
-      </c>
-      <c r="X3" s="5" t="str">
-        <f>TRIM(CLEAN(SUBSTITUTE(G3,CHAR(160)," ")))</f>
-        <v>Anthology</v>
-      </c>
-    </row>
-    <row r="4" spans="2:24" x14ac:dyDescent="0.35">
+    </row>
+    <row r="4" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B4" s="8">
-        <v>211</v>
+        <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>973</v>
+        <v>383</v>
       </c>
       <c r="D4" s="8">
-        <v>2018</v>
+        <v>2010</v>
       </c>
       <c r="E4" t="s">
-        <v>1014</v>
+        <v>1006</v>
       </c>
       <c r="F4" t="s">
-        <v>990</v>
+        <v>384</v>
       </c>
       <c r="G4" t="s">
         <v>1018</v>
       </c>
       <c r="H4" t="s">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="I4" s="8">
-        <v>3.86</v>
+        <v>3.29</v>
       </c>
       <c r="J4" s="8">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="K4" s="8">
         <v>4</v>
       </c>
       <c r="L4" s="8">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="M4" s="8">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="N4" s="8">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="O4" s="8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P4" s="8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Q4" t="s">
-        <v>940</v>
+        <v>56</v>
       </c>
       <c r="R4" s="8">
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="S4" t="str">
-        <f xml:space="preserve"> HYPERLINK("ReviewHtml/review_Ruben_Brandt_-_Collector.html", "https://2danicritic.github.io/ReviewHtml/review_Ruben_Brandt_-_Collector.html")</f>
-        <v>https://2danicritic.github.io/ReviewHtml/review_Ruben_Brandt_-_Collector.html</v>
-      </c>
-      <c r="V4" s="5" t="str">
-        <f t="shared" ref="V4:V67" si="0">TRIM(CLEAN(SUBSTITUTE(E4,CHAR(160)," ")))</f>
-        <v>Hungary</v>
-      </c>
-      <c r="X4" s="5" t="str">
-        <f t="shared" ref="X4:X67" si="1">TRIM(CLEAN(SUBSTITUTE(G4,CHAR(160)," ")))</f>
-        <v>Film</v>
-      </c>
-    </row>
-    <row r="5" spans="2:24" x14ac:dyDescent="0.35">
+        <f xml:space="preserve"> HYPERLINK("ReviewHtml/review_A_Cat_in_Paris.html", "https://2danicritic.github.io/ReviewHtml/review_A_Cat_in_Paris.html")</f>
+        <v>https://2danicritic.github.io/ReviewHtml/review_A_Cat_in_Paris.html</v>
+      </c>
+    </row>
+    <row r="5" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B5" s="8">
-        <v>231</v>
+        <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>799</v>
+        <v>57</v>
       </c>
       <c r="D5" s="8">
-        <v>2018</v>
+        <v>2012</v>
       </c>
       <c r="E5" t="s">
-        <v>1007</v>
+        <v>58</v>
       </c>
       <c r="F5" t="s">
-        <v>800</v>
+        <v>385</v>
       </c>
       <c r="G5" t="s">
         <v>1018</v>
       </c>
       <c r="H5" t="s">
-        <v>260</v>
+        <v>59</v>
       </c>
       <c r="I5" s="8">
-        <v>2.71</v>
+        <v>3.21</v>
       </c>
       <c r="J5" s="8">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="K5" s="8">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="L5" s="8">
         <v>2.5</v>
       </c>
       <c r="M5" s="8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N5" s="8">
-        <v>2</v>
+        <v>3.5</v>
       </c>
       <c r="O5" s="8">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="P5" s="8">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="Q5" t="s">
-        <v>261</v>
+        <v>60</v>
       </c>
       <c r="R5" s="8">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="S5" t="str">
-        <f xml:space="preserve"> HYPERLINK("ReviewHtml/review_Teen_Titans_Go_(To_The_Movies).html", "https://2danicritic.github.io/ReviewHtml/review_Teen_Titans_Go_(To_The_Movies).html")</f>
-        <v>https://2danicritic.github.io/ReviewHtml/review_Teen_Titans_Go_(To_The_Movies).html</v>
-      </c>
-      <c r="V5" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>USA</v>
-      </c>
-      <c r="X5" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>Film</v>
-      </c>
-    </row>
-    <row r="6" spans="2:24" hidden="1" x14ac:dyDescent="0.35">
+        <f xml:space="preserve"> HYPERLINK("ReviewHtml/review_A_Liar's_Autobiography_-_The_Untrue_Story_of_Monty_Python's_Graham_Chapman.html", "https://2danicritic.github.io/ReviewHtml/review_A_Liar's_Autobiography_-_The_Untrue_Story_of_Monty_Python's_Graham_Chapman.html")</f>
+        <v>https://2danicritic.github.io/ReviewHtml/review_A_Liar's_Autobiography_-_The_Untrue_Story_of_Monty_Python's_Graham_Chapman.html</v>
+      </c>
+    </row>
+    <row r="6" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B6" s="8">
         <v>3</v>
       </c>
@@ -8762,16 +8721,8 @@
         <f xml:space="preserve"> HYPERLINK("ReviewHtml/review_A_Silent_Voice.html", "https://2danicritic.github.io/ReviewHtml/review_A_Silent_Voice.html")</f>
         <v>https://2danicritic.github.io/ReviewHtml/review_A_Silent_Voice.html</v>
       </c>
-      <c r="V6" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>Japan</v>
-      </c>
-      <c r="X6" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>Film</v>
-      </c>
-    </row>
-    <row r="7" spans="2:24" hidden="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="7" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B7" s="8">
         <v>4</v>
       </c>
@@ -8827,16 +8778,8 @@
         <f xml:space="preserve"> HYPERLINK("ReviewHtml/review_A_Tree_of_Palme.html", "https://2danicritic.github.io/ReviewHtml/review_A_Tree_of_Palme.html")</f>
         <v>https://2danicritic.github.io/ReviewHtml/review_A_Tree_of_Palme.html</v>
       </c>
-      <c r="V7" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>Japan</v>
-      </c>
-      <c r="X7" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>Film</v>
-      </c>
-    </row>
-    <row r="8" spans="2:24" hidden="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="8" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B8" s="8">
         <v>5</v>
       </c>
@@ -8892,16 +8835,8 @@
         <f xml:space="preserve"> HYPERLINK("ReviewHtml/review_Afro_Samurai.html", "https://2danicritic.github.io/ReviewHtml/review_Afro_Samurai.html")</f>
         <v>https://2danicritic.github.io/ReviewHtml/review_Afro_Samurai.html</v>
       </c>
-      <c r="V8" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>Japan</v>
-      </c>
-      <c r="X8" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>TV</v>
-      </c>
-    </row>
-    <row r="9" spans="2:24" hidden="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="9" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B9" s="8">
         <v>6</v>
       </c>
@@ -8957,16 +8892,8 @@
         <f xml:space="preserve"> HYPERLINK("ReviewHtml/review_Afro_Samurai_-_Resurrection.html", "https://2danicritic.github.io/ReviewHtml/review_Afro_Samurai_-_Resurrection.html")</f>
         <v>https://2danicritic.github.io/ReviewHtml/review_Afro_Samurai_-_Resurrection.html</v>
       </c>
-      <c r="V9" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>Japan</v>
-      </c>
-      <c r="X9" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>Film</v>
-      </c>
-    </row>
-    <row r="10" spans="2:24" hidden="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="10" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B10" s="8">
         <v>7</v>
       </c>
@@ -9022,16 +8949,8 @@
         <f xml:space="preserve"> HYPERLINK("ReviewHtml/review_Akira.html", "https://2danicritic.github.io/ReviewHtml/review_Akira.html")</f>
         <v>https://2danicritic.github.io/ReviewHtml/review_Akira.html</v>
       </c>
-      <c r="V10" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>Japan</v>
-      </c>
-      <c r="X10" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>Film</v>
-      </c>
-    </row>
-    <row r="11" spans="2:24" hidden="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="11" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B11" s="8">
         <v>8</v>
       </c>
@@ -9087,16 +9006,8 @@
         <f xml:space="preserve"> HYPERLINK("ReviewHtml/review_Alien_Nine.html", "https://2danicritic.github.io/ReviewHtml/review_Alien_Nine.html")</f>
         <v>https://2danicritic.github.io/ReviewHtml/review_Alien_Nine.html</v>
       </c>
-      <c r="V11" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>Japan</v>
-      </c>
-      <c r="X11" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>OVA</v>
-      </c>
-    </row>
-    <row r="12" spans="2:24" hidden="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="12" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B12" s="8">
         <v>9</v>
       </c>
@@ -9152,146 +9063,122 @@
         <f xml:space="preserve"> HYPERLINK("ReviewHtml/review_Amagi_Brilliant_Park.html", "https://2danicritic.github.io/ReviewHtml/review_Amagi_Brilliant_Park.html")</f>
         <v>https://2danicritic.github.io/ReviewHtml/review_Amagi_Brilliant_Park.html</v>
       </c>
-      <c r="V12" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>Japan</v>
-      </c>
-      <c r="X12" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>TV</v>
-      </c>
-    </row>
-    <row r="13" spans="2:24" x14ac:dyDescent="0.35">
+    </row>
+    <row r="13" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B13" s="8">
-        <v>276</v>
+        <v>10</v>
       </c>
       <c r="C13" t="s">
-        <v>980</v>
+        <v>953</v>
       </c>
       <c r="D13" s="8">
-        <v>2018</v>
+        <v>1986</v>
       </c>
       <c r="E13" t="s">
-        <v>1011</v>
+        <v>1007</v>
       </c>
       <c r="F13" t="s">
-        <v>994</v>
+        <v>983</v>
       </c>
       <c r="G13" t="s">
         <v>1018</v>
       </c>
       <c r="H13" t="s">
-        <v>950</v>
+        <v>768</v>
       </c>
       <c r="I13" s="8">
-        <v>3.43</v>
+        <v>3.21</v>
       </c>
       <c r="J13" s="8">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="K13" s="8">
         <v>3.5</v>
       </c>
       <c r="L13" s="8">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="M13" s="8">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="N13" s="8">
         <v>3.5</v>
       </c>
       <c r="O13" s="8">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="P13" s="8">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="Q13" t="s">
-        <v>951</v>
+        <v>298</v>
       </c>
       <c r="R13" s="8">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="S13" t="str">
-        <f xml:space="preserve"> HYPERLINK("ReviewHtml/review_Tito_and_the_Birds.html", "https://2danicritic.github.io/ReviewHtml/review_Tito_and_the_Birds.html")</f>
-        <v>https://2danicritic.github.io/ReviewHtml/review_Tito_and_the_Birds.html</v>
-      </c>
-      <c r="V13" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>Brazil</v>
-      </c>
-      <c r="X13" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>Film</v>
-      </c>
-    </row>
-    <row r="14" spans="2:24" x14ac:dyDescent="0.35">
+        <f xml:space="preserve"> HYPERLINK("ReviewHtml/review_An_American_Tail.html", "https://2danicritic.github.io/ReviewHtml/review_An_American_Tail.html")</f>
+        <v>https://2danicritic.github.io/ReviewHtml/review_An_American_Tail.html</v>
+      </c>
+    </row>
+    <row r="14" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B14" s="8">
-        <v>101</v>
+        <v>11</v>
       </c>
       <c r="C14" t="s">
-        <v>578</v>
+        <v>954</v>
       </c>
       <c r="D14" s="8">
-        <v>2017</v>
+        <v>1991</v>
       </c>
       <c r="E14" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="F14" t="s">
-        <v>579</v>
+        <v>984</v>
       </c>
       <c r="G14" t="s">
         <v>1018</v>
       </c>
       <c r="H14" t="s">
-        <v>580</v>
+        <v>914</v>
       </c>
       <c r="I14" s="8">
-        <v>3.57</v>
+        <v>3.29</v>
       </c>
       <c r="J14" s="8">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K14" s="8">
         <v>4</v>
       </c>
       <c r="L14" s="8">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="M14" s="8">
         <v>4</v>
       </c>
       <c r="N14" s="8">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O14" s="8">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="P14" s="8">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="Q14" t="s">
-        <v>154</v>
+        <v>261</v>
       </c>
       <c r="R14" s="8">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="S14" t="str">
-        <f xml:space="preserve"> HYPERLINK("ReviewHtml/review_Have_a_Nice_Day.html", "https://2danicritic.github.io/ReviewHtml/review_Have_a_Nice_Day.html")</f>
-        <v>https://2danicritic.github.io/ReviewHtml/review_Have_a_Nice_Day.html</v>
-      </c>
-      <c r="V14" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>China</v>
-      </c>
-      <c r="X14" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>Film</v>
-      </c>
-    </row>
-    <row r="15" spans="2:24" hidden="1" x14ac:dyDescent="0.35">
+        <f xml:space="preserve"> HYPERLINK("ReviewHtml/review_An_American_Tail_-_Fievel_Goes_West.html", "https://2danicritic.github.io/ReviewHtml/review_An_American_Tail_-_Fievel_Goes_West.html")</f>
+        <v>https://2danicritic.github.io/ReviewHtml/review_An_American_Tail_-_Fievel_Goes_West.html</v>
+      </c>
+    </row>
+    <row r="15" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B15" s="8">
         <v>12</v>
       </c>
@@ -9347,81 +9234,65 @@
         <f xml:space="preserve"> HYPERLINK("ReviewHtml/review_Angel_Beats.html", "https://2danicritic.github.io/ReviewHtml/review_Angel_Beats.html")</f>
         <v>https://2danicritic.github.io/ReviewHtml/review_Angel_Beats.html</v>
       </c>
-      <c r="V15" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>Japan</v>
-      </c>
-      <c r="X15" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>TV</v>
-      </c>
-    </row>
-    <row r="16" spans="2:24" x14ac:dyDescent="0.35">
+    </row>
+    <row r="16" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B16" s="8">
-        <v>112</v>
+        <v>13</v>
       </c>
       <c r="C16" t="s">
-        <v>593</v>
+        <v>405</v>
       </c>
       <c r="D16" s="8">
-        <v>2017</v>
+        <v>2015</v>
       </c>
       <c r="E16" t="s">
-        <v>1010</v>
+        <v>1006</v>
       </c>
       <c r="F16" t="s">
-        <v>594</v>
+        <v>406</v>
       </c>
       <c r="G16" t="s">
         <v>1018</v>
       </c>
       <c r="H16" t="s">
-        <v>595</v>
+        <v>69</v>
       </c>
       <c r="I16" s="8">
-        <v>3.43</v>
+        <v>3.5</v>
       </c>
       <c r="J16" s="8">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="K16" s="8">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L16" s="8">
         <v>3</v>
       </c>
       <c r="M16" s="8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N16" s="8">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="O16" s="8">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="P16" s="8">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q16" t="s">
-        <v>166</v>
+        <v>70</v>
       </c>
       <c r="R16" s="8">
-        <v>85</v>
+        <v>106</v>
       </c>
       <c r="S16" t="str">
-        <f xml:space="preserve"> HYPERLINK("ReviewHtml/review_I'll_Just_Live_In_Bando.html", "https://2danicritic.github.io/ReviewHtml/review_I'll_Just_Live_In_Bando.html")</f>
-        <v>https://2danicritic.github.io/ReviewHtml/review_I'll_Just_Live_In_Bando.html</v>
-      </c>
-      <c r="V16" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>South Korea</v>
-      </c>
-      <c r="X16" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>Film</v>
-      </c>
-    </row>
-    <row r="17" spans="2:24" hidden="1" x14ac:dyDescent="0.35">
+        <f xml:space="preserve"> HYPERLINK("ReviewHtml/review_April_and_the_Extraordinary_World.html", "https://2danicritic.github.io/ReviewHtml/review_April_and_the_Extraordinary_World.html")</f>
+        <v>https://2danicritic.github.io/ReviewHtml/review_April_and_the_Extraordinary_World.html</v>
+      </c>
+    </row>
+    <row r="17" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B17" s="8">
         <v>14</v>
       </c>
@@ -9477,16 +9348,8 @@
         <f xml:space="preserve"> HYPERLINK("ReviewHtml/review_Aura_-_Koga_Maryuin's_Last_War.html", "https://2danicritic.github.io/ReviewHtml/review_Aura_-_Koga_Maryuin's_Last_War.html")</f>
         <v>https://2danicritic.github.io/ReviewHtml/review_Aura_-_Koga_Maryuin's_Last_War.html</v>
       </c>
-      <c r="V17" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>Japan</v>
-      </c>
-      <c r="X17" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>Film</v>
-      </c>
-    </row>
-    <row r="18" spans="2:24" hidden="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="18" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B18" s="8">
         <v>15</v>
       </c>
@@ -9542,16 +9405,8 @@
         <f xml:space="preserve"> HYPERLINK("ReviewHtml/review_Ayakashi_-_Samurai_Horror_Tales_-_Goblin_Cat.html", "https://2danicritic.github.io/ReviewHtml/review_Ayakashi_-_Samurai_Horror_Tales_-_Goblin_Cat.html")</f>
         <v>https://2danicritic.github.io/ReviewHtml/review_Ayakashi_-_Samurai_Horror_Tales_-_Goblin_Cat.html</v>
       </c>
-      <c r="V18" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>Japan</v>
-      </c>
-      <c r="X18" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>TV</v>
-      </c>
-    </row>
-    <row r="19" spans="2:24" hidden="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="19" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B19" s="8">
         <v>16</v>
       </c>
@@ -9607,16 +9462,8 @@
         <f xml:space="preserve"> HYPERLINK("ReviewHtml/review_Azumanga_Daioh.html", "https://2danicritic.github.io/ReviewHtml/review_Azumanga_Daioh.html")</f>
         <v>https://2danicritic.github.io/ReviewHtml/review_Azumanga_Daioh.html</v>
       </c>
-      <c r="V19" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>Japan</v>
-      </c>
-      <c r="X19" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>TV</v>
-      </c>
-    </row>
-    <row r="20" spans="2:24" hidden="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="20" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B20" s="8">
         <v>17</v>
       </c>
@@ -9672,16 +9519,8 @@
         <f xml:space="preserve"> HYPERLINK("ReviewHtml/review_Baccano!.html", "https://2danicritic.github.io/ReviewHtml/review_Baccano!.html")</f>
         <v>https://2danicritic.github.io/ReviewHtml/review_Baccano!.html</v>
       </c>
-      <c r="V20" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>Japan</v>
-      </c>
-      <c r="X20" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>TV</v>
-      </c>
-    </row>
-    <row r="21" spans="2:24" hidden="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="21" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B21" s="8">
         <v>18</v>
       </c>
@@ -9737,81 +9576,65 @@
         <f xml:space="preserve"> HYPERLINK("ReviewHtml/review_Bakemonogatari.html", "https://2danicritic.github.io/ReviewHtml/review_Bakemonogatari.html")</f>
         <v>https://2danicritic.github.io/ReviewHtml/review_Bakemonogatari.html</v>
       </c>
-      <c r="V21" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>Japan</v>
-      </c>
-      <c r="X21" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>TV</v>
-      </c>
-    </row>
-    <row r="22" spans="2:24" x14ac:dyDescent="0.35">
+    </row>
+    <row r="22" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B22" s="8">
-        <v>134</v>
+        <v>19</v>
       </c>
       <c r="C22" t="s">
-        <v>639</v>
+        <v>955</v>
       </c>
       <c r="D22" s="8">
-        <v>2017</v>
+        <v>1995</v>
       </c>
       <c r="E22" t="s">
-        <v>1012</v>
+        <v>1007</v>
       </c>
       <c r="F22" t="s">
-        <v>640</v>
+        <v>984</v>
       </c>
       <c r="G22" t="s">
         <v>1018</v>
       </c>
       <c r="H22" t="s">
-        <v>184</v>
+        <v>996</v>
       </c>
       <c r="I22" s="8">
-        <v>4.07</v>
+        <v>3.57</v>
       </c>
       <c r="J22" s="8">
         <v>4</v>
       </c>
       <c r="K22" s="8">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="L22" s="8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M22" s="8">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="N22" s="8">
         <v>3.5</v>
       </c>
       <c r="O22" s="8">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="P22" s="8">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="Q22" t="s">
-        <v>185</v>
+        <v>915</v>
       </c>
       <c r="R22" s="8">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="S22" t="str">
-        <f xml:space="preserve"> HYPERLINK("ReviewHtml/review_Loving_Vincent.html", "https://2danicritic.github.io/ReviewHtml/review_Loving_Vincent.html")</f>
-        <v>https://2danicritic.github.io/ReviewHtml/review_Loving_Vincent.html</v>
-      </c>
-      <c r="V22" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>Poland</v>
-      </c>
-      <c r="X22" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>Film</v>
-      </c>
-    </row>
-    <row r="23" spans="2:24" hidden="1" x14ac:dyDescent="0.35">
+        <f xml:space="preserve"> HYPERLINK("ReviewHtml/review_Balto.html", "https://2danicritic.github.io/ReviewHtml/review_Balto.html")</f>
+        <v>https://2danicritic.github.io/ReviewHtml/review_Balto.html</v>
+      </c>
+    </row>
+    <row r="23" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B23" s="8">
         <v>20</v>
       </c>
@@ -9867,16 +9690,8 @@
         <f xml:space="preserve"> HYPERLINK("ReviewHtml/review_Barefoot_Gen.html", "https://2danicritic.github.io/ReviewHtml/review_Barefoot_Gen.html")</f>
         <v>https://2danicritic.github.io/ReviewHtml/review_Barefoot_Gen.html</v>
       </c>
-      <c r="V23" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>Japan</v>
-      </c>
-      <c r="X23" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>Film</v>
-      </c>
-    </row>
-    <row r="24" spans="2:24" hidden="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="24" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B24" s="8">
         <v>21</v>
       </c>
@@ -9932,16 +9747,8 @@
         <f xml:space="preserve"> HYPERLINK("ReviewHtml/review_Barefoot_Gen_2.html", "https://2danicritic.github.io/ReviewHtml/review_Barefoot_Gen_2.html")</f>
         <v>https://2danicritic.github.io/ReviewHtml/review_Barefoot_Gen_2.html</v>
       </c>
-      <c r="V24" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>Japan</v>
-      </c>
-      <c r="X24" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>Film</v>
-      </c>
-    </row>
-    <row r="25" spans="2:24" hidden="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="25" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B25" s="8">
         <v>22</v>
       </c>
@@ -9997,16 +9804,8 @@
         <f xml:space="preserve"> HYPERLINK("ReviewHtml/review_Batman_Ninja.html", "https://2danicritic.github.io/ReviewHtml/review_Batman_Ninja.html")</f>
         <v>https://2danicritic.github.io/ReviewHtml/review_Batman_Ninja.html</v>
       </c>
-      <c r="V25" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>Japan</v>
-      </c>
-      <c r="X25" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>Film</v>
-      </c>
-    </row>
-    <row r="26" spans="2:24" hidden="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="26" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B26" s="8">
         <v>23</v>
       </c>
@@ -10062,16 +9861,8 @@
         <f xml:space="preserve"> HYPERLINK("ReviewHtml/review_Belladonna_of_Sadness.html", "https://2danicritic.github.io/ReviewHtml/review_Belladonna_of_Sadness.html")</f>
         <v>https://2danicritic.github.io/ReviewHtml/review_Belladonna_of_Sadness.html</v>
       </c>
-      <c r="V26" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>Japan</v>
-      </c>
-      <c r="X26" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>Film</v>
-      </c>
-    </row>
-    <row r="27" spans="2:24" hidden="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="27" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B27" s="8">
         <v>24</v>
       </c>
@@ -10127,16 +9918,8 @@
         <f xml:space="preserve"> HYPERLINK("ReviewHtml/review_Berserk_-_The_Golden_Age_Arc_(The_Egg_of_the_King,_The_Battle_for_Doldrey,_The_Advent).html", "https://2danicritic.github.io/ReviewHtml/review_Berserk_-_The_Golden_Age_Arc_(The_Egg_of_the_King,_The_Battle_for_Doldrey,_The_Advent).html")</f>
         <v>https://2danicritic.github.io/ReviewHtml/review_Berserk_-_The_Golden_Age_Arc_(The_Egg_of_the_King,_The_Battle_for_Doldrey,_The_Advent).html</v>
       </c>
-      <c r="V27" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>Japan</v>
-      </c>
-      <c r="X27" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>Film</v>
-      </c>
-    </row>
-    <row r="28" spans="2:24" hidden="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="28" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B28" s="8">
         <v>25</v>
       </c>
@@ -10192,16 +9975,8 @@
         <f xml:space="preserve"> HYPERLINK("ReviewHtml/review_Beyond_the_Boundary.html", "https://2danicritic.github.io/ReviewHtml/review_Beyond_the_Boundary.html")</f>
         <v>https://2danicritic.github.io/ReviewHtml/review_Beyond_the_Boundary.html</v>
       </c>
-      <c r="V28" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>Japan</v>
-      </c>
-      <c r="X28" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>TV</v>
-      </c>
-    </row>
-    <row r="29" spans="2:24" hidden="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="29" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B29" s="8">
         <v>26</v>
       </c>
@@ -10257,146 +10032,122 @@
         <f xml:space="preserve"> HYPERLINK("ReviewHtml/review_Beyond_the_Boundary_-_I'll_Be_Here.html", "https://2danicritic.github.io/ReviewHtml/review_Beyond_the_Boundary_-_I'll_Be_Here.html")</f>
         <v>https://2danicritic.github.io/ReviewHtml/review_Beyond_the_Boundary_-_I'll_Be_Here.html</v>
       </c>
-      <c r="V29" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>Japan</v>
-      </c>
-      <c r="X29" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>Film</v>
-      </c>
-    </row>
-    <row r="30" spans="2:24" x14ac:dyDescent="0.35">
+    </row>
+    <row r="30" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B30" s="8">
-        <v>152</v>
+        <v>27</v>
       </c>
       <c r="C30" t="s">
-        <v>670</v>
+        <v>436</v>
       </c>
       <c r="D30" s="8">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="E30" t="s">
-        <v>1006</v>
+        <v>1008</v>
       </c>
       <c r="F30" t="s">
-        <v>431</v>
+        <v>437</v>
       </c>
       <c r="G30" t="s">
         <v>1018</v>
       </c>
       <c r="H30" t="s">
-        <v>200</v>
+        <v>81</v>
       </c>
       <c r="I30" s="8">
-        <v>3.43</v>
+        <v>3.57</v>
       </c>
       <c r="J30" s="8">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="K30" s="8">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="L30" s="8">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="M30" s="8">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="N30" s="8">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="O30" s="8">
         <v>3.5</v>
       </c>
       <c r="P30" s="8">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="Q30" t="s">
-        <v>201</v>
+        <v>82</v>
       </c>
       <c r="R30" s="8">
-        <v>90</v>
+        <v>105</v>
       </c>
       <c r="S30" t="str">
-        <f xml:space="preserve"> HYPERLINK("ReviewHtml/review_MFKZ.html", "https://2danicritic.github.io/ReviewHtml/review_MFKZ.html")</f>
-        <v>https://2danicritic.github.io/ReviewHtml/review_MFKZ.html</v>
-      </c>
-      <c r="V30" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>France</v>
-      </c>
-      <c r="X30" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>Film</v>
-      </c>
-    </row>
-    <row r="31" spans="2:24" x14ac:dyDescent="0.35">
+        <f xml:space="preserve"> HYPERLINK("ReviewHtml/review_Big_Fish_and_Begonia.html", "https://2danicritic.github.io/ReviewHtml/review_Big_Fish_and_Begonia.html")</f>
+        <v>https://2danicritic.github.io/ReviewHtml/review_Big_Fish_and_Begonia.html</v>
+      </c>
+    </row>
+    <row r="31" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B31" s="8">
-        <v>161</v>
+        <v>28</v>
       </c>
       <c r="C31" t="s">
-        <v>685</v>
+        <v>438</v>
       </c>
       <c r="D31" s="8">
-        <v>2017</v>
+        <v>2015</v>
       </c>
       <c r="E31" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="F31" t="s">
-        <v>686</v>
+        <v>439</v>
       </c>
       <c r="G31" t="s">
         <v>1018</v>
       </c>
       <c r="H31" t="s">
-        <v>687</v>
+        <v>83</v>
       </c>
       <c r="I31" s="8">
+        <v>2.86</v>
+      </c>
+      <c r="J31" s="8">
+        <v>3</v>
+      </c>
+      <c r="K31" s="8">
+        <v>3.5</v>
+      </c>
+      <c r="L31" s="8">
+        <v>3</v>
+      </c>
+      <c r="M31" s="8">
+        <v>3</v>
+      </c>
+      <c r="N31" s="8">
+        <v>3</v>
+      </c>
+      <c r="O31" s="8">
         <v>2.5</v>
       </c>
-      <c r="J31" s="8">
-        <v>3</v>
-      </c>
-      <c r="K31" s="8">
+      <c r="P31" s="8">
         <v>2</v>
       </c>
-      <c r="L31" s="8">
-        <v>3</v>
-      </c>
-      <c r="M31" s="8">
-        <v>3</v>
-      </c>
-      <c r="N31" s="8">
-        <v>3</v>
-      </c>
-      <c r="O31" s="8">
-        <v>2</v>
-      </c>
-      <c r="P31" s="8">
-        <v>1.5</v>
-      </c>
       <c r="Q31" t="s">
-        <v>205</v>
+        <v>84</v>
       </c>
       <c r="R31" s="8">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="S31" t="str">
-        <f xml:space="preserve"> HYPERLINK("ReviewHtml/review_My_Dogs,_Jinjin_and_Akida.html", "https://2danicritic.github.io/ReviewHtml/review_My_Dogs,_Jinjin_and_Akida.html")</f>
-        <v>https://2danicritic.github.io/ReviewHtml/review_My_Dogs,_Jinjin_and_Akida.html</v>
-      </c>
-      <c r="V31" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>South Korea</v>
-      </c>
-      <c r="X31" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>Film</v>
-      </c>
-    </row>
-    <row r="32" spans="2:24" hidden="1" x14ac:dyDescent="0.35">
+        <f xml:space="preserve"> HYPERLINK("ReviewHtml/review_Birdboy_-_The_Forgotten_Children.html", "https://2danicritic.github.io/ReviewHtml/review_Birdboy_-_The_Forgotten_Children.html")</f>
+        <v>https://2danicritic.github.io/ReviewHtml/review_Birdboy_-_The_Forgotten_Children.html</v>
+      </c>
+    </row>
+    <row r="32" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B32" s="8">
         <v>29</v>
       </c>
@@ -10452,16 +10203,8 @@
         <f xml:space="preserve"> HYPERLINK("ReviewHtml/review_Black_Bullet.html", "https://2danicritic.github.io/ReviewHtml/review_Black_Bullet.html")</f>
         <v>https://2danicritic.github.io/ReviewHtml/review_Black_Bullet.html</v>
       </c>
-      <c r="V32" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>Japan</v>
-      </c>
-      <c r="X32" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>TV</v>
-      </c>
-    </row>
-    <row r="33" spans="2:24" hidden="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="33" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B33" s="8">
         <v>30</v>
       </c>
@@ -10517,16 +10260,8 @@
         <f xml:space="preserve"> HYPERLINK("ReviewHtml/review_Black_Butler.html", "https://2danicritic.github.io/ReviewHtml/review_Black_Butler.html")</f>
         <v>https://2danicritic.github.io/ReviewHtml/review_Black_Butler.html</v>
       </c>
-      <c r="V33" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>Japan</v>
-      </c>
-      <c r="X33" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>TV</v>
-      </c>
-    </row>
-    <row r="34" spans="2:24" hidden="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="34" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B34" s="8">
         <v>31</v>
       </c>
@@ -10582,16 +10317,8 @@
         <f xml:space="preserve"> HYPERLINK("ReviewHtml/review_Black_Butler_-_Book_of_Circus.html", "https://2danicritic.github.io/ReviewHtml/review_Black_Butler_-_Book_of_Circus.html")</f>
         <v>https://2danicritic.github.io/ReviewHtml/review_Black_Butler_-_Book_of_Circus.html</v>
       </c>
-      <c r="V34" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>Japan</v>
-      </c>
-      <c r="X34" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>TV</v>
-      </c>
-    </row>
-    <row r="35" spans="2:24" hidden="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B35" s="8">
         <v>32</v>
       </c>
@@ -10647,16 +10374,8 @@
         <f xml:space="preserve"> HYPERLINK("ReviewHtml/review_Black_Butler_-_Book_of_Murder.html", "https://2danicritic.github.io/ReviewHtml/review_Black_Butler_-_Book_of_Murder.html")</f>
         <v>https://2danicritic.github.io/ReviewHtml/review_Black_Butler_-_Book_of_Murder.html</v>
       </c>
-      <c r="V35" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>Japan</v>
-      </c>
-      <c r="X35" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>OVA</v>
-      </c>
-    </row>
-    <row r="36" spans="2:24" hidden="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="36" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B36" s="8">
         <v>33</v>
       </c>
@@ -10712,16 +10431,8 @@
         <f xml:space="preserve"> HYPERLINK("ReviewHtml/review_Black_Butler_-_Book_of_the_Atlantic.html", "https://2danicritic.github.io/ReviewHtml/review_Black_Butler_-_Book_of_the_Atlantic.html")</f>
         <v>https://2danicritic.github.io/ReviewHtml/review_Black_Butler_-_Book_of_the_Atlantic.html</v>
       </c>
-      <c r="V36" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>Japan</v>
-      </c>
-      <c r="X36" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>Film</v>
-      </c>
-    </row>
-    <row r="37" spans="2:24" hidden="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="37" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B37" s="8">
         <v>34</v>
       </c>
@@ -10777,16 +10488,8 @@
         <f xml:space="preserve"> HYPERLINK("ReviewHtml/review_Black_Butler_II.html", "https://2danicritic.github.io/ReviewHtml/review_Black_Butler_II.html")</f>
         <v>https://2danicritic.github.io/ReviewHtml/review_Black_Butler_II.html</v>
       </c>
-      <c r="V37" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>Japan</v>
-      </c>
-      <c r="X37" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>TV</v>
-      </c>
-    </row>
-    <row r="38" spans="2:24" hidden="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="38" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B38" s="8">
         <v>35</v>
       </c>
@@ -10842,16 +10545,8 @@
         <f xml:space="preserve"> HYPERLINK("ReviewHtml/review_Black_Lagoon.html", "https://2danicritic.github.io/ReviewHtml/review_Black_Lagoon.html")</f>
         <v>https://2danicritic.github.io/ReviewHtml/review_Black_Lagoon.html</v>
       </c>
-      <c r="V38" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>Japan</v>
-      </c>
-      <c r="X38" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>TV</v>
-      </c>
-    </row>
-    <row r="39" spans="2:24" hidden="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="39" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B39" s="8">
         <v>36</v>
       </c>
@@ -10907,81 +10602,65 @@
         <f xml:space="preserve"> HYPERLINK("ReviewHtml/review_Black_Lagoon_-_Roberta's_Blood_Trail.html", "https://2danicritic.github.io/ReviewHtml/review_Black_Lagoon_-_Roberta's_Blood_Trail.html")</f>
         <v>https://2danicritic.github.io/ReviewHtml/review_Black_Lagoon_-_Roberta's_Blood_Trail.html</v>
       </c>
-      <c r="V39" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>Japan</v>
-      </c>
-      <c r="X39" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>OVA</v>
-      </c>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.35">
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B40" s="8">
-        <v>233</v>
+        <v>37</v>
       </c>
       <c r="C40" t="s">
-        <v>801</v>
+        <v>455</v>
       </c>
       <c r="D40" s="8">
-        <v>2017</v>
+        <v>2004</v>
       </c>
       <c r="E40" t="s">
-        <v>1006</v>
+        <v>1010</v>
       </c>
       <c r="F40" t="s">
-        <v>802</v>
+        <v>90</v>
       </c>
       <c r="G40" t="s">
-        <v>1017</v>
+        <v>1018</v>
       </c>
       <c r="H40" t="s">
-        <v>262</v>
+        <v>91</v>
       </c>
       <c r="I40" s="8">
-        <v>3.29</v>
+        <v>1.57</v>
       </c>
       <c r="J40" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K40" s="8">
-        <v>3.5</v>
+        <v>2</v>
       </c>
       <c r="L40" s="8">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="M40" s="8">
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="N40" s="8">
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="O40" s="8">
-        <v>4.5</v>
+        <v>1.5</v>
       </c>
       <c r="P40" s="8">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="Q40" t="s">
-        <v>186</v>
+        <v>92</v>
       </c>
       <c r="R40" s="8">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="S40" t="str">
-        <f xml:space="preserve"> HYPERLINK("ReviewHtml/review_The_Big_Bad_Fox_and_Other_Tales.html", "https://2danicritic.github.io/ReviewHtml/review_The_Big_Bad_Fox_and_Other_Tales.html")</f>
-        <v>https://2danicritic.github.io/ReviewHtml/review_The_Big_Bad_Fox_and_Other_Tales.html</v>
-      </c>
-      <c r="V40" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>France</v>
-      </c>
-      <c r="X40" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>Anthology</v>
-      </c>
-    </row>
-    <row r="41" spans="2:24" hidden="1" x14ac:dyDescent="0.35">
+        <f xml:space="preserve"> HYPERLINK("ReviewHtml/review_Blade_of_the_Phantom_Master.html", "https://2danicritic.github.io/ReviewHtml/review_Blade_of_the_Phantom_Master.html")</f>
+        <v>https://2danicritic.github.io/ReviewHtml/review_Blade_of_the_Phantom_Master.html</v>
+      </c>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B41" s="8">
         <v>38</v>
       </c>
@@ -11037,16 +10716,8 @@
         <f xml:space="preserve"> HYPERLINK("ReviewHtml/review_Blame!.html", "https://2danicritic.github.io/ReviewHtml/review_Blame!.html")</f>
         <v>https://2danicritic.github.io/ReviewHtml/review_Blame!.html</v>
       </c>
-      <c r="V41" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>Japan</v>
-      </c>
-      <c r="X41" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>ONA</v>
-      </c>
-    </row>
-    <row r="42" spans="2:24" hidden="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="42" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B42" s="8">
         <v>39</v>
       </c>
@@ -11102,16 +10773,8 @@
         <f xml:space="preserve"> HYPERLINK("ReviewHtml/review_Blood_-_The_Last_Vampire.html", "https://2danicritic.github.io/ReviewHtml/review_Blood_-_The_Last_Vampire.html")</f>
         <v>https://2danicritic.github.io/ReviewHtml/review_Blood_-_The_Last_Vampire.html</v>
       </c>
-      <c r="V42" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>Japan</v>
-      </c>
-      <c r="X42" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>Film</v>
-      </c>
-    </row>
-    <row r="43" spans="2:24" hidden="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B43" s="8">
         <v>40</v>
       </c>
@@ -11167,16 +10830,8 @@
         <f xml:space="preserve"> HYPERLINK("ReviewHtml/review_Blood_Blockade_Battlefront.html", "https://2danicritic.github.io/ReviewHtml/review_Blood_Blockade_Battlefront.html")</f>
         <v>https://2danicritic.github.io/ReviewHtml/review_Blood_Blockade_Battlefront.html</v>
       </c>
-      <c r="V43" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>Japan</v>
-      </c>
-      <c r="X43" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>TV</v>
-      </c>
-    </row>
-    <row r="44" spans="2:24" hidden="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B44" s="8">
         <v>41</v>
       </c>
@@ -11232,16 +10887,8 @@
         <f xml:space="preserve"> HYPERLINK("ReviewHtml/review_Blood_Blockade_Battlefront_&amp;_Beyond.html", "https://2danicritic.github.io/ReviewHtml/review_Blood_Blockade_Battlefront_&amp;_Beyond.html")</f>
         <v>https://2danicritic.github.io/ReviewHtml/review_Blood_Blockade_Battlefront_&amp;_Beyond.html</v>
       </c>
-      <c r="V44" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>Japan</v>
-      </c>
-      <c r="X44" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>TV</v>
-      </c>
-    </row>
-    <row r="45" spans="2:24" hidden="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B45" s="8">
         <v>42</v>
       </c>
@@ -11297,81 +10944,65 @@
         <f xml:space="preserve"> HYPERLINK("ReviewHtml/review_Blood-C_-_The_Last_Dark.html", "https://2danicritic.github.io/ReviewHtml/review_Blood-C_-_The_Last_Dark.html")</f>
         <v>https://2danicritic.github.io/ReviewHtml/review_Blood-C_-_The_Last_Dark.html</v>
       </c>
-      <c r="V45" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>Japan</v>
-      </c>
-      <c r="X45" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>Film</v>
-      </c>
-    </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.35">
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B46" s="8">
-        <v>235</v>
+        <v>43</v>
       </c>
       <c r="C46" t="s">
-        <v>804</v>
+        <v>468</v>
       </c>
       <c r="D46" s="8">
-        <v>2017</v>
+        <v>2013</v>
       </c>
       <c r="E46" t="s">
-        <v>1015</v>
+        <v>1011</v>
       </c>
       <c r="F46" t="s">
-        <v>784</v>
+        <v>469</v>
       </c>
       <c r="G46" t="s">
         <v>1018</v>
       </c>
       <c r="H46" t="s">
-        <v>805</v>
+        <v>470</v>
       </c>
       <c r="I46" s="8">
-        <v>4.8600000000000003</v>
+        <v>2.93</v>
       </c>
       <c r="J46" s="8">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K46" s="8">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L46" s="8">
-        <v>4</v>
+        <v>2.5</v>
       </c>
       <c r="M46" s="8">
-        <v>5</v>
+        <v>2.5</v>
       </c>
       <c r="N46" s="8">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="O46" s="8">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="P46" s="8">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q46" t="s">
-        <v>264</v>
+        <v>97</v>
       </c>
       <c r="R46" s="8">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="S46" t="str">
-        <f xml:space="preserve"> HYPERLINK("ReviewHtml/review_The_Breadwinner.html", "https://2danicritic.github.io/ReviewHtml/review_The_Breadwinner.html")</f>
-        <v>https://2danicritic.github.io/ReviewHtml/review_The_Breadwinner.html</v>
-      </c>
-      <c r="V46" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>Ireland</v>
-      </c>
-      <c r="X46" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>Film</v>
-      </c>
-    </row>
-    <row r="47" spans="2:24" hidden="1" x14ac:dyDescent="0.35">
+        <f xml:space="preserve"> HYPERLINK("ReviewHtml/review_Boy_and_the_World.html", "https://2danicritic.github.io/ReviewHtml/review_Boy_and_the_World.html")</f>
+        <v>https://2danicritic.github.io/ReviewHtml/review_Boy_and_the_World.html</v>
+      </c>
+    </row>
+    <row r="47" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B47" s="8">
         <v>44</v>
       </c>
@@ -11427,16 +11058,8 @@
         <f xml:space="preserve"> HYPERLINK("ReviewHtml/review_Btooom!.html", "https://2danicritic.github.io/ReviewHtml/review_Btooom!.html")</f>
         <v>https://2danicritic.github.io/ReviewHtml/review_Btooom!.html</v>
       </c>
-      <c r="V47" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>Japan</v>
-      </c>
-      <c r="X47" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>TV</v>
-      </c>
-    </row>
-    <row r="48" spans="2:24" hidden="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B48" s="8">
         <v>45</v>
       </c>
@@ -11492,16 +11115,8 @@
         <f xml:space="preserve"> HYPERLINK("ReviewHtml/review_Canaan.html", "https://2danicritic.github.io/ReviewHtml/review_Canaan.html")</f>
         <v>https://2danicritic.github.io/ReviewHtml/review_Canaan.html</v>
       </c>
-      <c r="V48" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>Japan</v>
-      </c>
-      <c r="X48" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>TV</v>
-      </c>
-    </row>
-    <row r="49" spans="2:24" hidden="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="49" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B49" s="8">
         <v>46</v>
       </c>
@@ -11557,16 +11172,8 @@
         <f xml:space="preserve"> HYPERLINK("ReviewHtml/review_Castle_in_the_Sky.html", "https://2danicritic.github.io/ReviewHtml/review_Castle_in_the_Sky.html")</f>
         <v>https://2danicritic.github.io/ReviewHtml/review_Castle_in_the_Sky.html</v>
       </c>
-      <c r="V49" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>Japan</v>
-      </c>
-      <c r="X49" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>Film</v>
-      </c>
-    </row>
-    <row r="50" spans="2:24" hidden="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="50" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B50" s="8">
         <v>47</v>
       </c>
@@ -11622,16 +11229,8 @@
         <f xml:space="preserve"> HYPERLINK("ReviewHtml/review_Cat_Planet_Cuties.html", "https://2danicritic.github.io/ReviewHtml/review_Cat_Planet_Cuties.html")</f>
         <v>https://2danicritic.github.io/ReviewHtml/review_Cat_Planet_Cuties.html</v>
       </c>
-      <c r="V50" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>Japan</v>
-      </c>
-      <c r="X50" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>TV</v>
-      </c>
-    </row>
-    <row r="51" spans="2:24" hidden="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="51" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B51" s="8">
         <v>48</v>
       </c>
@@ -11687,81 +11286,65 @@
         <f xml:space="preserve"> HYPERLINK("ReviewHtml/review_Cat_Soup.html", "https://2danicritic.github.io/ReviewHtml/review_Cat_Soup.html")</f>
         <v>https://2danicritic.github.io/ReviewHtml/review_Cat_Soup.html</v>
       </c>
-      <c r="V51" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>Japan</v>
-      </c>
-      <c r="X51" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>OVA</v>
-      </c>
-    </row>
-    <row r="52" spans="2:24" x14ac:dyDescent="0.35">
+    </row>
+    <row r="52" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B52" s="8">
-        <v>27</v>
+        <v>49</v>
       </c>
       <c r="C52" t="s">
-        <v>436</v>
+        <v>483</v>
       </c>
       <c r="D52" s="8">
-        <v>2016</v>
+        <v>2010</v>
       </c>
       <c r="E52" t="s">
-        <v>1008</v>
+        <v>1009</v>
       </c>
       <c r="F52" t="s">
-        <v>437</v>
+        <v>484</v>
       </c>
       <c r="G52" t="s">
         <v>1018</v>
       </c>
       <c r="H52" t="s">
-        <v>81</v>
+        <v>485</v>
       </c>
       <c r="I52" s="8">
         <v>3.57</v>
       </c>
       <c r="J52" s="8">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K52" s="8">
         <v>4</v>
       </c>
       <c r="L52" s="8">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="M52" s="8">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="N52" s="8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O52" s="8">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="P52" s="8">
-        <v>4.5</v>
+        <v>3</v>
       </c>
       <c r="Q52" t="s">
-        <v>82</v>
+        <v>102</v>
       </c>
       <c r="R52" s="8">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="S52" t="str">
-        <f xml:space="preserve"> HYPERLINK("ReviewHtml/review_Big_Fish_and_Begonia.html", "https://2danicritic.github.io/ReviewHtml/review_Big_Fish_and_Begonia.html")</f>
-        <v>https://2danicritic.github.io/ReviewHtml/review_Big_Fish_and_Begonia.html</v>
-      </c>
-      <c r="V52" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>China</v>
-      </c>
-      <c r="X52" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>Film</v>
-      </c>
-    </row>
-    <row r="53" spans="2:24" hidden="1" x14ac:dyDescent="0.35">
+        <f xml:space="preserve"> HYPERLINK("ReviewHtml/review_Chico_and_Rita.html", "https://2danicritic.github.io/ReviewHtml/review_Chico_and_Rita.html")</f>
+        <v>https://2danicritic.github.io/ReviewHtml/review_Chico_and_Rita.html</v>
+      </c>
+    </row>
+    <row r="53" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B53" s="8">
         <v>50</v>
       </c>
@@ -11817,16 +11400,8 @@
         <f xml:space="preserve"> HYPERLINK("ReviewHtml/review_Children_Who_Chase_Lost_Voices.html", "https://2danicritic.github.io/ReviewHtml/review_Children_Who_Chase_Lost_Voices.html")</f>
         <v>https://2danicritic.github.io/ReviewHtml/review_Children_Who_Chase_Lost_Voices.html</v>
       </c>
-      <c r="V53" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>Japan</v>
-      </c>
-      <c r="X53" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>Film</v>
-      </c>
-    </row>
-    <row r="54" spans="2:24" hidden="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="54" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B54" s="8">
         <v>51</v>
       </c>
@@ -11882,16 +11457,8 @@
         <f xml:space="preserve"> HYPERLINK("ReviewHtml/review_Code_Geass_-_Akito_the_Exiled.html", "https://2danicritic.github.io/ReviewHtml/review_Code_Geass_-_Akito_the_Exiled.html")</f>
         <v>https://2danicritic.github.io/ReviewHtml/review_Code_Geass_-_Akito_the_Exiled.html</v>
       </c>
-      <c r="V54" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>Japan</v>
-      </c>
-      <c r="X54" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>OVA</v>
-      </c>
-    </row>
-    <row r="55" spans="2:24" hidden="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="55" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B55" s="8">
         <v>52</v>
       </c>
@@ -11947,16 +11514,8 @@
         <f xml:space="preserve"> HYPERLINK("ReviewHtml/review_Code_Geass_-_Lelouch_of_the_Rebellion.html", "https://2danicritic.github.io/ReviewHtml/review_Code_Geass_-_Lelouch_of_the_Rebellion.html")</f>
         <v>https://2danicritic.github.io/ReviewHtml/review_Code_Geass_-_Lelouch_of_the_Rebellion.html</v>
       </c>
-      <c r="V55" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>Japan</v>
-      </c>
-      <c r="X55" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>TV</v>
-      </c>
-    </row>
-    <row r="56" spans="2:24" hidden="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="56" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B56" s="8">
         <v>53</v>
       </c>
@@ -12012,16 +11571,8 @@
         <f xml:space="preserve"> HYPERLINK("ReviewHtml/review_Code_Geass_-_Lelouch_of_the_Rebellion_-_Movie_Trilogy.html", "https://2danicritic.github.io/ReviewHtml/review_Code_Geass_-_Lelouch_of_the_Rebellion_-_Movie_Trilogy.html")</f>
         <v>https://2danicritic.github.io/ReviewHtml/review_Code_Geass_-_Lelouch_of_the_Rebellion_-_Movie_Trilogy.html</v>
       </c>
-      <c r="V56" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>Japan</v>
-      </c>
-      <c r="X56" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>Film</v>
-      </c>
-    </row>
-    <row r="57" spans="2:24" hidden="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="57" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B57" s="8">
         <v>54</v>
       </c>
@@ -12077,16 +11628,8 @@
         <f xml:space="preserve"> HYPERLINK("ReviewHtml/review_Coffee_Samurai_&amp;_Hoshizora_Kiseki.html", "https://2danicritic.github.io/ReviewHtml/review_Coffee_Samurai_&amp;_Hoshizora_Kiseki.html")</f>
         <v>https://2danicritic.github.io/ReviewHtml/review_Coffee_Samurai_&amp;_Hoshizora_Kiseki.html</v>
       </c>
-      <c r="V57" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>Japan</v>
-      </c>
-      <c r="X57" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>OVA</v>
-      </c>
-    </row>
-    <row r="58" spans="2:24" hidden="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="58" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B58" s="8">
         <v>55</v>
       </c>
@@ -12142,16 +11685,8 @@
         <f xml:space="preserve"> HYPERLINK("ReviewHtml/review_Coicent_&amp;_Five_Numbers.html", "https://2danicritic.github.io/ReviewHtml/review_Coicent_&amp;_Five_Numbers.html")</f>
         <v>https://2danicritic.github.io/ReviewHtml/review_Coicent_&amp;_Five_Numbers.html</v>
       </c>
-      <c r="V58" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>Japan</v>
-      </c>
-      <c r="X58" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>OVA</v>
-      </c>
-    </row>
-    <row r="59" spans="2:24" hidden="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="59" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B59" s="8">
         <v>56</v>
       </c>
@@ -12207,16 +11742,8 @@
         <f xml:space="preserve"> HYPERLINK("ReviewHtml/review_Colorful_-_The_Motion_Picture.html", "https://2danicritic.github.io/ReviewHtml/review_Colorful_-_The_Motion_Picture.html")</f>
         <v>https://2danicritic.github.io/ReviewHtml/review_Colorful_-_The_Motion_Picture.html</v>
       </c>
-      <c r="V59" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>Japan</v>
-      </c>
-      <c r="X59" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>Film</v>
-      </c>
-    </row>
-    <row r="60" spans="2:24" hidden="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="60" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B60" s="8">
         <v>57</v>
       </c>
@@ -12272,16 +11799,8 @@
         <f xml:space="preserve"> HYPERLINK("ReviewHtml/review_Corpse_Princess.html", "https://2danicritic.github.io/ReviewHtml/review_Corpse_Princess.html")</f>
         <v>https://2danicritic.github.io/ReviewHtml/review_Corpse_Princess.html</v>
       </c>
-      <c r="V60" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>Japan</v>
-      </c>
-      <c r="X60" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>TV</v>
-      </c>
-    </row>
-    <row r="61" spans="2:24" hidden="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="61" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B61" s="8">
         <v>58</v>
       </c>
@@ -12337,16 +11856,8 @@
         <f xml:space="preserve"> HYPERLINK("ReviewHtml/review_Cowboy_Bebop_-_The_Movie.html", "https://2danicritic.github.io/ReviewHtml/review_Cowboy_Bebop_-_The_Movie.html")</f>
         <v>https://2danicritic.github.io/ReviewHtml/review_Cowboy_Bebop_-_The_Movie.html</v>
       </c>
-      <c r="V61" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>Japan</v>
-      </c>
-      <c r="X61" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>Film</v>
-      </c>
-    </row>
-    <row r="62" spans="2:24" hidden="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="62" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B62" s="8">
         <v>59</v>
       </c>
@@ -12402,16 +11913,8 @@
         <f xml:space="preserve"> HYPERLINK("ReviewHtml/review_Croisee_in_a_Foreign_Labyrinth.html", "https://2danicritic.github.io/ReviewHtml/review_Croisee_in_a_Foreign_Labyrinth.html")</f>
         <v>https://2danicritic.github.io/ReviewHtml/review_Croisee_in_a_Foreign_Labyrinth.html</v>
       </c>
-      <c r="V62" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>Japan</v>
-      </c>
-      <c r="X62" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>TV</v>
-      </c>
-    </row>
-    <row r="63" spans="2:24" hidden="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="63" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B63" s="8">
         <v>60</v>
       </c>
@@ -12467,16 +11970,8 @@
         <f xml:space="preserve"> HYPERLINK("ReviewHtml/review_Dagashi_Kashi.html", "https://2danicritic.github.io/ReviewHtml/review_Dagashi_Kashi.html")</f>
         <v>https://2danicritic.github.io/ReviewHtml/review_Dagashi_Kashi.html</v>
       </c>
-      <c r="V63" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>Japan</v>
-      </c>
-      <c r="X63" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>TV</v>
-      </c>
-    </row>
-    <row r="64" spans="2:24" hidden="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="64" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B64" s="8">
         <v>61</v>
       </c>
@@ -12532,16 +12027,8 @@
         <f xml:space="preserve"> HYPERLINK("ReviewHtml/review_Dance_in_the_Vampire_Bund.html", "https://2danicritic.github.io/ReviewHtml/review_Dance_in_the_Vampire_Bund.html")</f>
         <v>https://2danicritic.github.io/ReviewHtml/review_Dance_in_the_Vampire_Bund.html</v>
       </c>
-      <c r="V64" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>Japan</v>
-      </c>
-      <c r="X64" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>TV</v>
-      </c>
-    </row>
-    <row r="65" spans="2:24" hidden="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B65" s="8">
         <v>62</v>
       </c>
@@ -12597,16 +12084,8 @@
         <f xml:space="preserve"> HYPERLINK("ReviewHtml/review_Dante's_Inferno_-_An_Animated_Epic.html", "https://2danicritic.github.io/ReviewHtml/review_Dante's_Inferno_-_An_Animated_Epic.html")</f>
         <v>https://2danicritic.github.io/ReviewHtml/review_Dante's_Inferno_-_An_Animated_Epic.html</v>
       </c>
-      <c r="V65" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>Japan</v>
-      </c>
-      <c r="X65" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>Film</v>
-      </c>
-    </row>
-    <row r="66" spans="2:24" hidden="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B66" s="8">
         <v>63</v>
       </c>
@@ -12662,16 +12141,8 @@
         <f xml:space="preserve"> HYPERLINK("ReviewHtml/review_Deadman_Wonderland.html", "https://2danicritic.github.io/ReviewHtml/review_Deadman_Wonderland.html")</f>
         <v>https://2danicritic.github.io/ReviewHtml/review_Deadman_Wonderland.html</v>
       </c>
-      <c r="V66" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>Japan</v>
-      </c>
-      <c r="X66" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>TV</v>
-      </c>
-    </row>
-    <row r="67" spans="2:24" hidden="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="67" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B67" s="8">
         <v>64</v>
       </c>
@@ -12727,16 +12198,8 @@
         <f xml:space="preserve"> HYPERLINK("ReviewHtml/review_Death_Note.html", "https://2danicritic.github.io/ReviewHtml/review_Death_Note.html")</f>
         <v>https://2danicritic.github.io/ReviewHtml/review_Death_Note.html</v>
       </c>
-      <c r="V67" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>Japan</v>
-      </c>
-      <c r="X67" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>TV</v>
-      </c>
-    </row>
-    <row r="68" spans="2:24" hidden="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B68" s="8">
         <v>65</v>
       </c>
@@ -12792,16 +12255,8 @@
         <f xml:space="preserve"> HYPERLINK("ReviewHtml/review_Death_Parade.html", "https://2danicritic.github.io/ReviewHtml/review_Death_Parade.html")</f>
         <v>https://2danicritic.github.io/ReviewHtml/review_Death_Parade.html</v>
       </c>
-      <c r="V68" s="5" t="str">
-        <f t="shared" ref="V68:V131" si="2">TRIM(CLEAN(SUBSTITUTE(E68,CHAR(160)," ")))</f>
-        <v>Japan</v>
-      </c>
-      <c r="X68" s="5" t="str">
-        <f t="shared" ref="X68:X131" si="3">TRIM(CLEAN(SUBSTITUTE(G68,CHAR(160)," ")))</f>
-        <v>TV</v>
-      </c>
-    </row>
-    <row r="69" spans="2:24" hidden="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B69" s="8">
         <v>66</v>
       </c>
@@ -12857,16 +12312,8 @@
         <f xml:space="preserve"> HYPERLINK("ReviewHtml/review_Devilman_-_Crybaby.html", "https://2danicritic.github.io/ReviewHtml/review_Devilman_-_Crybaby.html")</f>
         <v>https://2danicritic.github.io/ReviewHtml/review_Devilman_-_Crybaby.html</v>
       </c>
-      <c r="V69" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>Japan</v>
-      </c>
-      <c r="X69" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>ONA</v>
-      </c>
-    </row>
-    <row r="70" spans="2:24" hidden="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B70" s="8">
         <v>67</v>
       </c>
@@ -12922,16 +12369,8 @@
         <f xml:space="preserve"> HYPERLINK("ReviewHtml/review_Devilman_-_The_Birth,_Demon_Bird_Sirene.html", "https://2danicritic.github.io/ReviewHtml/review_Devilman_-_The_Birth,_Demon_Bird_Sirene.html")</f>
         <v>https://2danicritic.github.io/ReviewHtml/review_Devilman_-_The_Birth,_Demon_Bird_Sirene.html</v>
       </c>
-      <c r="V70" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>Japan</v>
-      </c>
-      <c r="X70" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>OVA</v>
-      </c>
-    </row>
-    <row r="71" spans="2:24" hidden="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B71" s="8">
         <v>68</v>
       </c>
@@ -12987,16 +12426,8 @@
         <f xml:space="preserve"> HYPERLINK("ReviewHtml/review_Dog_and_Scissors.html", "https://2danicritic.github.io/ReviewHtml/review_Dog_and_Scissors.html")</f>
         <v>https://2danicritic.github.io/ReviewHtml/review_Dog_and_Scissors.html</v>
       </c>
-      <c r="V71" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>Japan</v>
-      </c>
-      <c r="X71" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>TV</v>
-      </c>
-    </row>
-    <row r="72" spans="2:24" hidden="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B72" s="8">
         <v>69</v>
       </c>
@@ -13052,16 +12483,8 @@
         <f xml:space="preserve"> HYPERLINK("ReviewHtml/review_Drifters.html", "https://2danicritic.github.io/ReviewHtml/review_Drifters.html")</f>
         <v>https://2danicritic.github.io/ReviewHtml/review_Drifters.html</v>
       </c>
-      <c r="V72" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>Japan</v>
-      </c>
-      <c r="X72" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>TV</v>
-      </c>
-    </row>
-    <row r="73" spans="2:24" hidden="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="73" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B73" s="8">
         <v>70</v>
       </c>
@@ -13117,16 +12540,8 @@
         <f xml:space="preserve"> HYPERLINK("ReviewHtml/review_Dusk_Maiden_of_Amnesia.html", "https://2danicritic.github.io/ReviewHtml/review_Dusk_Maiden_of_Amnesia.html")</f>
         <v>https://2danicritic.github.io/ReviewHtml/review_Dusk_Maiden_of_Amnesia.html</v>
       </c>
-      <c r="V73" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>Japan</v>
-      </c>
-      <c r="X73" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>TV</v>
-      </c>
-    </row>
-    <row r="74" spans="2:24" hidden="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B74" s="8">
         <v>71</v>
       </c>
@@ -13182,16 +12597,8 @@
         <f xml:space="preserve"> HYPERLINK("ReviewHtml/review_Eden_of_the_East.html", "https://2danicritic.github.io/ReviewHtml/review_Eden_of_the_East.html")</f>
         <v>https://2danicritic.github.io/ReviewHtml/review_Eden_of_the_East.html</v>
       </c>
-      <c r="V74" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>Japan</v>
-      </c>
-      <c r="X74" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>TV</v>
-      </c>
-    </row>
-    <row r="75" spans="2:24" hidden="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B75" s="8">
         <v>72</v>
       </c>
@@ -13247,146 +12654,122 @@
         <f xml:space="preserve"> HYPERLINK("ReviewHtml/review_Eden_of_the_East_-_The_King_of_Eden,_Paradise_Lost.html", "https://2danicritic.github.io/ReviewHtml/review_Eden_of_the_East_-_The_King_of_Eden,_Paradise_Lost.html")</f>
         <v>https://2danicritic.github.io/ReviewHtml/review_Eden_of_the_East_-_The_King_of_Eden,_Paradise_Lost.html</v>
       </c>
-      <c r="V75" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>Japan</v>
-      </c>
-      <c r="X75" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>Film</v>
-      </c>
-    </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.35">
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B76" s="8">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C76" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="D76" s="8">
-        <v>2016</v>
+        <v>2012</v>
       </c>
       <c r="E76" t="s">
-        <v>58</v>
+        <v>1006</v>
       </c>
       <c r="F76" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="G76" t="s">
         <v>1018</v>
       </c>
       <c r="H76" t="s">
+        <v>128</v>
+      </c>
+      <c r="I76" s="8">
+        <v>3.93</v>
+      </c>
+      <c r="J76" s="8">
+        <v>4</v>
+      </c>
+      <c r="K76" s="8">
+        <v>4</v>
+      </c>
+      <c r="L76" s="8">
+        <v>4</v>
+      </c>
+      <c r="M76" s="8">
+        <v>3.5</v>
+      </c>
+      <c r="N76" s="8">
+        <v>4</v>
+      </c>
+      <c r="O76" s="8">
+        <v>4</v>
+      </c>
+      <c r="P76" s="8">
+        <v>4</v>
+      </c>
+      <c r="Q76" t="s">
+        <v>129</v>
+      </c>
+      <c r="R76" s="8">
+        <v>79</v>
+      </c>
+      <c r="S76" t="str">
+        <f xml:space="preserve"> HYPERLINK("ReviewHtml/review_Ernest_and_Celestine.html", "https://2danicritic.github.io/ReviewHtml/review_Ernest_and_Celestine.html")</f>
+        <v>https://2danicritic.github.io/ReviewHtml/review_Ernest_and_Celestine.html</v>
+      </c>
+    </row>
+    <row r="77" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="B77" s="8">
+        <v>74</v>
+      </c>
+      <c r="C77" t="s">
+        <v>534</v>
+      </c>
+      <c r="D77" s="8">
+        <v>2016</v>
+      </c>
+      <c r="E77" t="s">
+        <v>58</v>
+      </c>
+      <c r="F77" t="s">
+        <v>535</v>
+      </c>
+      <c r="G77" t="s">
+        <v>1018</v>
+      </c>
+      <c r="H77" t="s">
         <v>536</v>
       </c>
-      <c r="I76" s="8">
+      <c r="I77" s="8">
         <v>3.43</v>
       </c>
-      <c r="J76" s="8">
-        <v>4</v>
-      </c>
-      <c r="K76" s="8">
-        <v>4</v>
-      </c>
-      <c r="L76" s="8">
-        <v>3.5</v>
-      </c>
-      <c r="M76" s="8">
-        <v>3.5</v>
-      </c>
-      <c r="N76" s="8">
+      <c r="J77" s="8">
+        <v>4</v>
+      </c>
+      <c r="K77" s="8">
+        <v>4</v>
+      </c>
+      <c r="L77" s="8">
+        <v>3.5</v>
+      </c>
+      <c r="M77" s="8">
+        <v>3.5</v>
+      </c>
+      <c r="N77" s="8">
         <v>2</v>
       </c>
-      <c r="O76" s="8">
-        <v>3</v>
-      </c>
-      <c r="P76" s="8">
-        <v>4</v>
-      </c>
-      <c r="Q76" t="s">
+      <c r="O77" s="8">
+        <v>3</v>
+      </c>
+      <c r="P77" s="8">
+        <v>4</v>
+      </c>
+      <c r="Q77" t="s">
         <v>130</v>
       </c>
-      <c r="R76" s="8">
+      <c r="R77" s="8">
         <v>86</v>
       </c>
-      <c r="S76" t="str">
+      <c r="S77" t="str">
         <f xml:space="preserve"> HYPERLINK("ReviewHtml/review_Ethel_&amp;_Ernest_.html", "https://2danicritic.github.io/ReviewHtml/review_Ethel_&amp;_Ernest_.html")</f>
         <v>https://2danicritic.github.io/ReviewHtml/review_Ethel_&amp;_Ernest_.html</v>
       </c>
-      <c r="V76" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>United Kingdom</v>
-      </c>
-      <c r="X76" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>Film</v>
-      </c>
-    </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.35">
-      <c r="B77" s="8">
-        <v>131</v>
-      </c>
-      <c r="C77" t="s">
-        <v>632</v>
-      </c>
-      <c r="D77" s="8">
-        <v>2016</v>
-      </c>
-      <c r="E77" t="s">
-        <v>1006</v>
-      </c>
-      <c r="F77" t="s">
-        <v>633</v>
-      </c>
-      <c r="G77" t="s">
-        <v>1018</v>
-      </c>
-      <c r="H77" t="s">
-        <v>181</v>
-      </c>
-      <c r="I77" s="8">
-        <v>3.14</v>
-      </c>
-      <c r="J77" s="8">
-        <v>3</v>
-      </c>
-      <c r="K77" s="8">
-        <v>3.5</v>
-      </c>
-      <c r="L77" s="8">
-        <v>4</v>
-      </c>
-      <c r="M77" s="8">
-        <v>2.5</v>
-      </c>
-      <c r="N77" s="8">
-        <v>3.5</v>
-      </c>
-      <c r="O77" s="8">
-        <v>2.5</v>
-      </c>
-      <c r="P77" s="8">
-        <v>3</v>
-      </c>
-      <c r="Q77" t="s">
-        <v>182</v>
-      </c>
-      <c r="R77" s="8">
-        <v>75</v>
-      </c>
-      <c r="S77" t="str">
-        <f xml:space="preserve"> HYPERLINK("ReviewHtml/review_Louise_By_The_Shore.html", "https://2danicritic.github.io/ReviewHtml/review_Louise_By_The_Shore.html")</f>
-        <v>https://2danicritic.github.io/ReviewHtml/review_Louise_By_The_Shore.html</v>
-      </c>
-      <c r="V77" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>France</v>
-      </c>
-      <c r="X77" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>Film</v>
-      </c>
-    </row>
-    <row r="78" spans="2:24" hidden="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="78" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B78" s="8">
         <v>75</v>
       </c>
@@ -13442,16 +12825,8 @@
         <f xml:space="preserve"> HYPERLINK("ReviewHtml/review_Evangelion_1.11_-_You_Are_(Not)_Alone.html", "https://2danicritic.github.io/ReviewHtml/review_Evangelion_1.11_-_You_Are_(Not)_Alone.html")</f>
         <v>https://2danicritic.github.io/ReviewHtml/review_Evangelion_1.11_-_You_Are_(Not)_Alone.html</v>
       </c>
-      <c r="V78" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>Japan</v>
-      </c>
-      <c r="X78" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>Film</v>
-      </c>
-    </row>
-    <row r="79" spans="2:24" hidden="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B79" s="8">
         <v>76</v>
       </c>
@@ -13507,16 +12882,8 @@
         <f xml:space="preserve"> HYPERLINK("ReviewHtml/review_Evangelion_2.22_-_You_Can_(Not)_Advance.html", "https://2danicritic.github.io/ReviewHtml/review_Evangelion_2.22_-_You_Can_(Not)_Advance.html")</f>
         <v>https://2danicritic.github.io/ReviewHtml/review_Evangelion_2.22_-_You_Can_(Not)_Advance.html</v>
       </c>
-      <c r="V79" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>Japan</v>
-      </c>
-      <c r="X79" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>Film</v>
-      </c>
-    </row>
-    <row r="80" spans="2:24" hidden="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="80" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B80" s="8">
         <v>77</v>
       </c>
@@ -13572,16 +12939,8 @@
         <f xml:space="preserve"> HYPERLINK("ReviewHtml/review_Evangelion_3.33_-_You_Can_(Not)_Redo.html", "https://2danicritic.github.io/ReviewHtml/review_Evangelion_3.33_-_You_Can_(Not)_Redo.html")</f>
         <v>https://2danicritic.github.io/ReviewHtml/review_Evangelion_3.33_-_You_Can_(Not)_Redo.html</v>
       </c>
-      <c r="V80" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>Japan</v>
-      </c>
-      <c r="X80" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>Film</v>
-      </c>
-    </row>
-    <row r="81" spans="2:24" hidden="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="81" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B81" s="8">
         <v>78</v>
       </c>
@@ -13637,16 +12996,8 @@
         <f xml:space="preserve"> HYPERLINK("ReviewHtml/review_Fairy_Tail_-_Dragon_Cry.html", "https://2danicritic.github.io/ReviewHtml/review_Fairy_Tail_-_Dragon_Cry.html")</f>
         <v>https://2danicritic.github.io/ReviewHtml/review_Fairy_Tail_-_Dragon_Cry.html</v>
       </c>
-      <c r="V81" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>Japan</v>
-      </c>
-      <c r="X81" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>Film</v>
-      </c>
-    </row>
-    <row r="82" spans="2:24" hidden="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="82" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B82" s="8">
         <v>79</v>
       </c>
@@ -13702,16 +13053,8 @@
         <f xml:space="preserve"> HYPERLINK("ReviewHtml/review_Fate_-_Stay_Night.html", "https://2danicritic.github.io/ReviewHtml/review_Fate_-_Stay_Night.html")</f>
         <v>https://2danicritic.github.io/ReviewHtml/review_Fate_-_Stay_Night.html</v>
       </c>
-      <c r="V82" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>Japan</v>
-      </c>
-      <c r="X82" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>TV</v>
-      </c>
-    </row>
-    <row r="83" spans="2:24" hidden="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="83" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B83" s="8">
         <v>80</v>
       </c>
@@ -13767,81 +13110,65 @@
         <f xml:space="preserve"> HYPERLINK("ReviewHtml/review_Fate_-_Zero.html", "https://2danicritic.github.io/ReviewHtml/review_Fate_-_Zero.html")</f>
         <v>https://2danicritic.github.io/ReviewHtml/review_Fate_-_Zero.html</v>
       </c>
-      <c r="V83" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>Japan</v>
-      </c>
-      <c r="X83" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>TV</v>
-      </c>
-    </row>
-    <row r="84" spans="2:24" x14ac:dyDescent="0.35">
+    </row>
+    <row r="84" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B84" s="8">
-        <v>162</v>
+        <v>81</v>
       </c>
       <c r="C84" t="s">
-        <v>688</v>
+        <v>961</v>
       </c>
       <c r="D84" s="8">
-        <v>2016</v>
+        <v>1983</v>
       </c>
       <c r="E84" t="s">
         <v>1007</v>
       </c>
       <c r="F84" t="s">
-        <v>689</v>
+        <v>986</v>
       </c>
       <c r="G84" t="s">
         <v>1018</v>
       </c>
       <c r="H84" t="s">
-        <v>690</v>
+        <v>902</v>
       </c>
       <c r="I84" s="8">
-        <v>1.79</v>
+        <v>2.93</v>
       </c>
       <c r="J84" s="8">
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="K84" s="8">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="L84" s="8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M84" s="8">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="N84" s="8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O84" s="8">
-        <v>2</v>
+        <v>3.5</v>
       </c>
       <c r="P84" s="8">
-        <v>1</v>
+        <v>3.5</v>
       </c>
       <c r="Q84" t="s">
-        <v>206</v>
+        <v>923</v>
       </c>
       <c r="R84" s="8">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="S84" t="str">
-        <f xml:space="preserve"> HYPERLINK("ReviewHtml/review_My_Entire_High_School_Sinking_Into_The_Sea.html", "https://2danicritic.github.io/ReviewHtml/review_My_Entire_High_School_Sinking_Into_The_Sea.html")</f>
-        <v>https://2danicritic.github.io/ReviewHtml/review_My_Entire_High_School_Sinking_Into_The_Sea.html</v>
-      </c>
-      <c r="V84" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>USA</v>
-      </c>
-      <c r="X84" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>Film</v>
-      </c>
-    </row>
-    <row r="85" spans="2:24" hidden="1" x14ac:dyDescent="0.35">
+        <f xml:space="preserve"> HYPERLINK("ReviewHtml/review_Fire_and_Ice.html", "https://2danicritic.github.io/ReviewHtml/review_Fire_and_Ice.html")</f>
+        <v>https://2danicritic.github.io/ReviewHtml/review_Fire_and_Ice.html</v>
+      </c>
+    </row>
+    <row r="85" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B85" s="8">
         <v>82</v>
       </c>
@@ -13897,16 +13224,8 @@
         <f xml:space="preserve"> HYPERLINK("ReviewHtml/review_Fireworks.html", "https://2danicritic.github.io/ReviewHtml/review_Fireworks.html")</f>
         <v>https://2danicritic.github.io/ReviewHtml/review_Fireworks.html</v>
       </c>
-      <c r="V85" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>Japan</v>
-      </c>
-      <c r="X85" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>Film</v>
-      </c>
-    </row>
-    <row r="86" spans="2:24" hidden="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="86" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B86" s="8">
         <v>83</v>
       </c>
@@ -13962,16 +13281,8 @@
         <f xml:space="preserve"> HYPERLINK("ReviewHtml/review_FLCL.html", "https://2danicritic.github.io/ReviewHtml/review_FLCL.html")</f>
         <v>https://2danicritic.github.io/ReviewHtml/review_FLCL.html</v>
       </c>
-      <c r="V86" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>Japan</v>
-      </c>
-      <c r="X86" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>OVA</v>
-      </c>
-    </row>
-    <row r="87" spans="2:24" hidden="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="87" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B87" s="8">
         <v>84</v>
       </c>
@@ -14027,16 +13338,8 @@
         <f xml:space="preserve"> HYPERLINK("ReviewHtml/review_Flip_Flappers.html", "https://2danicritic.github.io/ReviewHtml/review_Flip_Flappers.html")</f>
         <v>https://2danicritic.github.io/ReviewHtml/review_Flip_Flappers.html</v>
       </c>
-      <c r="V87" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>Japan</v>
-      </c>
-      <c r="X87" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>TV</v>
-      </c>
-    </row>
-    <row r="88" spans="2:24" hidden="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="88" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B88" s="8">
         <v>85</v>
       </c>
@@ -14092,16 +13395,8 @@
         <f xml:space="preserve"> HYPERLINK("ReviewHtml/review_From_Up_On_Poppy_Hill.html", "https://2danicritic.github.io/ReviewHtml/review_From_Up_On_Poppy_Hill.html")</f>
         <v>https://2danicritic.github.io/ReviewHtml/review_From_Up_On_Poppy_Hill.html</v>
       </c>
-      <c r="V88" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>Japan</v>
-      </c>
-      <c r="X88" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>Film</v>
-      </c>
-    </row>
-    <row r="89" spans="2:24" hidden="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="89" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B89" s="8">
         <v>86</v>
       </c>
@@ -14157,16 +13452,8 @@
         <f xml:space="preserve"> HYPERLINK("ReviewHtml/review_Gangsta.html", "https://2danicritic.github.io/ReviewHtml/review_Gangsta.html")</f>
         <v>https://2danicritic.github.io/ReviewHtml/review_Gangsta.html</v>
       </c>
-      <c r="V89" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>Japan</v>
-      </c>
-      <c r="X89" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>TV</v>
-      </c>
-    </row>
-    <row r="90" spans="2:24" hidden="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="90" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B90" s="8">
         <v>87</v>
       </c>
@@ -14222,16 +13509,8 @@
         <f xml:space="preserve"> HYPERLINK("ReviewHtml/review_Gankutsuou_-_The_Count_of_Monte_Cristo.html", "https://2danicritic.github.io/ReviewHtml/review_Gankutsuou_-_The_Count_of_Monte_Cristo.html")</f>
         <v>https://2danicritic.github.io/ReviewHtml/review_Gankutsuou_-_The_Count_of_Monte_Cristo.html</v>
       </c>
-      <c r="V90" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>Japan</v>
-      </c>
-      <c r="X90" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>TV</v>
-      </c>
-    </row>
-    <row r="91" spans="2:24" hidden="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="91" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B91" s="8">
         <v>88</v>
       </c>
@@ -14287,16 +13566,8 @@
         <f xml:space="preserve"> HYPERLINK("ReviewHtml/review_Gantz.html", "https://2danicritic.github.io/ReviewHtml/review_Gantz.html")</f>
         <v>https://2danicritic.github.io/ReviewHtml/review_Gantz.html</v>
       </c>
-      <c r="V91" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>Japan</v>
-      </c>
-      <c r="X91" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>TV</v>
-      </c>
-    </row>
-    <row r="92" spans="2:24" hidden="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="92" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B92" s="8">
         <v>89</v>
       </c>
@@ -14352,16 +13623,8 @@
         <f xml:space="preserve"> HYPERLINK("ReviewHtml/review_Gargantia_on_the_Verdurous_Planet.html", "https://2danicritic.github.io/ReviewHtml/review_Gargantia_on_the_Verdurous_Planet.html")</f>
         <v>https://2danicritic.github.io/ReviewHtml/review_Gargantia_on_the_Verdurous_Planet.html</v>
       </c>
-      <c r="V92" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>Japan</v>
-      </c>
-      <c r="X92" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>TV</v>
-      </c>
-    </row>
-    <row r="93" spans="2:24" hidden="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="93" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B93" s="8">
         <v>90</v>
       </c>
@@ -14417,16 +13680,8 @@
         <f xml:space="preserve"> HYPERLINK("ReviewHtml/review_Genocidal_Organ.html", "https://2danicritic.github.io/ReviewHtml/review_Genocidal_Organ.html")</f>
         <v>https://2danicritic.github.io/ReviewHtml/review_Genocidal_Organ.html</v>
       </c>
-      <c r="V93" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>Japan</v>
-      </c>
-      <c r="X93" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>Film</v>
-      </c>
-    </row>
-    <row r="94" spans="2:24" hidden="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="94" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B94" s="8">
         <v>91</v>
       </c>
@@ -14482,16 +13737,8 @@
         <f xml:space="preserve"> HYPERLINK("ReviewHtml/review_Ghost_in_the_Shell.html", "https://2danicritic.github.io/ReviewHtml/review_Ghost_in_the_Shell.html")</f>
         <v>https://2danicritic.github.io/ReviewHtml/review_Ghost_in_the_Shell.html</v>
       </c>
-      <c r="V94" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>Japan</v>
-      </c>
-      <c r="X94" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>Film</v>
-      </c>
-    </row>
-    <row r="95" spans="2:24" hidden="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="95" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B95" s="8">
         <v>92</v>
       </c>
@@ -14547,16 +13794,8 @@
         <f xml:space="preserve"> HYPERLINK("ReviewHtml/review_Ghost_in_the_Shell_-_Solid_State_Society.html", "https://2danicritic.github.io/ReviewHtml/review_Ghost_in_the_Shell_-_Solid_State_Society.html")</f>
         <v>https://2danicritic.github.io/ReviewHtml/review_Ghost_in_the_Shell_-_Solid_State_Society.html</v>
       </c>
-      <c r="V95" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>Japan</v>
-      </c>
-      <c r="X95" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>Film</v>
-      </c>
-    </row>
-    <row r="96" spans="2:24" hidden="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="96" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B96" s="8">
         <v>93</v>
       </c>
@@ -14612,16 +13851,8 @@
         <f xml:space="preserve"> HYPERLINK("ReviewHtml/review_Ghost_in_the_Shell_-_Stand_Alone_Complex.html", "https://2danicritic.github.io/ReviewHtml/review_Ghost_in_the_Shell_-_Stand_Alone_Complex.html")</f>
         <v>https://2danicritic.github.io/ReviewHtml/review_Ghost_in_the_Shell_-_Stand_Alone_Complex.html</v>
       </c>
-      <c r="V96" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>Japan</v>
-      </c>
-      <c r="X96" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>TV</v>
-      </c>
-    </row>
-    <row r="97" spans="2:24" hidden="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="97" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B97" s="8">
         <v>94</v>
       </c>
@@ -14677,16 +13908,8 @@
         <f xml:space="preserve"> HYPERLINK("ReviewHtml/review_Ghost_in_the_Shell_2_-_Innocence.html", "https://2danicritic.github.io/ReviewHtml/review_Ghost_in_the_Shell_2_-_Innocence.html")</f>
         <v>https://2danicritic.github.io/ReviewHtml/review_Ghost_in_the_Shell_2_-_Innocence.html</v>
       </c>
-      <c r="V97" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>Japan</v>
-      </c>
-      <c r="X97" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>Film</v>
-      </c>
-    </row>
-    <row r="98" spans="2:24" hidden="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="98" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B98" s="8">
         <v>95</v>
       </c>
@@ -14742,16 +13965,8 @@
         <f xml:space="preserve"> HYPERLINK("ReviewHtml/review_Good_Luck_Girl!.html", "https://2danicritic.github.io/ReviewHtml/review_Good_Luck_Girl!.html")</f>
         <v>https://2danicritic.github.io/ReviewHtml/review_Good_Luck_Girl!.html</v>
       </c>
-      <c r="V98" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>Japan</v>
-      </c>
-      <c r="X98" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>TV</v>
-      </c>
-    </row>
-    <row r="99" spans="2:24" hidden="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="99" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B99" s="8">
         <v>96</v>
       </c>
@@ -14807,16 +14022,8 @@
         <f xml:space="preserve"> HYPERLINK("ReviewHtml/review_Grave_of_the_Fireflies.html", "https://2danicritic.github.io/ReviewHtml/review_Grave_of_the_Fireflies.html")</f>
         <v>https://2danicritic.github.io/ReviewHtml/review_Grave_of_the_Fireflies.html</v>
       </c>
-      <c r="V99" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>Japan</v>
-      </c>
-      <c r="X99" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>Film</v>
-      </c>
-    </row>
-    <row r="100" spans="2:24" hidden="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="100" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B100" s="8">
         <v>97</v>
       </c>
@@ -14872,16 +14079,8 @@
         <f xml:space="preserve"> HYPERLINK("ReviewHtml/review_Grimgar_-_Ashes_and_Illusions.html", "https://2danicritic.github.io/ReviewHtml/review_Grimgar_-_Ashes_and_Illusions.html")</f>
         <v>https://2danicritic.github.io/ReviewHtml/review_Grimgar_-_Ashes_and_Illusions.html</v>
       </c>
-      <c r="V100" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>Japan</v>
-      </c>
-      <c r="X100" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>TV</v>
-      </c>
-    </row>
-    <row r="101" spans="2:24" hidden="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="101" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B101" s="8">
         <v>98</v>
       </c>
@@ -14937,16 +14136,8 @@
         <f xml:space="preserve"> HYPERLINK("ReviewHtml/review_Ground_Control_to_Psychoelectric_Girl.html", "https://2danicritic.github.io/ReviewHtml/review_Ground_Control_to_Psychoelectric_Girl.html")</f>
         <v>https://2danicritic.github.io/ReviewHtml/review_Ground_Control_to_Psychoelectric_Girl.html</v>
       </c>
-      <c r="V101" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>Japan</v>
-      </c>
-      <c r="X101" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>TV</v>
-      </c>
-    </row>
-    <row r="102" spans="2:24" hidden="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="102" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B102" s="8">
         <v>99</v>
       </c>
@@ -15002,16 +14193,8 @@
         <f xml:space="preserve"> HYPERLINK("ReviewHtml/review_Guilty_Crown.html", "https://2danicritic.github.io/ReviewHtml/review_Guilty_Crown.html")</f>
         <v>https://2danicritic.github.io/ReviewHtml/review_Guilty_Crown.html</v>
       </c>
-      <c r="V102" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>Japan</v>
-      </c>
-      <c r="X102" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>TV</v>
-      </c>
-    </row>
-    <row r="103" spans="2:24" hidden="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="103" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B103" s="8">
         <v>100</v>
       </c>
@@ -15067,81 +14250,65 @@
         <f xml:space="preserve"> HYPERLINK("ReviewHtml/review_Harmony.html", "https://2danicritic.github.io/ReviewHtml/review_Harmony.html")</f>
         <v>https://2danicritic.github.io/ReviewHtml/review_Harmony.html</v>
       </c>
-      <c r="V103" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>Japan</v>
-      </c>
-      <c r="X103" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>Film</v>
-      </c>
-    </row>
-    <row r="104" spans="2:24" x14ac:dyDescent="0.35">
+    </row>
+    <row r="104" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B104" s="8">
-        <v>171</v>
+        <v>101</v>
       </c>
       <c r="C104" t="s">
-        <v>699</v>
+        <v>578</v>
       </c>
       <c r="D104" s="8">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="E104" t="s">
-        <v>1007</v>
+        <v>1008</v>
       </c>
       <c r="F104" t="s">
-        <v>700</v>
+        <v>579</v>
       </c>
       <c r="G104" t="s">
         <v>1018</v>
       </c>
       <c r="H104" t="s">
-        <v>701</v>
+        <v>580</v>
       </c>
       <c r="I104" s="8">
-        <v>2.14</v>
+        <v>3.57</v>
       </c>
       <c r="J104" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K104" s="8">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L104" s="8">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M104" s="8">
         <v>4</v>
       </c>
       <c r="N104" s="8">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O104" s="8">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P104" s="8">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="Q104" t="s">
-        <v>212</v>
+        <v>154</v>
       </c>
       <c r="R104" s="8">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="S104" t="str">
-        <f xml:space="preserve"> HYPERLINK("ReviewHtml/review_Nerdland.html", "https://2danicritic.github.io/ReviewHtml/review_Nerdland.html")</f>
-        <v>https://2danicritic.github.io/ReviewHtml/review_Nerdland.html</v>
-      </c>
-      <c r="V104" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>USA</v>
-      </c>
-      <c r="X104" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>Film</v>
-      </c>
-    </row>
-    <row r="105" spans="2:24" hidden="1" x14ac:dyDescent="0.35">
+        <f xml:space="preserve"> HYPERLINK("ReviewHtml/review_Have_a_Nice_Day.html", "https://2danicritic.github.io/ReviewHtml/review_Have_a_Nice_Day.html")</f>
+        <v>https://2danicritic.github.io/ReviewHtml/review_Have_a_Nice_Day.html</v>
+      </c>
+    </row>
+    <row r="105" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B105" s="8">
         <v>102</v>
       </c>
@@ -15197,16 +14364,8 @@
         <f xml:space="preserve"> HYPERLINK("ReviewHtml/review_Heaven's_Lost_Property.html", "https://2danicritic.github.io/ReviewHtml/review_Heaven's_Lost_Property.html")</f>
         <v>https://2danicritic.github.io/ReviewHtml/review_Heaven's_Lost_Property.html</v>
       </c>
-      <c r="V105" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>Japan</v>
-      </c>
-      <c r="X105" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>TV</v>
-      </c>
-    </row>
-    <row r="106" spans="2:24" hidden="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="106" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B106" s="8">
         <v>103</v>
       </c>
@@ -15262,16 +14421,8 @@
         <f xml:space="preserve"> HYPERLINK("ReviewHtml/review_Heaven's_Lost_Property_the_Movie_-_The_Angeloid_of_Clockwork.html", "https://2danicritic.github.io/ReviewHtml/review_Heaven's_Lost_Property_the_Movie_-_The_Angeloid_of_Clockwork.html")</f>
         <v>https://2danicritic.github.io/ReviewHtml/review_Heaven's_Lost_Property_the_Movie_-_The_Angeloid_of_Clockwork.html</v>
       </c>
-      <c r="V106" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>Japan</v>
-      </c>
-      <c r="X106" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>Film</v>
-      </c>
-    </row>
-    <row r="107" spans="2:24" hidden="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="107" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B107" s="8">
         <v>104</v>
       </c>
@@ -15327,16 +14478,8 @@
         <f xml:space="preserve"> HYPERLINK("ReviewHtml/review_Heaven's_Memo_Pad.html", "https://2danicritic.github.io/ReviewHtml/review_Heaven's_Memo_Pad.html")</f>
         <v>https://2danicritic.github.io/ReviewHtml/review_Heaven's_Memo_Pad.html</v>
       </c>
-      <c r="V107" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>Japan</v>
-      </c>
-      <c r="X107" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>TV</v>
-      </c>
-    </row>
-    <row r="108" spans="2:24" hidden="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="108" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B108" s="8">
         <v>105</v>
       </c>
@@ -15392,16 +14535,8 @@
         <f xml:space="preserve"> HYPERLINK("ReviewHtml/review_Hells.html", "https://2danicritic.github.io/ReviewHtml/review_Hells.html")</f>
         <v>https://2danicritic.github.io/ReviewHtml/review_Hells.html</v>
       </c>
-      <c r="V108" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>Japan</v>
-      </c>
-      <c r="X108" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>Film</v>
-      </c>
-    </row>
-    <row r="109" spans="2:24" hidden="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="109" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B109" s="8">
         <v>106</v>
       </c>
@@ -15457,16 +14592,8 @@
         <f xml:space="preserve"> HYPERLINK("ReviewHtml/review_Hellsing_Ultimate.html", "https://2danicritic.github.io/ReviewHtml/review_Hellsing_Ultimate.html")</f>
         <v>https://2danicritic.github.io/ReviewHtml/review_Hellsing_Ultimate.html</v>
       </c>
-      <c r="V109" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>Japan</v>
-      </c>
-      <c r="X109" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>OVA</v>
-      </c>
-    </row>
-    <row r="110" spans="2:24" hidden="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="110" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B110" s="8">
         <v>107</v>
       </c>
@@ -15522,16 +14649,8 @@
         <f xml:space="preserve"> HYPERLINK("ReviewHtml/review_Hetalia_-_Season_1_and_2.html", "https://2danicritic.github.io/ReviewHtml/review_Hetalia_-_Season_1_and_2.html")</f>
         <v>https://2danicritic.github.io/ReviewHtml/review_Hetalia_-_Season_1_and_2.html</v>
       </c>
-      <c r="V110" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>Japan</v>
-      </c>
-      <c r="X110" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>ONA</v>
-      </c>
-    </row>
-    <row r="111" spans="2:24" hidden="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="111" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B111" s="8">
         <v>108</v>
       </c>
@@ -15587,16 +14706,8 @@
         <f xml:space="preserve"> HYPERLINK("ReviewHtml/review_Highschool_DxD.html", "https://2danicritic.github.io/ReviewHtml/review_Highschool_DxD.html")</f>
         <v>https://2danicritic.github.io/ReviewHtml/review_Highschool_DxD.html</v>
       </c>
-      <c r="V111" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>Japan</v>
-      </c>
-      <c r="X111" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>TV</v>
-      </c>
-    </row>
-    <row r="112" spans="2:24" hidden="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="112" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B112" s="8">
         <v>109</v>
       </c>
@@ -15652,16 +14763,8 @@
         <f xml:space="preserve"> HYPERLINK("ReviewHtml/review_Highschool_of_the_Dead.html", "https://2danicritic.github.io/ReviewHtml/review_Highschool_of_the_Dead.html")</f>
         <v>https://2danicritic.github.io/ReviewHtml/review_Highschool_of_the_Dead.html</v>
       </c>
-      <c r="V112" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>Japan</v>
-      </c>
-      <c r="X112" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>TV</v>
-      </c>
-    </row>
-    <row r="113" spans="2:24" hidden="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="113" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B113" s="8">
         <v>110</v>
       </c>
@@ -15717,16 +14820,8 @@
         <f xml:space="preserve"> HYPERLINK("ReviewHtml/review_Howl's_Moving_Castle.html", "https://2danicritic.github.io/ReviewHtml/review_Howl's_Moving_Castle.html")</f>
         <v>https://2danicritic.github.io/ReviewHtml/review_Howl's_Moving_Castle.html</v>
       </c>
-      <c r="V113" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>Japan</v>
-      </c>
-      <c r="X113" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>Film</v>
-      </c>
-    </row>
-    <row r="114" spans="2:24" hidden="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="114" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B114" s="8">
         <v>111</v>
       </c>
@@ -15782,81 +14877,65 @@
         <f xml:space="preserve"> HYPERLINK("ReviewHtml/review_I_Want_To_Eat_Your_Pancreas.html", "https://2danicritic.github.io/ReviewHtml/review_I_Want_To_Eat_Your_Pancreas.html")</f>
         <v>https://2danicritic.github.io/ReviewHtml/review_I_Want_To_Eat_Your_Pancreas.html</v>
       </c>
-      <c r="V114" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>Japan</v>
-      </c>
-      <c r="X114" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>Film</v>
-      </c>
-    </row>
-    <row r="115" spans="2:24" x14ac:dyDescent="0.35">
+    </row>
+    <row r="115" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B115" s="8">
-        <v>181</v>
+        <v>112</v>
       </c>
       <c r="C115" t="s">
-        <v>716</v>
+        <v>593</v>
       </c>
       <c r="D115" s="8">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="E115" t="s">
-        <v>1013</v>
+        <v>1010</v>
       </c>
       <c r="F115" t="s">
-        <v>717</v>
+        <v>594</v>
       </c>
       <c r="G115" t="s">
         <v>1018</v>
       </c>
       <c r="H115" t="s">
-        <v>718</v>
+        <v>595</v>
       </c>
       <c r="I115" s="8">
-        <v>2.93</v>
+        <v>3.43</v>
       </c>
       <c r="J115" s="8">
         <v>3</v>
       </c>
       <c r="K115" s="8">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="L115" s="8">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="M115" s="8">
-        <v>1.5</v>
+        <v>4</v>
       </c>
       <c r="N115" s="8">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="O115" s="8">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="P115" s="8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Q115" t="s">
-        <v>220</v>
+        <v>166</v>
       </c>
       <c r="R115" s="8">
-        <v>65</v>
+        <v>85</v>
       </c>
       <c r="S115" t="str">
-        <f xml:space="preserve"> HYPERLINK("ReviewHtml/review_Nova_Seed.html", "https://2danicritic.github.io/ReviewHtml/review_Nova_Seed.html")</f>
-        <v>https://2danicritic.github.io/ReviewHtml/review_Nova_Seed.html</v>
-      </c>
-      <c r="V115" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>Canada</v>
-      </c>
-      <c r="X115" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>Film</v>
-      </c>
-    </row>
-    <row r="116" spans="2:24" hidden="1" x14ac:dyDescent="0.35">
+        <f xml:space="preserve"> HYPERLINK("ReviewHtml/review_I'll_Just_Live_In_Bando.html", "https://2danicritic.github.io/ReviewHtml/review_I'll_Just_Live_In_Bando.html")</f>
+        <v>https://2danicritic.github.io/ReviewHtml/review_I'll_Just_Live_In_Bando.html</v>
+      </c>
+    </row>
+    <row r="116" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B116" s="8">
         <v>113</v>
       </c>
@@ -15912,16 +14991,8 @@
         <f xml:space="preserve"> HYPERLINK("ReviewHtml/review_In_This_Corner_of_the_World.html", "https://2danicritic.github.io/ReviewHtml/review_In_This_Corner_of_the_World.html")</f>
         <v>https://2danicritic.github.io/ReviewHtml/review_In_This_Corner_of_the_World.html</v>
       </c>
-      <c r="V116" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>Japan</v>
-      </c>
-      <c r="X116" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>Film</v>
-      </c>
-    </row>
-    <row r="117" spans="2:24" hidden="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="117" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B117" s="8">
         <v>114</v>
       </c>
@@ -15977,16 +15048,8 @@
         <f xml:space="preserve"> HYPERLINK("ReviewHtml/review_Indian_Summer.html", "https://2danicritic.github.io/ReviewHtml/review_Indian_Summer.html")</f>
         <v>https://2danicritic.github.io/ReviewHtml/review_Indian_Summer.html</v>
       </c>
-      <c r="V117" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>Japan</v>
-      </c>
-      <c r="X117" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>OVA</v>
-      </c>
-    </row>
-    <row r="118" spans="2:24" hidden="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="118" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B118" s="8">
         <v>115</v>
       </c>
@@ -16042,81 +15105,65 @@
         <f xml:space="preserve"> HYPERLINK("ReviewHtml/review_Is_It_Wrong_To_Try_To_Pick_Up_Girls_In_A_Dungeon.html", "https://2danicritic.github.io/ReviewHtml/review_Is_It_Wrong_To_Try_To_Pick_Up_Girls_In_A_Dungeon.html")</f>
         <v>https://2danicritic.github.io/ReviewHtml/review_Is_It_Wrong_To_Try_To_Pick_Up_Girls_In_A_Dungeon.html</v>
       </c>
-      <c r="V118" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>Japan</v>
-      </c>
-      <c r="X118" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>TV</v>
-      </c>
-    </row>
-    <row r="119" spans="2:24" x14ac:dyDescent="0.35">
+    </row>
+    <row r="119" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B119" s="8">
-        <v>248</v>
+        <v>116</v>
       </c>
       <c r="C119" t="s">
-        <v>825</v>
+        <v>604</v>
       </c>
       <c r="D119" s="8">
-        <v>2016</v>
+        <v>2012</v>
       </c>
       <c r="E119" t="s">
-        <v>1016</v>
+        <v>1007</v>
       </c>
       <c r="F119" t="s">
-        <v>826</v>
+        <v>605</v>
       </c>
       <c r="G119" t="s">
         <v>1018</v>
       </c>
       <c r="H119" t="s">
-        <v>273</v>
+        <v>606</v>
       </c>
       <c r="I119" s="8">
-        <v>3</v>
+        <v>3.57</v>
       </c>
       <c r="J119" s="8">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="K119" s="8">
+        <v>3</v>
+      </c>
+      <c r="L119" s="8">
         <v>2.5</v>
       </c>
-      <c r="L119" s="8">
-        <v>3</v>
-      </c>
       <c r="M119" s="8">
         <v>3</v>
       </c>
       <c r="N119" s="8">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="O119" s="8">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="P119" s="8">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Q119" t="s">
-        <v>274</v>
+        <v>168</v>
       </c>
       <c r="R119" s="8">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="S119" t="str">
-        <f xml:space="preserve"> HYPERLINK("ReviewHtml/review_The_Girl_Without_Hands.html", "https://2danicritic.github.io/ReviewHtml/review_The_Girl_Without_Hands.html")</f>
-        <v>https://2danicritic.github.io/ReviewHtml/review_The_Girl_Without_Hands.html</v>
-      </c>
-      <c r="V119" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>French</v>
-      </c>
-      <c r="X119" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>Film</v>
-      </c>
-    </row>
-    <row r="120" spans="2:24" hidden="1" x14ac:dyDescent="0.35">
+        <f xml:space="preserve"> HYPERLINK("ReviewHtml/review_It's_Such_a_Beautiful_Day.html", "https://2danicritic.github.io/ReviewHtml/review_It's_Such_a_Beautiful_Day.html")</f>
+        <v>https://2danicritic.github.io/ReviewHtml/review_It's_Such_a_Beautiful_Day.html</v>
+      </c>
+    </row>
+    <row r="120" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B120" s="8">
         <v>117</v>
       </c>
@@ -16172,81 +15219,65 @@
         <f xml:space="preserve"> HYPERLINK("ReviewHtml/review_Jormungand.html", "https://2danicritic.github.io/ReviewHtml/review_Jormungand.html")</f>
         <v>https://2danicritic.github.io/ReviewHtml/review_Jormungand.html</v>
       </c>
-      <c r="V120" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>Japan</v>
-      </c>
-      <c r="X120" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>TV</v>
-      </c>
-    </row>
-    <row r="121" spans="2:24" x14ac:dyDescent="0.35">
+    </row>
+    <row r="121" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B121" s="8">
-        <v>263</v>
+        <v>118</v>
       </c>
       <c r="C121" t="s">
-        <v>850</v>
+        <v>964</v>
       </c>
       <c r="D121" s="8">
-        <v>2016</v>
+        <v>2000</v>
       </c>
       <c r="E121" t="s">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="F121" t="s">
-        <v>851</v>
+        <v>988</v>
       </c>
       <c r="G121" t="s">
         <v>1018</v>
       </c>
       <c r="H121" t="s">
-        <v>286</v>
+        <v>926</v>
       </c>
       <c r="I121" s="8">
-        <v>3.71</v>
+        <v>2.64</v>
       </c>
       <c r="J121" s="8">
-        <v>4</v>
+        <v>2.5</v>
       </c>
       <c r="K121" s="8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L121" s="8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M121" s="8">
         <v>3</v>
       </c>
       <c r="N121" s="8">
-        <v>4</v>
+        <v>2.5</v>
       </c>
       <c r="O121" s="8">
+        <v>2.5</v>
+      </c>
+      <c r="P121" s="8">
         <v>2</v>
       </c>
-      <c r="P121" s="8">
-        <v>5</v>
-      </c>
       <c r="Q121" t="s">
-        <v>287</v>
+        <v>204</v>
       </c>
       <c r="R121" s="8">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="S121" t="str">
-        <f xml:space="preserve"> HYPERLINK("ReviewHtml/review_The_Red_Turtle.html", "https://2danicritic.github.io/ReviewHtml/review_The_Red_Turtle.html")</f>
-        <v>https://2danicritic.github.io/ReviewHtml/review_The_Red_Turtle.html</v>
-      </c>
-      <c r="V121" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>France</v>
-      </c>
-      <c r="X121" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>Film</v>
-      </c>
-    </row>
-    <row r="122" spans="2:24" hidden="1" x14ac:dyDescent="0.35">
+        <f xml:space="preserve"> HYPERLINK("ReviewHtml/review_Joseph_-_King_of_Dreams.html", "https://2danicritic.github.io/ReviewHtml/review_Joseph_-_King_of_Dreams.html")</f>
+        <v>https://2danicritic.github.io/ReviewHtml/review_Joseph_-_King_of_Dreams.html</v>
+      </c>
+    </row>
+    <row r="122" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B122" s="8">
         <v>119</v>
       </c>
@@ -16302,16 +15333,8 @@
         <f xml:space="preserve"> HYPERLINK("ReviewHtml/review_K.html", "https://2danicritic.github.io/ReviewHtml/review_K.html")</f>
         <v>https://2danicritic.github.io/ReviewHtml/review_K.html</v>
       </c>
-      <c r="V122" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>Japan</v>
-      </c>
-      <c r="X122" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>TV</v>
-      </c>
-    </row>
-    <row r="123" spans="2:24" hidden="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="123" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B123" s="8">
         <v>120</v>
       </c>
@@ -16367,16 +15390,8 @@
         <f xml:space="preserve"> HYPERLINK("ReviewHtml/review_Kaiba.html", "https://2danicritic.github.io/ReviewHtml/review_Kaiba.html")</f>
         <v>https://2danicritic.github.io/ReviewHtml/review_Kaiba.html</v>
       </c>
-      <c r="V123" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>Japan</v>
-      </c>
-      <c r="X123" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>TV</v>
-      </c>
-    </row>
-    <row r="124" spans="2:24" hidden="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="124" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B124" s="8">
         <v>121</v>
       </c>
@@ -16432,16 +15447,8 @@
         <f xml:space="preserve"> HYPERLINK("ReviewHtml/review_Kannagi_-_Crazy_Shrine_Maidens.html", "https://2danicritic.github.io/ReviewHtml/review_Kannagi_-_Crazy_Shrine_Maidens.html")</f>
         <v>https://2danicritic.github.io/ReviewHtml/review_Kannagi_-_Crazy_Shrine_Maidens.html</v>
       </c>
-      <c r="V124" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>Japan</v>
-      </c>
-      <c r="X124" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>TV</v>
-      </c>
-    </row>
-    <row r="125" spans="2:24" hidden="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="125" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B125" s="8">
         <v>122</v>
       </c>
@@ -16497,16 +15504,8 @@
         <f xml:space="preserve"> HYPERLINK("ReviewHtml/review_Kanokon_-_The_Girl_Who_Cried_Fox.html", "https://2danicritic.github.io/ReviewHtml/review_Kanokon_-_The_Girl_Who_Cried_Fox.html")</f>
         <v>https://2danicritic.github.io/ReviewHtml/review_Kanokon_-_The_Girl_Who_Cried_Fox.html</v>
       </c>
-      <c r="V125" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>Japan</v>
-      </c>
-      <c r="X125" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>TV</v>
-      </c>
-    </row>
-    <row r="126" spans="2:24" hidden="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="126" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B126" s="8">
         <v>123</v>
       </c>
@@ -16562,16 +15561,8 @@
         <f xml:space="preserve"> HYPERLINK("ReviewHtml/review_Keijo.html", "https://2danicritic.github.io/ReviewHtml/review_Keijo.html")</f>
         <v>https://2danicritic.github.io/ReviewHtml/review_Keijo.html</v>
       </c>
-      <c r="V126" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>Japan</v>
-      </c>
-      <c r="X126" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>TV</v>
-      </c>
-    </row>
-    <row r="127" spans="2:24" hidden="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="127" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B127" s="8">
         <v>124</v>
       </c>
@@ -16627,16 +15618,8 @@
         <f xml:space="preserve"> HYPERLINK("ReviewHtml/review_Kiki's_Delivery_Service.html", "https://2danicritic.github.io/ReviewHtml/review_Kiki's_Delivery_Service.html")</f>
         <v>https://2danicritic.github.io/ReviewHtml/review_Kiki's_Delivery_Service.html</v>
       </c>
-      <c r="V127" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>Japan</v>
-      </c>
-      <c r="X127" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>Film</v>
-      </c>
-    </row>
-    <row r="128" spans="2:24" hidden="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="128" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B128" s="8">
         <v>125</v>
       </c>
@@ -16692,16 +15675,8 @@
         <f xml:space="preserve"> HYPERLINK("ReviewHtml/review_Kill_la_Kill.html", "https://2danicritic.github.io/ReviewHtml/review_Kill_la_Kill.html")</f>
         <v>https://2danicritic.github.io/ReviewHtml/review_Kill_la_Kill.html</v>
       </c>
-      <c r="V128" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>Japan</v>
-      </c>
-      <c r="X128" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>TV</v>
-      </c>
-    </row>
-    <row r="129" spans="2:24" hidden="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="129" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B129" s="8">
         <v>126</v>
       </c>
@@ -16757,16 +15732,8 @@
         <f xml:space="preserve"> HYPERLINK("ReviewHtml/review_Kino's_Journey.html", "https://2danicritic.github.io/ReviewHtml/review_Kino's_Journey.html")</f>
         <v>https://2danicritic.github.io/ReviewHtml/review_Kino's_Journey.html</v>
       </c>
-      <c r="V129" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>Japan</v>
-      </c>
-      <c r="X129" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>TV</v>
-      </c>
-    </row>
-    <row r="130" spans="2:24" hidden="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="130" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B130" s="8">
         <v>127</v>
       </c>
@@ -16822,16 +15789,8 @@
         <f xml:space="preserve"> HYPERLINK("ReviewHtml/review_Kizumonogatari_-_Tekketsu,_Nekketsu,_Reiketsu.html", "https://2danicritic.github.io/ReviewHtml/review_Kizumonogatari_-_Tekketsu,_Nekketsu,_Reiketsu.html")</f>
         <v>https://2danicritic.github.io/ReviewHtml/review_Kizumonogatari_-_Tekketsu,_Nekketsu,_Reiketsu.html</v>
       </c>
-      <c r="V130" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>Japan</v>
-      </c>
-      <c r="X130" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>Film</v>
-      </c>
-    </row>
-    <row r="131" spans="2:24" hidden="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="131" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B131" s="8">
         <v>128</v>
       </c>
@@ -16887,16 +15846,8 @@
         <f xml:space="preserve"> HYPERLINK("ReviewHtml/review_Kokoro_Connect.html", "https://2danicritic.github.io/ReviewHtml/review_Kokoro_Connect.html")</f>
         <v>https://2danicritic.github.io/ReviewHtml/review_Kokoro_Connect.html</v>
       </c>
-      <c r="V131" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>Japan</v>
-      </c>
-      <c r="X131" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>TV</v>
-      </c>
-    </row>
-    <row r="132" spans="2:24" hidden="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="132" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B132" s="8">
         <v>129</v>
       </c>
@@ -16952,16 +15903,8 @@
         <f xml:space="preserve"> HYPERLINK("ReviewHtml/review_Kyousougiga.html", "https://2danicritic.github.io/ReviewHtml/review_Kyousougiga.html")</f>
         <v>https://2danicritic.github.io/ReviewHtml/review_Kyousougiga.html</v>
       </c>
-      <c r="V132" s="5" t="str">
-        <f t="shared" ref="V132:V195" si="4">TRIM(CLEAN(SUBSTITUTE(E132,CHAR(160)," ")))</f>
-        <v>Japan</v>
-      </c>
-      <c r="X132" s="5" t="str">
-        <f t="shared" ref="X132:X195" si="5">TRIM(CLEAN(SUBSTITUTE(G132,CHAR(160)," ")))</f>
-        <v>TV</v>
-      </c>
-    </row>
-    <row r="133" spans="2:24" hidden="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="133" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B133" s="8">
         <v>130</v>
       </c>
@@ -17017,81 +15960,65 @@
         <f xml:space="preserve"> HYPERLINK("ReviewHtml/review_Liz_and_the_Blue_Bird.html", "https://2danicritic.github.io/ReviewHtml/review_Liz_and_the_Blue_Bird.html")</f>
         <v>https://2danicritic.github.io/ReviewHtml/review_Liz_and_the_Blue_Bird.html</v>
       </c>
-      <c r="V133" s="5" t="str">
-        <f t="shared" si="4"/>
-        <v>Japan</v>
-      </c>
-      <c r="X133" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v>Film</v>
-      </c>
-    </row>
-    <row r="134" spans="2:24" x14ac:dyDescent="0.35">
+    </row>
+    <row r="134" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B134" s="8">
-        <v>296</v>
+        <v>131</v>
       </c>
       <c r="C134" t="s">
-        <v>897</v>
+        <v>632</v>
       </c>
       <c r="D134" s="8">
         <v>2016</v>
       </c>
       <c r="E134" t="s">
-        <v>1013</v>
+        <v>1006</v>
       </c>
       <c r="F134" t="s">
-        <v>898</v>
+        <v>633</v>
       </c>
       <c r="G134" t="s">
         <v>1018</v>
       </c>
       <c r="H134" t="s">
-        <v>899</v>
+        <v>181</v>
       </c>
       <c r="I134" s="8">
         <v>3.14</v>
       </c>
       <c r="J134" s="8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K134" s="8">
-        <v>2</v>
+        <v>3.5</v>
       </c>
       <c r="L134" s="8">
+        <v>4</v>
+      </c>
+      <c r="M134" s="8">
         <v>2.5</v>
       </c>
-      <c r="M134" s="8">
-        <v>4</v>
-      </c>
       <c r="N134" s="8">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="O134" s="8">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="P134" s="8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Q134" t="s">
-        <v>112</v>
+        <v>182</v>
       </c>
       <c r="R134" s="8">
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="S134" t="str">
-        <f xml:space="preserve"> HYPERLINK("ReviewHtml/review_Window_Horses_-_The_Poetic_Persian_Epiphany_of_Rosie_Ming.html", "https://2danicritic.github.io/ReviewHtml/review_Window_Horses_-_The_Poetic_Persian_Epiphany_of_Rosie_Ming.html")</f>
-        <v>https://2danicritic.github.io/ReviewHtml/review_Window_Horses_-_The_Poetic_Persian_Epiphany_of_Rosie_Ming.html</v>
-      </c>
-      <c r="V134" s="5" t="str">
-        <f t="shared" si="4"/>
-        <v>Canada</v>
-      </c>
-      <c r="X134" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v>Film</v>
-      </c>
-    </row>
-    <row r="135" spans="2:24" hidden="1" x14ac:dyDescent="0.35">
+        <f xml:space="preserve"> HYPERLINK("ReviewHtml/review_Louise_By_The_Shore.html", "https://2danicritic.github.io/ReviewHtml/review_Louise_By_The_Shore.html")</f>
+        <v>https://2danicritic.github.io/ReviewHtml/review_Louise_By_The_Shore.html</v>
+      </c>
+    </row>
+    <row r="135" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B135" s="8">
         <v>132</v>
       </c>
@@ -17147,16 +16074,8 @@
         <f xml:space="preserve"> HYPERLINK("ReviewHtml/review_Loups=Garous.html", "https://2danicritic.github.io/ReviewHtml/review_Loups=Garous.html")</f>
         <v>https://2danicritic.github.io/ReviewHtml/review_Loups=Garous.html</v>
       </c>
-      <c r="V135" s="5" t="str">
-        <f t="shared" si="4"/>
-        <v>Japan</v>
-      </c>
-      <c r="X135" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v>Film</v>
-      </c>
-    </row>
-    <row r="136" spans="2:24" hidden="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="136" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B136" s="8">
         <v>133</v>
       </c>
@@ -17212,81 +16131,65 @@
         <f xml:space="preserve"> HYPERLINK("ReviewHtml/review_Love,_Chunibyo_&amp;_Other_Delusions!.html", "https://2danicritic.github.io/ReviewHtml/review_Love,_Chunibyo_&amp;_Other_Delusions!.html")</f>
         <v>https://2danicritic.github.io/ReviewHtml/review_Love,_Chunibyo_&amp;_Other_Delusions!.html</v>
       </c>
-      <c r="V136" s="5" t="str">
-        <f t="shared" si="4"/>
-        <v>Japan</v>
-      </c>
-      <c r="X136" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v>TV</v>
-      </c>
-    </row>
-    <row r="137" spans="2:24" x14ac:dyDescent="0.35">
+    </row>
+    <row r="137" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B137" s="8">
-        <v>13</v>
+        <v>134</v>
       </c>
       <c r="C137" t="s">
-        <v>405</v>
+        <v>639</v>
       </c>
       <c r="D137" s="8">
-        <v>2015</v>
+        <v>2017</v>
       </c>
       <c r="E137" t="s">
-        <v>1006</v>
+        <v>1012</v>
       </c>
       <c r="F137" t="s">
-        <v>406</v>
+        <v>640</v>
       </c>
       <c r="G137" t="s">
         <v>1018</v>
       </c>
       <c r="H137" t="s">
-        <v>69</v>
+        <v>184</v>
       </c>
       <c r="I137" s="8">
-        <v>3.5</v>
+        <v>4.07</v>
       </c>
       <c r="J137" s="8">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="K137" s="8">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="L137" s="8">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M137" s="8">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="N137" s="8">
         <v>3.5</v>
       </c>
       <c r="O137" s="8">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="P137" s="8">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q137" t="s">
-        <v>70</v>
+        <v>185</v>
       </c>
       <c r="R137" s="8">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="S137" t="str">
-        <f xml:space="preserve"> HYPERLINK("ReviewHtml/review_April_and_the_Extraordinary_World.html", "https://2danicritic.github.io/ReviewHtml/review_April_and_the_Extraordinary_World.html")</f>
-        <v>https://2danicritic.github.io/ReviewHtml/review_April_and_the_Extraordinary_World.html</v>
-      </c>
-      <c r="V137" s="5" t="str">
-        <f t="shared" si="4"/>
-        <v>France</v>
-      </c>
-      <c r="X137" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v>Film</v>
-      </c>
-    </row>
-    <row r="138" spans="2:24" hidden="1" x14ac:dyDescent="0.35">
+        <f xml:space="preserve"> HYPERLINK("ReviewHtml/review_Loving_Vincent.html", "https://2danicritic.github.io/ReviewHtml/review_Loving_Vincent.html")</f>
+        <v>https://2danicritic.github.io/ReviewHtml/review_Loving_Vincent.html</v>
+      </c>
+    </row>
+    <row r="138" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B138" s="8">
         <v>135</v>
       </c>
@@ -17342,16 +16245,8 @@
         <f xml:space="preserve"> HYPERLINK("ReviewHtml/review_Lu_Over_The_Wall.html", "https://2danicritic.github.io/ReviewHtml/review_Lu_Over_The_Wall.html")</f>
         <v>https://2danicritic.github.io/ReviewHtml/review_Lu_Over_The_Wall.html</v>
       </c>
-      <c r="V138" s="5" t="str">
-        <f t="shared" si="4"/>
-        <v>Japan</v>
-      </c>
-      <c r="X138" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v>Film</v>
-      </c>
-    </row>
-    <row r="139" spans="2:24" hidden="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="139" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B139" s="8">
         <v>136</v>
       </c>
@@ -17407,16 +16302,8 @@
         <f xml:space="preserve"> HYPERLINK("ReviewHtml/review_Lunar_Legend_-_Tsukihime.html", "https://2danicritic.github.io/ReviewHtml/review_Lunar_Legend_-_Tsukihime.html")</f>
         <v>https://2danicritic.github.io/ReviewHtml/review_Lunar_Legend_-_Tsukihime.html</v>
       </c>
-      <c r="V139" s="5" t="str">
-        <f t="shared" si="4"/>
-        <v>Japan</v>
-      </c>
-      <c r="X139" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v>TV</v>
-      </c>
-    </row>
-    <row r="140" spans="2:24" hidden="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="140" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B140" s="8">
         <v>137</v>
       </c>
@@ -17472,16 +16359,8 @@
         <f xml:space="preserve"> HYPERLINK("ReviewHtml/review_Lupin_the_Third_-_Episode_0_-_First_Contact.html", "https://2danicritic.github.io/ReviewHtml/review_Lupin_the_Third_-_Episode_0_-_First_Contact.html")</f>
         <v>https://2danicritic.github.io/ReviewHtml/review_Lupin_the_Third_-_Episode_0_-_First_Contact.html</v>
       </c>
-      <c r="V140" s="5" t="str">
-        <f t="shared" si="4"/>
-        <v>Japan</v>
-      </c>
-      <c r="X140" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v>Film</v>
-      </c>
-    </row>
-    <row r="141" spans="2:24" hidden="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="141" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B141" s="8">
         <v>138</v>
       </c>
@@ -17537,16 +16416,8 @@
         <f xml:space="preserve"> HYPERLINK("ReviewHtml/review_Lupin_the_Third_-_Green_VS_Red.html", "https://2danicritic.github.io/ReviewHtml/review_Lupin_the_Third_-_Green_VS_Red.html")</f>
         <v>https://2danicritic.github.io/ReviewHtml/review_Lupin_the_Third_-_Green_VS_Red.html</v>
       </c>
-      <c r="V141" s="5" t="str">
-        <f t="shared" si="4"/>
-        <v>Japan</v>
-      </c>
-      <c r="X141" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v>OVA</v>
-      </c>
-    </row>
-    <row r="142" spans="2:24" hidden="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="142" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B142" s="8">
         <v>139</v>
       </c>
@@ -17602,16 +16473,8 @@
         <f xml:space="preserve"> HYPERLINK("ReviewHtml/review_Lupin_the_Third_-_Jigen's_Gravestone.html", "https://2danicritic.github.io/ReviewHtml/review_Lupin_the_Third_-_Jigen's_Gravestone.html")</f>
         <v>https://2danicritic.github.io/ReviewHtml/review_Lupin_the_Third_-_Jigen's_Gravestone.html</v>
       </c>
-      <c r="V142" s="5" t="str">
-        <f t="shared" si="4"/>
-        <v>Japan</v>
-      </c>
-      <c r="X142" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v>Film</v>
-      </c>
-    </row>
-    <row r="143" spans="2:24" hidden="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="143" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B143" s="8">
         <v>140</v>
       </c>
@@ -17667,16 +16530,8 @@
         <f xml:space="preserve"> HYPERLINK("ReviewHtml/review_Lupin_the_Third_-_The_Castle_of_Cagliostro.html", "https://2danicritic.github.io/ReviewHtml/review_Lupin_the_Third_-_The_Castle_of_Cagliostro.html")</f>
         <v>https://2danicritic.github.io/ReviewHtml/review_Lupin_the_Third_-_The_Castle_of_Cagliostro.html</v>
       </c>
-      <c r="V143" s="5" t="str">
-        <f t="shared" si="4"/>
-        <v>Japan</v>
-      </c>
-      <c r="X143" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v>Film</v>
-      </c>
-    </row>
-    <row r="144" spans="2:24" hidden="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="144" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B144" s="8">
         <v>141</v>
       </c>
@@ -17732,16 +16587,8 @@
         <f xml:space="preserve"> HYPERLINK("ReviewHtml/review_Lupin_the_Third_-_The_Fuma_Conspiracy.html", "https://2danicritic.github.io/ReviewHtml/review_Lupin_the_Third_-_The_Fuma_Conspiracy.html")</f>
         <v>https://2danicritic.github.io/ReviewHtml/review_Lupin_the_Third_-_The_Fuma_Conspiracy.html</v>
       </c>
-      <c r="V144" s="5" t="str">
-        <f t="shared" si="4"/>
-        <v>Japan</v>
-      </c>
-      <c r="X144" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v>Film</v>
-      </c>
-    </row>
-    <row r="145" spans="2:24" hidden="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="145" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B145" s="8">
         <v>142</v>
       </c>
@@ -17797,16 +16644,8 @@
         <f xml:space="preserve"> HYPERLINK("ReviewHtml/review_Lupin_the_Third_-_The_Mystery_of_Mamo.html", "https://2danicritic.github.io/ReviewHtml/review_Lupin_the_Third_-_The_Mystery_of_Mamo.html")</f>
         <v>https://2danicritic.github.io/ReviewHtml/review_Lupin_the_Third_-_The_Mystery_of_Mamo.html</v>
       </c>
-      <c r="V145" s="5" t="str">
-        <f t="shared" si="4"/>
-        <v>Japan</v>
-      </c>
-      <c r="X145" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v>Film</v>
-      </c>
-    </row>
-    <row r="146" spans="2:24" hidden="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="146" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B146" s="8">
         <v>143</v>
       </c>
@@ -17862,16 +16701,8 @@
         <f xml:space="preserve"> HYPERLINK("ReviewHtml/review_Lupin_the_Third_-_The_Woman_Called_Fujiko_Mine.html", "https://2danicritic.github.io/ReviewHtml/review_Lupin_the_Third_-_The_Woman_Called_Fujiko_Mine.html")</f>
         <v>https://2danicritic.github.io/ReviewHtml/review_Lupin_the_Third_-_The_Woman_Called_Fujiko_Mine.html</v>
       </c>
-      <c r="V146" s="5" t="str">
-        <f t="shared" si="4"/>
-        <v>Japan</v>
-      </c>
-      <c r="X146" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v>TV</v>
-      </c>
-    </row>
-    <row r="147" spans="2:24" hidden="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="147" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B147" s="8">
         <v>144</v>
       </c>
@@ -17927,16 +16758,8 @@
         <f xml:space="preserve"> HYPERLINK("ReviewHtml/review_Madoka_Magica_The_Movie_1_&amp;_2_-_Beginnings,_Eternal.html", "https://2danicritic.github.io/ReviewHtml/review_Madoka_Magica_The_Movie_1_&amp;_2_-_Beginnings,_Eternal.html")</f>
         <v>https://2danicritic.github.io/ReviewHtml/review_Madoka_Magica_The_Movie_1_&amp;_2_-_Beginnings,_Eternal.html</v>
       </c>
-      <c r="V147" s="5" t="str">
-        <f t="shared" si="4"/>
-        <v>Japan</v>
-      </c>
-      <c r="X147" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v>Film</v>
-      </c>
-    </row>
-    <row r="148" spans="2:24" hidden="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="148" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B148" s="8">
         <v>145</v>
       </c>
@@ -17992,16 +16815,8 @@
         <f xml:space="preserve"> HYPERLINK("ReviewHtml/review_Madoka_Magica_The_Movie_3_-_Rebellion.html", "https://2danicritic.github.io/ReviewHtml/review_Madoka_Magica_The_Movie_3_-_Rebellion.html")</f>
         <v>https://2danicritic.github.io/ReviewHtml/review_Madoka_Magica_The_Movie_3_-_Rebellion.html</v>
       </c>
-      <c r="V148" s="5" t="str">
-        <f t="shared" si="4"/>
-        <v>Japan</v>
-      </c>
-      <c r="X148" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v>Film</v>
-      </c>
-    </row>
-    <row r="149" spans="2:24" hidden="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="149" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B149" s="8">
         <v>146</v>
       </c>
@@ -18057,16 +16872,8 @@
         <f xml:space="preserve"> HYPERLINK("ReviewHtml/review_Maquia_-_When_the_Promised_Flower_Blooms.html", "https://2danicritic.github.io/ReviewHtml/review_Maquia_-_When_the_Promised_Flower_Blooms.html")</f>
         <v>https://2danicritic.github.io/ReviewHtml/review_Maquia_-_When_the_Promised_Flower_Blooms.html</v>
       </c>
-      <c r="V149" s="5" t="str">
-        <f t="shared" si="4"/>
-        <v>Japan</v>
-      </c>
-      <c r="X149" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v>Film</v>
-      </c>
-    </row>
-    <row r="150" spans="2:24" hidden="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="150" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B150" s="8">
         <v>147</v>
       </c>
@@ -18122,16 +16929,8 @@
         <f xml:space="preserve"> HYPERLINK("ReviewHtml/review_Mary_and_the_Witch's_Flower.html", "https://2danicritic.github.io/ReviewHtml/review_Mary_and_the_Witch's_Flower.html")</f>
         <v>https://2danicritic.github.io/ReviewHtml/review_Mary_and_the_Witch's_Flower.html</v>
       </c>
-      <c r="V150" s="5" t="str">
-        <f t="shared" si="4"/>
-        <v>Japan</v>
-      </c>
-      <c r="X150" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v>Film</v>
-      </c>
-    </row>
-    <row r="151" spans="2:24" hidden="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="151" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B151" s="8">
         <v>148</v>
       </c>
@@ -18187,16 +16986,8 @@
         <f xml:space="preserve"> HYPERLINK("ReviewHtml/review_Mayo_Chiki!.html", "https://2danicritic.github.io/ReviewHtml/review_Mayo_Chiki!.html")</f>
         <v>https://2danicritic.github.io/ReviewHtml/review_Mayo_Chiki!.html</v>
       </c>
-      <c r="V151" s="5" t="str">
-        <f t="shared" si="4"/>
-        <v>Japan</v>
-      </c>
-      <c r="X151" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v>TV</v>
-      </c>
-    </row>
-    <row r="152" spans="2:24" hidden="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="152" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B152" s="8">
         <v>149</v>
       </c>
@@ -18252,16 +17043,8 @@
         <f xml:space="preserve"> HYPERLINK("ReviewHtml/review_Metropolis.html", "https://2danicritic.github.io/ReviewHtml/review_Metropolis.html")</f>
         <v>https://2danicritic.github.io/ReviewHtml/review_Metropolis.html</v>
       </c>
-      <c r="V152" s="5" t="str">
-        <f t="shared" si="4"/>
-        <v>Japan</v>
-      </c>
-      <c r="X152" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v>Film</v>
-      </c>
-    </row>
-    <row r="153" spans="2:24" hidden="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="153" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B153" s="8">
         <v>150</v>
       </c>
@@ -18317,16 +17100,8 @@
         <f xml:space="preserve"> HYPERLINK("ReviewHtml/review_Mezzo_DSA.html", "https://2danicritic.github.io/ReviewHtml/review_Mezzo_DSA.html")</f>
         <v>https://2danicritic.github.io/ReviewHtml/review_Mezzo_DSA.html</v>
       </c>
-      <c r="V153" s="5" t="str">
-        <f t="shared" si="4"/>
-        <v>Japan</v>
-      </c>
-      <c r="X153" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v>TV</v>
-      </c>
-    </row>
-    <row r="154" spans="2:24" hidden="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="154" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B154" s="8">
         <v>151</v>
       </c>
@@ -18382,81 +17157,65 @@
         <f xml:space="preserve"> HYPERLINK("ReviewHtml/review_Mezzo_Forte.html", "https://2danicritic.github.io/ReviewHtml/review_Mezzo_Forte.html")</f>
         <v>https://2danicritic.github.io/ReviewHtml/review_Mezzo_Forte.html</v>
       </c>
-      <c r="V154" s="5" t="str">
-        <f t="shared" si="4"/>
-        <v>Japan</v>
-      </c>
-      <c r="X154" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v>OVA</v>
-      </c>
-    </row>
-    <row r="155" spans="2:24" x14ac:dyDescent="0.35">
+    </row>
+    <row r="155" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B155" s="8">
-        <v>28</v>
+        <v>152</v>
       </c>
       <c r="C155" t="s">
-        <v>438</v>
+        <v>670</v>
       </c>
       <c r="D155" s="8">
-        <v>2015</v>
+        <v>2017</v>
       </c>
       <c r="E155" t="s">
-        <v>1009</v>
+        <v>1006</v>
       </c>
       <c r="F155" t="s">
-        <v>439</v>
+        <v>431</v>
       </c>
       <c r="G155" t="s">
         <v>1018</v>
       </c>
       <c r="H155" t="s">
-        <v>83</v>
+        <v>200</v>
       </c>
       <c r="I155" s="8">
-        <v>2.86</v>
+        <v>3.43</v>
       </c>
       <c r="J155" s="8">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="K155" s="8">
         <v>3.5</v>
       </c>
       <c r="L155" s="8">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="M155" s="8">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="N155" s="8">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="O155" s="8">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="P155" s="8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q155" t="s">
-        <v>84</v>
+        <v>201</v>
       </c>
       <c r="R155" s="8">
-        <v>76</v>
+        <v>90</v>
       </c>
       <c r="S155" t="str">
-        <f xml:space="preserve"> HYPERLINK("ReviewHtml/review_Birdboy_-_The_Forgotten_Children.html", "https://2danicritic.github.io/ReviewHtml/review_Birdboy_-_The_Forgotten_Children.html")</f>
-        <v>https://2danicritic.github.io/ReviewHtml/review_Birdboy_-_The_Forgotten_Children.html</v>
-      </c>
-      <c r="V155" s="5" t="str">
-        <f t="shared" si="4"/>
-        <v>Spain</v>
-      </c>
-      <c r="X155" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v>Film</v>
-      </c>
-    </row>
-    <row r="156" spans="2:24" hidden="1" x14ac:dyDescent="0.35">
+        <f xml:space="preserve"> HYPERLINK("ReviewHtml/review_MFKZ.html", "https://2danicritic.github.io/ReviewHtml/review_MFKZ.html")</f>
+        <v>https://2danicritic.github.io/ReviewHtml/review_MFKZ.html</v>
+      </c>
+    </row>
+    <row r="156" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B156" s="8">
         <v>153</v>
       </c>
@@ -18512,16 +17271,8 @@
         <f xml:space="preserve"> HYPERLINK("ReviewHtml/review_Mind_Game.html", "https://2danicritic.github.io/ReviewHtml/review_Mind_Game.html")</f>
         <v>https://2danicritic.github.io/ReviewHtml/review_Mind_Game.html</v>
       </c>
-      <c r="V156" s="5" t="str">
-        <f t="shared" si="4"/>
-        <v>Japan</v>
-      </c>
-      <c r="X156" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v>Film</v>
-      </c>
-    </row>
-    <row r="157" spans="2:24" hidden="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="157" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B157" s="8">
         <v>154</v>
       </c>
@@ -18577,16 +17328,8 @@
         <f xml:space="preserve"> HYPERLINK("ReviewHtml/review_Mirai.html", "https://2danicritic.github.io/ReviewHtml/review_Mirai.html")</f>
         <v>https://2danicritic.github.io/ReviewHtml/review_Mirai.html</v>
       </c>
-      <c r="V157" s="5" t="str">
-        <f t="shared" si="4"/>
-        <v>Japan</v>
-      </c>
-      <c r="X157" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v>Film</v>
-      </c>
-    </row>
-    <row r="158" spans="2:24" hidden="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="158" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B158" s="8">
         <v>155</v>
       </c>
@@ -18642,16 +17385,8 @@
         <f xml:space="preserve"> HYPERLINK("ReviewHtml/review_Miss_Kobayashi's_Dragon_Maid.html", "https://2danicritic.github.io/ReviewHtml/review_Miss_Kobayashi's_Dragon_Maid.html")</f>
         <v>https://2danicritic.github.io/ReviewHtml/review_Miss_Kobayashi's_Dragon_Maid.html</v>
       </c>
-      <c r="V158" s="5" t="str">
-        <f t="shared" si="4"/>
-        <v>Japan</v>
-      </c>
-      <c r="X158" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v>TV</v>
-      </c>
-    </row>
-    <row r="159" spans="2:24" hidden="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="159" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B159" s="8">
         <v>156</v>
       </c>
@@ -18707,16 +17442,8 @@
         <f xml:space="preserve"> HYPERLINK("ReviewHtml/review_Modest_Heroes.html", "https://2danicritic.github.io/ReviewHtml/review_Modest_Heroes.html")</f>
         <v>https://2danicritic.github.io/ReviewHtml/review_Modest_Heroes.html</v>
       </c>
-      <c r="V159" s="5" t="str">
-        <f t="shared" si="4"/>
-        <v>Japan</v>
-      </c>
-      <c r="X159" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v>Anthology</v>
-      </c>
-    </row>
-    <row r="160" spans="2:24" hidden="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="160" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B160" s="8">
         <v>157</v>
       </c>
@@ -18772,16 +17499,8 @@
         <f xml:space="preserve"> HYPERLINK("ReviewHtml/review_Monogatari_Series_-_Second_Season.html", "https://2danicritic.github.io/ReviewHtml/review_Monogatari_Series_-_Second_Season.html")</f>
         <v>https://2danicritic.github.io/ReviewHtml/review_Monogatari_Series_-_Second_Season.html</v>
       </c>
-      <c r="V160" s="5" t="str">
-        <f t="shared" si="4"/>
-        <v>Japan</v>
-      </c>
-      <c r="X160" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v>TV</v>
-      </c>
-    </row>
-    <row r="161" spans="2:24" hidden="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="161" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B161" s="8">
         <v>158</v>
       </c>
@@ -18837,16 +17556,8 @@
         <f xml:space="preserve"> HYPERLINK("ReviewHtml/review_Monster_Musume_-_Everyday_Life_With_Monster_Girls.html", "https://2danicritic.github.io/ReviewHtml/review_Monster_Musume_-_Everyday_Life_With_Monster_Girls.html")</f>
         <v>https://2danicritic.github.io/ReviewHtml/review_Monster_Musume_-_Everyday_Life_With_Monster_Girls.html</v>
       </c>
-      <c r="V161" s="5" t="str">
-        <f t="shared" si="4"/>
-        <v>Japan</v>
-      </c>
-      <c r="X161" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v>TV</v>
-      </c>
-    </row>
-    <row r="162" spans="2:24" hidden="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="162" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B162" s="8">
         <v>159</v>
       </c>
@@ -18902,211 +17613,179 @@
         <f xml:space="preserve"> HYPERLINK("ReviewHtml/review_Mushi-Shi.html", "https://2danicritic.github.io/ReviewHtml/review_Mushi-Shi.html")</f>
         <v>https://2danicritic.github.io/ReviewHtml/review_Mushi-Shi.html</v>
       </c>
-      <c r="V162" s="5" t="str">
-        <f t="shared" si="4"/>
-        <v>Japan</v>
-      </c>
-      <c r="X162" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v>TV</v>
-      </c>
-    </row>
-    <row r="163" spans="2:24" x14ac:dyDescent="0.35">
+    </row>
+    <row r="163" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B163" s="8">
-        <v>213</v>
+        <v>160</v>
       </c>
       <c r="C163" t="s">
-        <v>773</v>
+        <v>682</v>
       </c>
       <c r="D163" s="8">
-        <v>2014</v>
+        <v>2002</v>
       </c>
       <c r="E163" t="s">
         <v>1010</v>
       </c>
       <c r="F163" t="s">
-        <v>774</v>
+        <v>683</v>
       </c>
       <c r="G163" t="s">
         <v>1018</v>
       </c>
       <c r="H163" t="s">
-        <v>775</v>
+        <v>684</v>
       </c>
       <c r="I163" s="8">
-        <v>2.93</v>
+        <v>1.43</v>
       </c>
       <c r="J163" s="8">
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="K163" s="8">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="L163" s="8">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="M163" s="8">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="N163" s="8">
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="O163" s="8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P163" s="8">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="Q163" t="s">
-        <v>244</v>
+        <v>204</v>
       </c>
       <c r="R163" s="8">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="S163" t="str">
-        <f xml:space="preserve"> HYPERLINK("ReviewHtml/review_Satellite_Girl_and_Milk_Cow.html", "https://2danicritic.github.io/ReviewHtml/review_Satellite_Girl_and_Milk_Cow.html")</f>
-        <v>https://2danicritic.github.io/ReviewHtml/review_Satellite_Girl_and_Milk_Cow.html</v>
-      </c>
-      <c r="V163" s="5" t="str">
-        <f t="shared" si="4"/>
-        <v>South Korea</v>
-      </c>
-      <c r="X163" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v>Film</v>
-      </c>
-    </row>
-    <row r="164" spans="2:24" x14ac:dyDescent="0.35">
+        <f xml:space="preserve"> HYPERLINK("ReviewHtml/review_My_Beautiful_Girl_Mari.html", "https://2danicritic.github.io/ReviewHtml/review_My_Beautiful_Girl_Mari.html")</f>
+        <v>https://2danicritic.github.io/ReviewHtml/review_My_Beautiful_Girl_Mari.html</v>
+      </c>
+    </row>
+    <row r="164" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B164" s="8">
-        <v>219</v>
+        <v>161</v>
       </c>
       <c r="C164" t="s">
-        <v>783</v>
+        <v>685</v>
       </c>
       <c r="D164" s="8">
-        <v>2014</v>
+        <v>2017</v>
       </c>
       <c r="E164" t="s">
-        <v>1015</v>
+        <v>1010</v>
       </c>
       <c r="F164" t="s">
-        <v>784</v>
+        <v>686</v>
       </c>
       <c r="G164" t="s">
         <v>1018</v>
       </c>
       <c r="H164" t="s">
-        <v>785</v>
+        <v>687</v>
       </c>
       <c r="I164" s="8">
-        <v>3.36</v>
+        <v>2.5</v>
       </c>
       <c r="J164" s="8">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="K164" s="8">
-        <v>4.5</v>
+        <v>2</v>
       </c>
       <c r="L164" s="8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M164" s="8">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="N164" s="8">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="O164" s="8">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="P164" s="8">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="Q164" t="s">
-        <v>349</v>
+        <v>205</v>
       </c>
       <c r="R164" s="8">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="S164" t="str">
-        <f xml:space="preserve"> HYPERLINK("ReviewHtml/review_Song_of_the_Sea.html", "https://2danicritic.github.io/ReviewHtml/review_Song_of_the_Sea.html")</f>
-        <v>https://2danicritic.github.io/ReviewHtml/review_Song_of_the_Sea.html</v>
-      </c>
-      <c r="V164" s="5" t="str">
-        <f t="shared" si="4"/>
-        <v>Ireland</v>
-      </c>
-      <c r="X164" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v>Film</v>
-      </c>
-    </row>
-    <row r="165" spans="2:24" x14ac:dyDescent="0.35">
+        <f xml:space="preserve"> HYPERLINK("ReviewHtml/review_My_Dogs,_Jinjin_and_Akida.html", "https://2danicritic.github.io/ReviewHtml/review_My_Dogs,_Jinjin_and_Akida.html")</f>
+        <v>https://2danicritic.github.io/ReviewHtml/review_My_Dogs,_Jinjin_and_Akida.html</v>
+      </c>
+    </row>
+    <row r="165" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B165" s="8">
-        <v>43</v>
+        <v>162</v>
       </c>
       <c r="C165" t="s">
-        <v>468</v>
+        <v>688</v>
       </c>
       <c r="D165" s="8">
-        <v>2013</v>
+        <v>2016</v>
       </c>
       <c r="E165" t="s">
-        <v>1011</v>
+        <v>1007</v>
       </c>
       <c r="F165" t="s">
-        <v>469</v>
+        <v>689</v>
       </c>
       <c r="G165" t="s">
         <v>1018</v>
       </c>
       <c r="H165" t="s">
-        <v>470</v>
+        <v>690</v>
       </c>
       <c r="I165" s="8">
-        <v>2.93</v>
+        <v>1.79</v>
       </c>
       <c r="J165" s="8">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="K165" s="8">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L165" s="8">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="M165" s="8">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="N165" s="8">
-        <v>3.5</v>
+        <v>2</v>
       </c>
       <c r="O165" s="8">
         <v>2</v>
       </c>
       <c r="P165" s="8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q165" t="s">
-        <v>97</v>
+        <v>206</v>
       </c>
       <c r="R165" s="8">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="S165" t="str">
-        <f xml:space="preserve"> HYPERLINK("ReviewHtml/review_Boy_and_the_World.html", "https://2danicritic.github.io/ReviewHtml/review_Boy_and_the_World.html")</f>
-        <v>https://2danicritic.github.io/ReviewHtml/review_Boy_and_the_World.html</v>
-      </c>
-      <c r="V165" s="5" t="str">
-        <f t="shared" si="4"/>
-        <v>Brazil</v>
-      </c>
-      <c r="X165" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v>Film</v>
-      </c>
-    </row>
-    <row r="166" spans="2:24" hidden="1" x14ac:dyDescent="0.35">
+        <f xml:space="preserve"> HYPERLINK("ReviewHtml/review_My_Entire_High_School_Sinking_Into_The_Sea.html", "https://2danicritic.github.io/ReviewHtml/review_My_Entire_High_School_Sinking_Into_The_Sea.html")</f>
+        <v>https://2danicritic.github.io/ReviewHtml/review_My_Entire_High_School_Sinking_Into_The_Sea.html</v>
+      </c>
+    </row>
+    <row r="166" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B166" s="8">
         <v>163</v>
       </c>
@@ -19162,16 +17841,8 @@
         <f xml:space="preserve"> HYPERLINK("ReviewHtml/review_My_Neighbor_Totoro.html", "https://2danicritic.github.io/ReviewHtml/review_My_Neighbor_Totoro.html")</f>
         <v>https://2danicritic.github.io/ReviewHtml/review_My_Neighbor_Totoro.html</v>
       </c>
-      <c r="V166" s="5" t="str">
-        <f t="shared" si="4"/>
-        <v>Japan</v>
-      </c>
-      <c r="X166" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v>Film</v>
-      </c>
-    </row>
-    <row r="167" spans="2:24" hidden="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="167" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B167" s="8">
         <v>164</v>
       </c>
@@ -19227,16 +17898,8 @@
         <f xml:space="preserve"> HYPERLINK("ReviewHtml/review_My_Neighbors_The_Yamadas.html", "https://2danicritic.github.io/ReviewHtml/review_My_Neighbors_The_Yamadas.html")</f>
         <v>https://2danicritic.github.io/ReviewHtml/review_My_Neighbors_The_Yamadas.html</v>
       </c>
-      <c r="V167" s="5" t="str">
-        <f t="shared" si="4"/>
-        <v>Japan</v>
-      </c>
-      <c r="X167" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v>Film</v>
-      </c>
-    </row>
-    <row r="168" spans="2:24" hidden="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="168" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B168" s="8">
         <v>165</v>
       </c>
@@ -19292,16 +17955,8 @@
         <f xml:space="preserve"> HYPERLINK("ReviewHtml/review_Nadia_-_The_Secret_of_Blue_Water.html", "https://2danicritic.github.io/ReviewHtml/review_Nadia_-_The_Secret_of_Blue_Water.html")</f>
         <v>https://2danicritic.github.io/ReviewHtml/review_Nadia_-_The_Secret_of_Blue_Water.html</v>
       </c>
-      <c r="V168" s="5" t="str">
-        <f t="shared" si="4"/>
-        <v>Japan</v>
-      </c>
-      <c r="X168" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v>TV</v>
-      </c>
-    </row>
-    <row r="169" spans="2:24" hidden="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="169" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B169" s="8">
         <v>166</v>
       </c>
@@ -19357,16 +18012,8 @@
         <f xml:space="preserve"> HYPERLINK("ReviewHtml/review_Napping_Princess.html", "https://2danicritic.github.io/ReviewHtml/review_Napping_Princess.html")</f>
         <v>https://2danicritic.github.io/ReviewHtml/review_Napping_Princess.html</v>
       </c>
-      <c r="V169" s="5" t="str">
-        <f t="shared" si="4"/>
-        <v>Japan</v>
-      </c>
-      <c r="X169" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v>Film</v>
-      </c>
-    </row>
-    <row r="170" spans="2:24" hidden="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="170" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B170" s="8">
         <v>167</v>
       </c>
@@ -19422,16 +18069,8 @@
         <f xml:space="preserve"> HYPERLINK("ReviewHtml/review_Nausicaa_of_the_Valley_of_the_Wind.html", "https://2danicritic.github.io/ReviewHtml/review_Nausicaa_of_the_Valley_of_the_Wind.html")</f>
         <v>https://2danicritic.github.io/ReviewHtml/review_Nausicaa_of_the_Valley_of_the_Wind.html</v>
       </c>
-      <c r="V170" s="5" t="str">
-        <f t="shared" si="4"/>
-        <v>Japan</v>
-      </c>
-      <c r="X170" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v>Film</v>
-      </c>
-    </row>
-    <row r="171" spans="2:24" hidden="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="171" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B171" s="8">
         <v>168</v>
       </c>
@@ -19487,16 +18126,8 @@
         <f xml:space="preserve"> HYPERLINK("ReviewHtml/review_Neon_Genesis_Evangelion.html", "https://2danicritic.github.io/ReviewHtml/review_Neon_Genesis_Evangelion.html")</f>
         <v>https://2danicritic.github.io/ReviewHtml/review_Neon_Genesis_Evangelion.html</v>
       </c>
-      <c r="V171" s="5" t="str">
-        <f t="shared" si="4"/>
-        <v>Japan</v>
-      </c>
-      <c r="X171" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v>TV</v>
-      </c>
-    </row>
-    <row r="172" spans="2:24" hidden="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="172" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B172" s="8">
         <v>169</v>
       </c>
@@ -19552,16 +18183,8 @@
         <f xml:space="preserve"> HYPERLINK("ReviewHtml/review_Neon_Genesis_Evangelion_-_Death_and_Rebirth.html", "https://2danicritic.github.io/ReviewHtml/review_Neon_Genesis_Evangelion_-_Death_and_Rebirth.html")</f>
         <v>https://2danicritic.github.io/ReviewHtml/review_Neon_Genesis_Evangelion_-_Death_and_Rebirth.html</v>
       </c>
-      <c r="V172" s="5" t="str">
-        <f t="shared" si="4"/>
-        <v>Japan</v>
-      </c>
-      <c r="X172" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v>Film</v>
-      </c>
-    </row>
-    <row r="173" spans="2:24" hidden="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="173" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B173" s="8">
         <v>170</v>
       </c>
@@ -19617,81 +18240,65 @@
         <f xml:space="preserve"> HYPERLINK("ReviewHtml/review_Neon_Genesis_Evangelion_-_The_End_of_Evangelion.html", "https://2danicritic.github.io/ReviewHtml/review_Neon_Genesis_Evangelion_-_The_End_of_Evangelion.html")</f>
         <v>https://2danicritic.github.io/ReviewHtml/review_Neon_Genesis_Evangelion_-_The_End_of_Evangelion.html</v>
       </c>
-      <c r="V173" s="5" t="str">
-        <f t="shared" si="4"/>
-        <v>Japan</v>
-      </c>
-      <c r="X173" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v>Film</v>
-      </c>
-    </row>
-    <row r="174" spans="2:24" x14ac:dyDescent="0.35">
+    </row>
+    <row r="174" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B174" s="8">
-        <v>2</v>
+        <v>171</v>
       </c>
       <c r="C174" t="s">
-        <v>57</v>
+        <v>699</v>
       </c>
       <c r="D174" s="8">
-        <v>2012</v>
+        <v>2016</v>
       </c>
       <c r="E174" t="s">
-        <v>58</v>
+        <v>1007</v>
       </c>
       <c r="F174" t="s">
-        <v>385</v>
+        <v>700</v>
       </c>
       <c r="G174" t="s">
         <v>1018</v>
       </c>
       <c r="H174" t="s">
-        <v>59</v>
+        <v>701</v>
       </c>
       <c r="I174" s="8">
-        <v>3.21</v>
+        <v>2.14</v>
       </c>
       <c r="J174" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K174" s="8">
-        <v>3.5</v>
+        <v>2</v>
       </c>
       <c r="L174" s="8">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="M174" s="8">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N174" s="8">
-        <v>3.5</v>
+        <v>2</v>
       </c>
       <c r="O174" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P174" s="8">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="Q174" t="s">
-        <v>60</v>
+        <v>212</v>
       </c>
       <c r="R174" s="8">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="S174" t="str">
-        <f xml:space="preserve"> HYPERLINK("ReviewHtml/review_A_Liar's_Autobiography_-_The_Untrue_Story_of_Monty_Python's_Graham_Chapman.html", "https://2danicritic.github.io/ReviewHtml/review_A_Liar's_Autobiography_-_The_Untrue_Story_of_Monty_Python's_Graham_Chapman.html")</f>
-        <v>https://2danicritic.github.io/ReviewHtml/review_A_Liar's_Autobiography_-_The_Untrue_Story_of_Monty_Python's_Graham_Chapman.html</v>
-      </c>
-      <c r="V174" s="5" t="str">
-        <f t="shared" si="4"/>
-        <v>United Kingdom</v>
-      </c>
-      <c r="X174" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v>Film</v>
-      </c>
-    </row>
-    <row r="175" spans="2:24" hidden="1" x14ac:dyDescent="0.35">
+        <f xml:space="preserve"> HYPERLINK("ReviewHtml/review_Nerdland.html", "https://2danicritic.github.io/ReviewHtml/review_Nerdland.html")</f>
+        <v>https://2danicritic.github.io/ReviewHtml/review_Nerdland.html</v>
+      </c>
+    </row>
+    <row r="175" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B175" s="8">
         <v>172</v>
       </c>
@@ -19747,16 +18354,8 @@
         <f xml:space="preserve"> HYPERLINK("ReviewHtml/review_Nichijou.html", "https://2danicritic.github.io/ReviewHtml/review_Nichijou.html")</f>
         <v>https://2danicritic.github.io/ReviewHtml/review_Nichijou.html</v>
       </c>
-      <c r="V175" s="5" t="str">
-        <f t="shared" si="4"/>
-        <v>Japan</v>
-      </c>
-      <c r="X175" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v>TV</v>
-      </c>
-    </row>
-    <row r="176" spans="2:24" hidden="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="176" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B176" s="8">
         <v>173</v>
       </c>
@@ -19812,16 +18411,8 @@
         <f xml:space="preserve"> HYPERLINK("ReviewHtml/review_Night_on_the_Galactic_Railroad.html", "https://2danicritic.github.io/ReviewHtml/review_Night_on_the_Galactic_Railroad.html")</f>
         <v>https://2danicritic.github.io/ReviewHtml/review_Night_on_the_Galactic_Railroad.html</v>
       </c>
-      <c r="V176" s="5" t="str">
-        <f t="shared" si="4"/>
-        <v>Japan</v>
-      </c>
-      <c r="X176" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v>Film</v>
-      </c>
-    </row>
-    <row r="177" spans="2:24" hidden="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="177" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B177" s="8">
         <v>174</v>
       </c>
@@ -19877,16 +18468,8 @@
         <f xml:space="preserve"> HYPERLINK("ReviewHtml/review_Ninja_Nonsense.html", "https://2danicritic.github.io/ReviewHtml/review_Ninja_Nonsense.html")</f>
         <v>https://2danicritic.github.io/ReviewHtml/review_Ninja_Nonsense.html</v>
       </c>
-      <c r="V177" s="5" t="str">
-        <f t="shared" si="4"/>
-        <v>Japan</v>
-      </c>
-      <c r="X177" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v>TV</v>
-      </c>
-    </row>
-    <row r="178" spans="2:24" hidden="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="178" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B178" s="8">
         <v>175</v>
       </c>
@@ -19942,16 +18525,8 @@
         <f xml:space="preserve"> HYPERLINK("ReviewHtml/review_Ninja_Scroll.html", "https://2danicritic.github.io/ReviewHtml/review_Ninja_Scroll.html")</f>
         <v>https://2danicritic.github.io/ReviewHtml/review_Ninja_Scroll.html</v>
       </c>
-      <c r="V178" s="5" t="str">
-        <f t="shared" si="4"/>
-        <v>Japan</v>
-      </c>
-      <c r="X178" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v>Film</v>
-      </c>
-    </row>
-    <row r="179" spans="2:24" hidden="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="179" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B179" s="8">
         <v>176</v>
       </c>
@@ -20007,16 +18582,8 @@
         <f xml:space="preserve"> HYPERLINK("ReviewHtml/review_Ninja_Scroll_-_The_Series.html", "https://2danicritic.github.io/ReviewHtml/review_Ninja_Scroll_-_The_Series.html")</f>
         <v>https://2danicritic.github.io/ReviewHtml/review_Ninja_Scroll_-_The_Series.html</v>
       </c>
-      <c r="V179" s="5" t="str">
-        <f t="shared" si="4"/>
-        <v>Japan</v>
-      </c>
-      <c r="X179" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v>TV</v>
-      </c>
-    </row>
-    <row r="180" spans="2:24" hidden="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="180" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B180" s="8">
         <v>177</v>
       </c>
@@ -20072,16 +18639,8 @@
         <f xml:space="preserve"> HYPERLINK("ReviewHtml/review_Nisemonogatari.html", "https://2danicritic.github.io/ReviewHtml/review_Nisemonogatari.html")</f>
         <v>https://2danicritic.github.io/ReviewHtml/review_Nisemonogatari.html</v>
       </c>
-      <c r="V180" s="5" t="str">
-        <f t="shared" si="4"/>
-        <v>Japan</v>
-      </c>
-      <c r="X180" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v>TV</v>
-      </c>
-    </row>
-    <row r="181" spans="2:24" hidden="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="181" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B181" s="8">
         <v>178</v>
       </c>
@@ -20137,16 +18696,8 @@
         <f xml:space="preserve"> HYPERLINK("ReviewHtml/review_No_Game_No_Life.html", "https://2danicritic.github.io/ReviewHtml/review_No_Game_No_Life.html")</f>
         <v>https://2danicritic.github.io/ReviewHtml/review_No_Game_No_Life.html</v>
       </c>
-      <c r="V181" s="5" t="str">
-        <f t="shared" si="4"/>
-        <v>Japan</v>
-      </c>
-      <c r="X181" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v>TV</v>
-      </c>
-    </row>
-    <row r="182" spans="2:24" hidden="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="182" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B182" s="8">
         <v>179</v>
       </c>
@@ -20202,16 +18753,8 @@
         <f xml:space="preserve"> HYPERLINK("ReviewHtml/review_No_Game_No_Life_-_Zero.html", "https://2danicritic.github.io/ReviewHtml/review_No_Game_No_Life_-_Zero.html")</f>
         <v>https://2danicritic.github.io/ReviewHtml/review_No_Game_No_Life_-_Zero.html</v>
       </c>
-      <c r="V182" s="5" t="str">
-        <f t="shared" si="4"/>
-        <v>Japan</v>
-      </c>
-      <c r="X182" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v>Film</v>
-      </c>
-    </row>
-    <row r="183" spans="2:24" hidden="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="183" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B183" s="8">
         <v>180</v>
       </c>
@@ -20267,81 +18810,65 @@
         <f xml:space="preserve"> HYPERLINK("ReviewHtml/review_Noragami.html", "https://2danicritic.github.io/ReviewHtml/review_Noragami.html")</f>
         <v>https://2danicritic.github.io/ReviewHtml/review_Noragami.html</v>
       </c>
-      <c r="V183" s="5" t="str">
-        <f t="shared" si="4"/>
-        <v>Japan</v>
-      </c>
-      <c r="X183" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v>TV</v>
-      </c>
-    </row>
-    <row r="184" spans="2:24" x14ac:dyDescent="0.35">
+    </row>
+    <row r="184" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B184" s="8">
-        <v>73</v>
+        <v>181</v>
       </c>
       <c r="C184" t="s">
-        <v>532</v>
+        <v>716</v>
       </c>
       <c r="D184" s="8">
-        <v>2012</v>
+        <v>2016</v>
       </c>
       <c r="E184" t="s">
-        <v>1006</v>
+        <v>1013</v>
       </c>
       <c r="F184" t="s">
-        <v>533</v>
+        <v>717</v>
       </c>
       <c r="G184" t="s">
         <v>1018</v>
       </c>
       <c r="H184" t="s">
-        <v>128</v>
+        <v>718</v>
       </c>
       <c r="I184" s="8">
-        <v>3.93</v>
+        <v>2.93</v>
       </c>
       <c r="J184" s="8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K184" s="8">
-        <v>4</v>
+        <v>2.5</v>
       </c>
       <c r="L184" s="8">
-        <v>4</v>
+        <v>2.5</v>
       </c>
       <c r="M184" s="8">
-        <v>3.5</v>
+        <v>1.5</v>
       </c>
       <c r="N184" s="8">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="O184" s="8">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="P184" s="8">
         <v>4</v>
       </c>
       <c r="Q184" t="s">
-        <v>129</v>
+        <v>220</v>
       </c>
       <c r="R184" s="8">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="S184" t="str">
-        <f xml:space="preserve"> HYPERLINK("ReviewHtml/review_Ernest_and_Celestine.html", "https://2danicritic.github.io/ReviewHtml/review_Ernest_and_Celestine.html")</f>
-        <v>https://2danicritic.github.io/ReviewHtml/review_Ernest_and_Celestine.html</v>
-      </c>
-      <c r="V184" s="5" t="str">
-        <f t="shared" si="4"/>
-        <v>France</v>
-      </c>
-      <c r="X184" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v>Film</v>
-      </c>
-    </row>
-    <row r="185" spans="2:24" hidden="1" x14ac:dyDescent="0.35">
+        <f xml:space="preserve"> HYPERLINK("ReviewHtml/review_Nova_Seed.html", "https://2danicritic.github.io/ReviewHtml/review_Nova_Seed.html")</f>
+        <v>https://2danicritic.github.io/ReviewHtml/review_Nova_Seed.html</v>
+      </c>
+    </row>
+    <row r="185" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B185" s="8">
         <v>182</v>
       </c>
@@ -20397,16 +18924,8 @@
         <f xml:space="preserve"> HYPERLINK("ReviewHtml/review_Ocean_Waves.html", "https://2danicritic.github.io/ReviewHtml/review_Ocean_Waves.html")</f>
         <v>https://2danicritic.github.io/ReviewHtml/review_Ocean_Waves.html</v>
       </c>
-      <c r="V185" s="5" t="str">
-        <f t="shared" si="4"/>
-        <v>Japan</v>
-      </c>
-      <c r="X185" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v>Film</v>
-      </c>
-    </row>
-    <row r="186" spans="2:24" hidden="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="186" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B186" s="8">
         <v>183</v>
       </c>
@@ -20462,16 +18981,8 @@
         <f xml:space="preserve"> HYPERLINK("ReviewHtml/review_Oh!_Edo_Rocket.html", "https://2danicritic.github.io/ReviewHtml/review_Oh!_Edo_Rocket.html")</f>
         <v>https://2danicritic.github.io/ReviewHtml/review_Oh!_Edo_Rocket.html</v>
       </c>
-      <c r="V186" s="5" t="str">
-        <f t="shared" si="4"/>
-        <v>Japan</v>
-      </c>
-      <c r="X186" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v>TV</v>
-      </c>
-    </row>
-    <row r="187" spans="2:24" hidden="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="187" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B187" s="8">
         <v>184</v>
       </c>
@@ -20527,16 +19038,8 @@
         <f xml:space="preserve"> HYPERLINK("ReviewHtml/review_One_Piece_Film_-_Gold.html", "https://2danicritic.github.io/ReviewHtml/review_One_Piece_Film_-_Gold.html")</f>
         <v>https://2danicritic.github.io/ReviewHtml/review_One_Piece_Film_-_Gold.html</v>
       </c>
-      <c r="V187" s="5" t="str">
-        <f t="shared" si="4"/>
-        <v>Japan</v>
-      </c>
-      <c r="X187" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v>Film</v>
-      </c>
-    </row>
-    <row r="188" spans="2:24" hidden="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="188" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B188" s="8">
         <v>185</v>
       </c>
@@ -20592,16 +19095,8 @@
         <f xml:space="preserve"> HYPERLINK("ReviewHtml/review_One_Punch_Man.html", "https://2danicritic.github.io/ReviewHtml/review_One_Punch_Man.html")</f>
         <v>https://2danicritic.github.io/ReviewHtml/review_One_Punch_Man.html</v>
       </c>
-      <c r="V188" s="5" t="str">
-        <f t="shared" si="4"/>
-        <v>Japan</v>
-      </c>
-      <c r="X188" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v>TV</v>
-      </c>
-    </row>
-    <row r="189" spans="2:24" hidden="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="189" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B189" s="8">
         <v>186</v>
       </c>
@@ -20657,16 +19152,8 @@
         <f xml:space="preserve"> HYPERLINK("ReviewHtml/review_Only_Yesterday.html", "https://2danicritic.github.io/ReviewHtml/review_Only_Yesterday.html")</f>
         <v>https://2danicritic.github.io/ReviewHtml/review_Only_Yesterday.html</v>
       </c>
-      <c r="V189" s="5" t="str">
-        <f t="shared" si="4"/>
-        <v>Japan</v>
-      </c>
-      <c r="X189" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v>Film</v>
-      </c>
-    </row>
-    <row r="190" spans="2:24" hidden="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="190" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B190" s="8">
         <v>187</v>
       </c>
@@ -20722,16 +19209,8 @@
         <f xml:space="preserve"> HYPERLINK("ReviewHtml/review_Panty_and_Stocking_with_Garterbelt.html", "https://2danicritic.github.io/ReviewHtml/review_Panty_and_Stocking_with_Garterbelt.html")</f>
         <v>https://2danicritic.github.io/ReviewHtml/review_Panty_and_Stocking_with_Garterbelt.html</v>
       </c>
-      <c r="V190" s="5" t="str">
-        <f t="shared" si="4"/>
-        <v>Japan</v>
-      </c>
-      <c r="X190" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v>TV</v>
-      </c>
-    </row>
-    <row r="191" spans="2:24" hidden="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="191" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B191" s="8">
         <v>188</v>
       </c>
@@ -20787,16 +19266,8 @@
         <f xml:space="preserve"> HYPERLINK("ReviewHtml/review_Paprika.html", "https://2danicritic.github.io/ReviewHtml/review_Paprika.html")</f>
         <v>https://2danicritic.github.io/ReviewHtml/review_Paprika.html</v>
       </c>
-      <c r="V191" s="5" t="str">
-        <f t="shared" si="4"/>
-        <v>Japan</v>
-      </c>
-      <c r="X191" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v>Film</v>
-      </c>
-    </row>
-    <row r="192" spans="2:24" hidden="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="192" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B192" s="8">
         <v>189</v>
       </c>
@@ -20852,16 +19323,8 @@
         <f xml:space="preserve"> HYPERLINK("ReviewHtml/review_Paranoia_Agent.html", "https://2danicritic.github.io/ReviewHtml/review_Paranoia_Agent.html")</f>
         <v>https://2danicritic.github.io/ReviewHtml/review_Paranoia_Agent.html</v>
       </c>
-      <c r="V192" s="5" t="str">
-        <f t="shared" si="4"/>
-        <v>Japan</v>
-      </c>
-      <c r="X192" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v>TV</v>
-      </c>
-    </row>
-    <row r="193" spans="2:24" hidden="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="193" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B193" s="8">
         <v>190</v>
       </c>
@@ -20917,16 +19380,8 @@
         <f xml:space="preserve"> HYPERLINK("ReviewHtml/review_Parasite_Dolls.html", "https://2danicritic.github.io/ReviewHtml/review_Parasite_Dolls.html")</f>
         <v>https://2danicritic.github.io/ReviewHtml/review_Parasite_Dolls.html</v>
       </c>
-      <c r="V193" s="5" t="str">
-        <f t="shared" si="4"/>
-        <v>Japan</v>
-      </c>
-      <c r="X193" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v>OVA</v>
-      </c>
-    </row>
-    <row r="194" spans="2:24" hidden="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="194" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B194" s="8">
         <v>191</v>
       </c>
@@ -20982,16 +19437,8 @@
         <f xml:space="preserve"> HYPERLINK("ReviewHtml/review_Patlabor_2.html", "https://2danicritic.github.io/ReviewHtml/review_Patlabor_2.html")</f>
         <v>https://2danicritic.github.io/ReviewHtml/review_Patlabor_2.html</v>
       </c>
-      <c r="V194" s="5" t="str">
-        <f t="shared" si="4"/>
-        <v>Japan</v>
-      </c>
-      <c r="X194" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v>Film</v>
-      </c>
-    </row>
-    <row r="195" spans="2:24" hidden="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="195" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B195" s="8">
         <v>192</v>
       </c>
@@ -21047,81 +19494,65 @@
         <f xml:space="preserve"> HYPERLINK("ReviewHtml/review_Perfect_Blue.html", "https://2danicritic.github.io/ReviewHtml/review_Perfect_Blue.html")</f>
         <v>https://2danicritic.github.io/ReviewHtml/review_Perfect_Blue.html</v>
       </c>
-      <c r="V195" s="5" t="str">
-        <f t="shared" si="4"/>
-        <v>Japan</v>
-      </c>
-      <c r="X195" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v>Film</v>
-      </c>
-    </row>
-    <row r="196" spans="2:24" x14ac:dyDescent="0.35">
+    </row>
+    <row r="196" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B196" s="8">
-        <v>116</v>
+        <v>193</v>
       </c>
       <c r="C196" t="s">
-        <v>604</v>
+        <v>733</v>
       </c>
       <c r="D196" s="8">
-        <v>2012</v>
+        <v>2007</v>
       </c>
       <c r="E196" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="F196" t="s">
-        <v>605</v>
+        <v>734</v>
       </c>
       <c r="G196" t="s">
         <v>1018</v>
       </c>
       <c r="H196" t="s">
-        <v>606</v>
+        <v>228</v>
       </c>
       <c r="I196" s="8">
-        <v>3.57</v>
+        <v>3.21</v>
       </c>
       <c r="J196" s="8">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="K196" s="8">
         <v>3</v>
       </c>
       <c r="L196" s="8">
+        <v>3</v>
+      </c>
+      <c r="M196" s="8">
+        <v>3.5</v>
+      </c>
+      <c r="N196" s="8">
+        <v>3.5</v>
+      </c>
+      <c r="O196" s="8">
         <v>2.5</v>
       </c>
-      <c r="M196" s="8">
-        <v>3</v>
-      </c>
-      <c r="N196" s="8">
-        <v>4.5</v>
-      </c>
-      <c r="O196" s="8">
-        <v>3.5</v>
-      </c>
       <c r="P196" s="8">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q196" t="s">
-        <v>168</v>
+        <v>229</v>
       </c>
       <c r="R196" s="8">
-        <v>62</v>
+        <v>96</v>
       </c>
       <c r="S196" t="str">
-        <f xml:space="preserve"> HYPERLINK("ReviewHtml/review_It's_Such_a_Beautiful_Day.html", "https://2danicritic.github.io/ReviewHtml/review_It's_Such_a_Beautiful_Day.html")</f>
-        <v>https://2danicritic.github.io/ReviewHtml/review_It's_Such_a_Beautiful_Day.html</v>
-      </c>
-      <c r="V196" s="5" t="str">
-        <f t="shared" ref="V196:V259" si="6">TRIM(CLEAN(SUBSTITUTE(E196,CHAR(160)," ")))</f>
-        <v>USA</v>
-      </c>
-      <c r="X196" s="5" t="str">
-        <f t="shared" ref="X196:X259" si="7">TRIM(CLEAN(SUBSTITUTE(G196,CHAR(160)," ")))</f>
-        <v>Film</v>
-      </c>
-    </row>
-    <row r="197" spans="2:24" hidden="1" x14ac:dyDescent="0.35">
+        <f xml:space="preserve"> HYPERLINK("ReviewHtml/review_Persepolis.html", "https://2danicritic.github.io/ReviewHtml/review_Persepolis.html")</f>
+        <v>https://2danicritic.github.io/ReviewHtml/review_Persepolis.html</v>
+      </c>
+    </row>
+    <row r="197" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B197" s="8">
         <v>194</v>
       </c>
@@ -21177,16 +19608,8 @@
         <f xml:space="preserve"> HYPERLINK("ReviewHtml/review_Persona_3_The_Movie_-_Spring_of_Birth,_Midsummer_Knight's_Dream,_Falling_Down,_Winter_of_Rebirth.html", "https://2danicritic.github.io/ReviewHtml/review_Persona_3_The_Movie_-_Spring_of_Birth,_Midsummer_Knight's_Dream,_Falling_Down,_Winter_of_Rebirth.html")</f>
         <v>https://2danicritic.github.io/ReviewHtml/review_Persona_3_The_Movie_-_Spring_of_Birth,_Midsummer_Knight's_Dream,_Falling_Down,_Winter_of_Rebirth.html</v>
       </c>
-      <c r="V197" s="5" t="str">
-        <f t="shared" si="6"/>
-        <v>Japan</v>
-      </c>
-      <c r="X197" s="5" t="str">
-        <f t="shared" si="7"/>
-        <v>Film</v>
-      </c>
-    </row>
-    <row r="198" spans="2:24" hidden="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="198" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B198" s="8">
         <v>195</v>
       </c>
@@ -21242,16 +19665,8 @@
         <f xml:space="preserve"> HYPERLINK("ReviewHtml/review_Persona_4_-_The_Animation.html", "https://2danicritic.github.io/ReviewHtml/review_Persona_4_-_The_Animation.html")</f>
         <v>https://2danicritic.github.io/ReviewHtml/review_Persona_4_-_The_Animation.html</v>
       </c>
-      <c r="V198" s="5" t="str">
-        <f t="shared" si="6"/>
-        <v>Japan</v>
-      </c>
-      <c r="X198" s="5" t="str">
-        <f t="shared" si="7"/>
-        <v>TV</v>
-      </c>
-    </row>
-    <row r="199" spans="2:24" hidden="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="199" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B199" s="8">
         <v>196</v>
       </c>
@@ -21307,16 +19722,8 @@
         <f xml:space="preserve"> HYPERLINK("ReviewHtml/review_Ping_Pong_the_Animation.html", "https://2danicritic.github.io/ReviewHtml/review_Ping_Pong_the_Animation.html")</f>
         <v>https://2danicritic.github.io/ReviewHtml/review_Ping_Pong_the_Animation.html</v>
       </c>
-      <c r="V199" s="5" t="str">
-        <f t="shared" si="6"/>
-        <v>Japan</v>
-      </c>
-      <c r="X199" s="5" t="str">
-        <f t="shared" si="7"/>
-        <v>TV</v>
-      </c>
-    </row>
-    <row r="200" spans="2:24" hidden="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="200" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B200" s="8">
         <v>197</v>
       </c>
@@ -21372,16 +19779,8 @@
         <f xml:space="preserve"> HYPERLINK("ReviewHtml/review_Pom_Poko.html", "https://2danicritic.github.io/ReviewHtml/review_Pom_Poko.html")</f>
         <v>https://2danicritic.github.io/ReviewHtml/review_Pom_Poko.html</v>
       </c>
-      <c r="V200" s="5" t="str">
-        <f t="shared" si="6"/>
-        <v>Japan</v>
-      </c>
-      <c r="X200" s="5" t="str">
-        <f t="shared" si="7"/>
-        <v>Film</v>
-      </c>
-    </row>
-    <row r="201" spans="2:24" hidden="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="201" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B201" s="8">
         <v>198</v>
       </c>
@@ -21437,16 +19836,8 @@
         <f xml:space="preserve"> HYPERLINK("ReviewHtml/review_Ponyo.html", "https://2danicritic.github.io/ReviewHtml/review_Ponyo.html")</f>
         <v>https://2danicritic.github.io/ReviewHtml/review_Ponyo.html</v>
       </c>
-      <c r="V201" s="5" t="str">
-        <f t="shared" si="6"/>
-        <v>Japan</v>
-      </c>
-      <c r="X201" s="5" t="str">
-        <f t="shared" si="7"/>
-        <v>Film</v>
-      </c>
-    </row>
-    <row r="202" spans="2:24" hidden="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="202" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B202" s="8">
         <v>199</v>
       </c>
@@ -21502,16 +19893,8 @@
         <f xml:space="preserve"> HYPERLINK("ReviewHtml/review_Porco_Rosso.html", "https://2danicritic.github.io/ReviewHtml/review_Porco_Rosso.html")</f>
         <v>https://2danicritic.github.io/ReviewHtml/review_Porco_Rosso.html</v>
       </c>
-      <c r="V202" s="5" t="str">
-        <f t="shared" si="6"/>
-        <v>Japan</v>
-      </c>
-      <c r="X202" s="5" t="str">
-        <f t="shared" si="7"/>
-        <v>Film</v>
-      </c>
-    </row>
-    <row r="203" spans="2:24" hidden="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="203" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B203" s="8">
         <v>200</v>
       </c>
@@ -21567,16 +19950,8 @@
         <f xml:space="preserve"> HYPERLINK("ReviewHtml/review_Princess_Mononoke.html", "https://2danicritic.github.io/ReviewHtml/review_Princess_Mononoke.html")</f>
         <v>https://2danicritic.github.io/ReviewHtml/review_Princess_Mononoke.html</v>
       </c>
-      <c r="V203" s="5" t="str">
-        <f t="shared" si="6"/>
-        <v>Japan</v>
-      </c>
-      <c r="X203" s="5" t="str">
-        <f t="shared" si="7"/>
-        <v>Film</v>
-      </c>
-    </row>
-    <row r="204" spans="2:24" hidden="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="204" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B204" s="8">
         <v>201</v>
       </c>
@@ -21632,16 +20007,8 @@
         <f xml:space="preserve"> HYPERLINK("ReviewHtml/review_Prison_School.html", "https://2danicritic.github.io/ReviewHtml/review_Prison_School.html")</f>
         <v>https://2danicritic.github.io/ReviewHtml/review_Prison_School.html</v>
       </c>
-      <c r="V204" s="5" t="str">
-        <f t="shared" si="6"/>
-        <v>Japan</v>
-      </c>
-      <c r="X204" s="5" t="str">
-        <f t="shared" si="7"/>
-        <v>TV</v>
-      </c>
-    </row>
-    <row r="205" spans="2:24" hidden="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="205" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B205" s="8">
         <v>202</v>
       </c>
@@ -21697,16 +20064,8 @@
         <f xml:space="preserve"> HYPERLINK("ReviewHtml/review_Psychic_School_Wars.html", "https://2danicritic.github.io/ReviewHtml/review_Psychic_School_Wars.html")</f>
         <v>https://2danicritic.github.io/ReviewHtml/review_Psychic_School_Wars.html</v>
       </c>
-      <c r="V205" s="5" t="str">
-        <f t="shared" si="6"/>
-        <v>Japan</v>
-      </c>
-      <c r="X205" s="5" t="str">
-        <f t="shared" si="7"/>
-        <v>Film</v>
-      </c>
-    </row>
-    <row r="206" spans="2:24" hidden="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="206" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B206" s="8">
         <v>203</v>
       </c>
@@ -21762,16 +20121,8 @@
         <f xml:space="preserve"> HYPERLINK("ReviewHtml/review_Punch_Line.html", "https://2danicritic.github.io/ReviewHtml/review_Punch_Line.html")</f>
         <v>https://2danicritic.github.io/ReviewHtml/review_Punch_Line.html</v>
       </c>
-      <c r="V206" s="5" t="str">
-        <f t="shared" si="6"/>
-        <v>Japan</v>
-      </c>
-      <c r="X206" s="5" t="str">
-        <f t="shared" si="7"/>
-        <v>TV</v>
-      </c>
-    </row>
-    <row r="207" spans="2:24" hidden="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="207" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B207" s="8">
         <v>204</v>
       </c>
@@ -21827,16 +20178,8 @@
         <f xml:space="preserve"> HYPERLINK("ReviewHtml/review_Rage_of_Bahamut_-_Genesis.html", "https://2danicritic.github.io/ReviewHtml/review_Rage_of_Bahamut_-_Genesis.html")</f>
         <v>https://2danicritic.github.io/ReviewHtml/review_Rage_of_Bahamut_-_Genesis.html</v>
       </c>
-      <c r="V207" s="5" t="str">
-        <f t="shared" si="6"/>
-        <v>Japan</v>
-      </c>
-      <c r="X207" s="5" t="str">
-        <f t="shared" si="7"/>
-        <v>TV</v>
-      </c>
-    </row>
-    <row r="208" spans="2:24" hidden="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="208" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B208" s="8">
         <v>205</v>
       </c>
@@ -21892,16 +20235,8 @@
         <f xml:space="preserve"> HYPERLINK("ReviewHtml/review_Rail_Wars.html", "https://2danicritic.github.io/ReviewHtml/review_Rail_Wars.html")</f>
         <v>https://2danicritic.github.io/ReviewHtml/review_Rail_Wars.html</v>
       </c>
-      <c r="V208" s="5" t="str">
-        <f t="shared" si="6"/>
-        <v>Japan</v>
-      </c>
-      <c r="X208" s="5" t="str">
-        <f t="shared" si="7"/>
-        <v>TV</v>
-      </c>
-    </row>
-    <row r="209" spans="2:24" hidden="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="209" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B209" s="8">
         <v>206</v>
       </c>
@@ -21957,16 +20292,8 @@
         <f xml:space="preserve"> HYPERLINK("ReviewHtml/review_Redline.html", "https://2danicritic.github.io/ReviewHtml/review_Redline.html")</f>
         <v>https://2danicritic.github.io/ReviewHtml/review_Redline.html</v>
       </c>
-      <c r="V209" s="5" t="str">
-        <f t="shared" si="6"/>
-        <v>Japan</v>
-      </c>
-      <c r="X209" s="5" t="str">
-        <f t="shared" si="7"/>
-        <v>Film</v>
-      </c>
-    </row>
-    <row r="210" spans="2:24" hidden="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="210" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B210" s="8">
         <v>207</v>
       </c>
@@ -22022,104 +20349,88 @@
         <f xml:space="preserve"> HYPERLINK("ReviewHtml/review_Ringing_Bell.html", "https://2danicritic.github.io/ReviewHtml/review_Ringing_Bell.html")</f>
         <v>https://2danicritic.github.io/ReviewHtml/review_Ringing_Bell.html</v>
       </c>
-      <c r="V210" s="5" t="str">
-        <f t="shared" si="6"/>
-        <v>Japan</v>
-      </c>
-      <c r="X210" s="5" t="str">
-        <f t="shared" si="7"/>
-        <v>Film</v>
-      </c>
-    </row>
-    <row r="211" spans="2:24" x14ac:dyDescent="0.35">
+    </row>
+    <row r="211" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B211" s="8">
-        <v>262</v>
+        <v>208</v>
       </c>
       <c r="C211" t="s">
-        <v>848</v>
+        <v>763</v>
       </c>
       <c r="D211" s="8">
-        <v>2011</v>
+        <v>1983</v>
       </c>
       <c r="E211" t="s">
-        <v>1006</v>
+        <v>1013</v>
       </c>
       <c r="F211" t="s">
-        <v>849</v>
+        <v>764</v>
       </c>
       <c r="G211" t="s">
         <v>1018</v>
       </c>
       <c r="H211" t="s">
-        <v>284</v>
+        <v>765</v>
       </c>
       <c r="I211" s="8">
-        <v>3.14</v>
+        <v>2.86</v>
       </c>
       <c r="J211" s="8">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="K211" s="8">
         <v>3.5</v>
       </c>
       <c r="L211" s="8">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="M211" s="8">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="N211" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O211" s="8">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="P211" s="8">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="Q211" t="s">
-        <v>285</v>
+        <v>137</v>
       </c>
       <c r="R211" s="8">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="S211" t="str">
-        <f xml:space="preserve"> HYPERLINK("ReviewHtml/review_The_Rabbi's_Cat.html", "https://2danicritic.github.io/ReviewHtml/review_The_Rabbi's_Cat.html")</f>
-        <v>https://2danicritic.github.io/ReviewHtml/review_The_Rabbi's_Cat.html</v>
-      </c>
-      <c r="V211" s="5" t="str">
-        <f t="shared" si="6"/>
-        <v>France</v>
-      </c>
-      <c r="X211" s="5" t="str">
-        <f t="shared" si="7"/>
-        <v>Film</v>
-      </c>
-    </row>
-    <row r="212" spans="2:24" x14ac:dyDescent="0.35">
+        <f xml:space="preserve"> HYPERLINK("ReviewHtml/review_Rock_and_Rule.html", "https://2danicritic.github.io/ReviewHtml/review_Rock_and_Rule.html")</f>
+        <v>https://2danicritic.github.io/ReviewHtml/review_Rock_and_Rule.html</v>
+      </c>
+    </row>
+    <row r="212" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B212" s="8">
-        <v>299</v>
+        <v>209</v>
       </c>
       <c r="C212" t="s">
-        <v>905</v>
+        <v>766</v>
       </c>
       <c r="D212" s="8">
-        <v>2011</v>
+        <v>1991</v>
       </c>
       <c r="E212" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
       <c r="F212" t="s">
-        <v>906</v>
+        <v>767</v>
       </c>
       <c r="G212" t="s">
         <v>1018</v>
       </c>
       <c r="H212" t="s">
-        <v>907</v>
+        <v>768</v>
       </c>
       <c r="I212" s="8">
-        <v>3.5</v>
+        <v>3.14</v>
       </c>
       <c r="J212" s="8">
         <v>3</v>
@@ -22128,40 +20439,32 @@
         <v>3</v>
       </c>
       <c r="L212" s="8">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="M212" s="8">
         <v>4</v>
       </c>
       <c r="N212" s="8">
-        <v>4.5</v>
+        <v>2</v>
       </c>
       <c r="O212" s="8">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="P212" s="8">
         <v>3</v>
       </c>
       <c r="Q212" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="R212" s="8">
-        <v>89</v>
+        <v>74</v>
       </c>
       <c r="S212" t="str">
-        <f xml:space="preserve"> HYPERLINK("ReviewHtml/review_Wrinkles.html", "https://2danicritic.github.io/ReviewHtml/review_Wrinkles.html")</f>
-        <v>https://2danicritic.github.io/ReviewHtml/review_Wrinkles.html</v>
-      </c>
-      <c r="V212" s="5" t="str">
-        <f t="shared" si="6"/>
-        <v>Spain</v>
-      </c>
-      <c r="X212" s="5" t="str">
-        <f t="shared" si="7"/>
-        <v>Film</v>
-      </c>
-    </row>
-    <row r="213" spans="2:24" hidden="1" x14ac:dyDescent="0.35">
+        <f xml:space="preserve"> HYPERLINK("ReviewHtml/review_Rock-a-Doodle.html", "https://2danicritic.github.io/ReviewHtml/review_Rock-a-Doodle.html")</f>
+        <v>https://2danicritic.github.io/ReviewHtml/review_Rock-a-Doodle.html</v>
+      </c>
+    </row>
+    <row r="213" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B213" s="8">
         <v>210</v>
       </c>
@@ -22217,81 +20520,65 @@
         <f xml:space="preserve"> HYPERLINK("ReviewHtml/review_Rokka_-_Braves_of_the_Six_Flowers.html", "https://2danicritic.github.io/ReviewHtml/review_Rokka_-_Braves_of_the_Six_Flowers.html")</f>
         <v>https://2danicritic.github.io/ReviewHtml/review_Rokka_-_Braves_of_the_Six_Flowers.html</v>
       </c>
-      <c r="V213" s="5" t="str">
-        <f t="shared" si="6"/>
-        <v>Japan</v>
-      </c>
-      <c r="X213" s="5" t="str">
-        <f t="shared" si="7"/>
-        <v>TV</v>
-      </c>
-    </row>
-    <row r="214" spans="2:24" x14ac:dyDescent="0.35">
+    </row>
+    <row r="214" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B214" s="8">
-        <v>1</v>
+        <v>211</v>
       </c>
       <c r="C214" t="s">
-        <v>383</v>
+        <v>973</v>
       </c>
       <c r="D214" s="8">
-        <v>2010</v>
+        <v>2018</v>
       </c>
       <c r="E214" t="s">
-        <v>1006</v>
+        <v>1014</v>
       </c>
       <c r="F214" t="s">
-        <v>384</v>
+        <v>990</v>
       </c>
       <c r="G214" t="s">
         <v>1018</v>
       </c>
       <c r="H214" t="s">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="I214" s="8">
-        <v>3.29</v>
+        <v>3.86</v>
       </c>
       <c r="J214" s="8">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="K214" s="8">
         <v>4</v>
       </c>
       <c r="L214" s="8">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="M214" s="8">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="N214" s="8">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="O214" s="8">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P214" s="8">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q214" t="s">
-        <v>56</v>
+        <v>940</v>
       </c>
       <c r="R214" s="8">
-        <v>65</v>
+        <v>96</v>
       </c>
       <c r="S214" t="str">
-        <f xml:space="preserve"> HYPERLINK("ReviewHtml/review_A_Cat_in_Paris.html", "https://2danicritic.github.io/ReviewHtml/review_A_Cat_in_Paris.html")</f>
-        <v>https://2danicritic.github.io/ReviewHtml/review_A_Cat_in_Paris.html</v>
-      </c>
-      <c r="V214" s="5" t="str">
-        <f t="shared" si="6"/>
-        <v>France</v>
-      </c>
-      <c r="X214" s="5" t="str">
-        <f t="shared" si="7"/>
-        <v>Film</v>
-      </c>
-    </row>
-    <row r="215" spans="2:24" hidden="1" x14ac:dyDescent="0.35">
+        <f xml:space="preserve"> HYPERLINK("ReviewHtml/review_Ruben_Brandt_-_Collector.html", "https://2danicritic.github.io/ReviewHtml/review_Ruben_Brandt_-_Collector.html")</f>
+        <v>https://2danicritic.github.io/ReviewHtml/review_Ruben_Brandt_-_Collector.html</v>
+      </c>
+    </row>
+    <row r="215" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B215" s="8">
         <v>212</v>
       </c>
@@ -22347,81 +20634,65 @@
         <f xml:space="preserve"> HYPERLINK("ReviewHtml/review_Sankarea_-_Undying_Love.html", "https://2danicritic.github.io/ReviewHtml/review_Sankarea_-_Undying_Love.html")</f>
         <v>https://2danicritic.github.io/ReviewHtml/review_Sankarea_-_Undying_Love.html</v>
       </c>
-      <c r="V215" s="5" t="str">
-        <f t="shared" si="6"/>
-        <v>Japan</v>
-      </c>
-      <c r="X215" s="5" t="str">
-        <f t="shared" si="7"/>
-        <v>TV</v>
-      </c>
-    </row>
-    <row r="216" spans="2:24" x14ac:dyDescent="0.35">
+    </row>
+    <row r="216" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B216" s="8">
-        <v>49</v>
+        <v>213</v>
       </c>
       <c r="C216" t="s">
-        <v>483</v>
+        <v>773</v>
       </c>
       <c r="D216" s="8">
-        <v>2010</v>
+        <v>2014</v>
       </c>
       <c r="E216" t="s">
-        <v>1009</v>
+        <v>1010</v>
       </c>
       <c r="F216" t="s">
-        <v>484</v>
+        <v>774</v>
       </c>
       <c r="G216" t="s">
         <v>1018</v>
       </c>
       <c r="H216" t="s">
-        <v>485</v>
+        <v>775</v>
       </c>
       <c r="I216" s="8">
-        <v>3.57</v>
+        <v>2.93</v>
       </c>
       <c r="J216" s="8">
-        <v>4</v>
+        <v>2.5</v>
       </c>
       <c r="K216" s="8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L216" s="8">
-        <v>4.5</v>
+        <v>2.5</v>
       </c>
       <c r="M216" s="8">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="N216" s="8">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="O216" s="8">
         <v>3</v>
       </c>
       <c r="P216" s="8">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q216" t="s">
-        <v>102</v>
+        <v>244</v>
       </c>
       <c r="R216" s="8">
-        <v>97</v>
+        <v>81</v>
       </c>
       <c r="S216" t="str">
-        <f xml:space="preserve"> HYPERLINK("ReviewHtml/review_Chico_and_Rita.html", "https://2danicritic.github.io/ReviewHtml/review_Chico_and_Rita.html")</f>
-        <v>https://2danicritic.github.io/ReviewHtml/review_Chico_and_Rita.html</v>
-      </c>
-      <c r="V216" s="5" t="str">
-        <f t="shared" si="6"/>
-        <v>Spain</v>
-      </c>
-      <c r="X216" s="5" t="str">
-        <f t="shared" si="7"/>
-        <v>Film</v>
-      </c>
-    </row>
-    <row r="217" spans="2:24" hidden="1" x14ac:dyDescent="0.35">
+        <f xml:space="preserve"> HYPERLINK("ReviewHtml/review_Satellite_Girl_and_Milk_Cow.html", "https://2danicritic.github.io/ReviewHtml/review_Satellite_Girl_and_Milk_Cow.html")</f>
+        <v>https://2danicritic.github.io/ReviewHtml/review_Satellite_Girl_and_Milk_Cow.html</v>
+      </c>
+    </row>
+    <row r="217" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B217" s="8">
         <v>214</v>
       </c>
@@ -22477,16 +20748,8 @@
         <f xml:space="preserve"> HYPERLINK("ReviewHtml/review_Serial_Experiments_Lain.html", "https://2danicritic.github.io/ReviewHtml/review_Serial_Experiments_Lain.html")</f>
         <v>https://2danicritic.github.io/ReviewHtml/review_Serial_Experiments_Lain.html</v>
       </c>
-      <c r="V217" s="5" t="str">
-        <f t="shared" si="6"/>
-        <v>Japan</v>
-      </c>
-      <c r="X217" s="5" t="str">
-        <f t="shared" si="7"/>
-        <v>TV</v>
-      </c>
-    </row>
-    <row r="218" spans="2:24" hidden="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="218" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B218" s="8">
         <v>215</v>
       </c>
@@ -22542,16 +20805,8 @@
         <f xml:space="preserve"> HYPERLINK("ReviewHtml/review_Shimoneta_-_A_Boring_World_Where_the_Concept_of_Dirty_Jokes_Doesn't_Exist.html", "https://2danicritic.github.io/ReviewHtml/review_Shimoneta_-_A_Boring_World_Where_the_Concept_of_Dirty_Jokes_Doesn't_Exist.html")</f>
         <v>https://2danicritic.github.io/ReviewHtml/review_Shimoneta_-_A_Boring_World_Where_the_Concept_of_Dirty_Jokes_Doesn't_Exist.html</v>
       </c>
-      <c r="V218" s="5" t="str">
-        <f t="shared" si="6"/>
-        <v>Japan</v>
-      </c>
-      <c r="X218" s="5" t="str">
-        <f t="shared" si="7"/>
-        <v>TV</v>
-      </c>
-    </row>
-    <row r="219" spans="2:24" hidden="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="219" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B219" s="8">
         <v>216</v>
       </c>
@@ -22607,16 +20862,8 @@
         <f xml:space="preserve"> HYPERLINK("ReviewHtml/review_Shirobako.html", "https://2danicritic.github.io/ReviewHtml/review_Shirobako.html")</f>
         <v>https://2danicritic.github.io/ReviewHtml/review_Shirobako.html</v>
       </c>
-      <c r="V219" s="5" t="str">
-        <f t="shared" si="6"/>
-        <v>Japan</v>
-      </c>
-      <c r="X219" s="5" t="str">
-        <f t="shared" si="7"/>
-        <v>TV</v>
-      </c>
-    </row>
-    <row r="220" spans="2:24" hidden="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="220" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B220" s="8">
         <v>217</v>
       </c>
@@ -22672,16 +20919,8 @@
         <f xml:space="preserve"> HYPERLINK("ReviewHtml/review_Short_Peace.html", "https://2danicritic.github.io/ReviewHtml/review_Short_Peace.html")</f>
         <v>https://2danicritic.github.io/ReviewHtml/review_Short_Peace.html</v>
       </c>
-      <c r="V220" s="5" t="str">
-        <f t="shared" si="6"/>
-        <v>Japan</v>
-      </c>
-      <c r="X220" s="5" t="str">
-        <f t="shared" si="7"/>
-        <v>Anthology</v>
-      </c>
-    </row>
-    <row r="221" spans="2:24" hidden="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="221" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B221" s="8">
         <v>218</v>
       </c>
@@ -22737,81 +20976,65 @@
         <f xml:space="preserve"> HYPERLINK("ReviewHtml/review_Sin_-_The_Movie.html", "https://2danicritic.github.io/ReviewHtml/review_Sin_-_The_Movie.html")</f>
         <v>https://2danicritic.github.io/ReviewHtml/review_Sin_-_The_Movie.html</v>
       </c>
-      <c r="V221" s="5" t="str">
-        <f t="shared" si="6"/>
-        <v>Japan</v>
-      </c>
-      <c r="X221" s="5" t="str">
-        <f t="shared" si="7"/>
-        <v>OVA</v>
-      </c>
-    </row>
-    <row r="222" spans="2:24" x14ac:dyDescent="0.35">
+    </row>
+    <row r="222" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B222" s="8">
-        <v>249</v>
+        <v>219</v>
       </c>
       <c r="C222" t="s">
-        <v>827</v>
+        <v>783</v>
       </c>
       <c r="D222" s="8">
-        <v>2010</v>
+        <v>2014</v>
       </c>
       <c r="E222" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="F222" t="s">
-        <v>828</v>
+        <v>784</v>
       </c>
       <c r="G222" t="s">
         <v>1018</v>
       </c>
       <c r="H222" t="s">
-        <v>829</v>
+        <v>785</v>
       </c>
       <c r="I222" s="8">
-        <v>4.1399999999999997</v>
+        <v>3.36</v>
       </c>
       <c r="J222" s="8">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="K222" s="8">
         <v>4.5</v>
       </c>
       <c r="L222" s="8">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="M222" s="8">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="N222" s="8">
-        <v>5</v>
+        <v>2.5</v>
       </c>
       <c r="O222" s="8">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="P222" s="8">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q222" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="R222" s="8">
-        <v>79</v>
+        <v>94</v>
       </c>
       <c r="S222" t="str">
-        <f xml:space="preserve"> HYPERLINK("ReviewHtml/review_The_Illusionist.html", "https://2danicritic.github.io/ReviewHtml/review_The_Illusionist.html")</f>
-        <v>https://2danicritic.github.io/ReviewHtml/review_The_Illusionist.html</v>
-      </c>
-      <c r="V222" s="5" t="str">
-        <f t="shared" si="6"/>
-        <v>French</v>
-      </c>
-      <c r="X222" s="5" t="str">
-        <f t="shared" si="7"/>
-        <v>Film</v>
-      </c>
-    </row>
-    <row r="223" spans="2:24" hidden="1" x14ac:dyDescent="0.35">
+        <f xml:space="preserve"> HYPERLINK("ReviewHtml/review_Song_of_the_Sea.html", "https://2danicritic.github.io/ReviewHtml/review_Song_of_the_Sea.html")</f>
+        <v>https://2danicritic.github.io/ReviewHtml/review_Song_of_the_Sea.html</v>
+      </c>
+    </row>
+    <row r="223" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B223" s="8">
         <v>220</v>
       </c>
@@ -22867,16 +21090,8 @@
         <f xml:space="preserve"> HYPERLINK("ReviewHtml/review_Soul_Eater.html", "https://2danicritic.github.io/ReviewHtml/review_Soul_Eater.html")</f>
         <v>https://2danicritic.github.io/ReviewHtml/review_Soul_Eater.html</v>
       </c>
-      <c r="V223" s="5" t="str">
-        <f t="shared" si="6"/>
-        <v>Japan</v>
-      </c>
-      <c r="X223" s="5" t="str">
-        <f t="shared" si="7"/>
-        <v>TV</v>
-      </c>
-    </row>
-    <row r="224" spans="2:24" hidden="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="224" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B224" s="8">
         <v>221</v>
       </c>
@@ -22932,16 +21147,8 @@
         <f xml:space="preserve"> HYPERLINK("ReviewHtml/review_Space_Dandy.html", "https://2danicritic.github.io/ReviewHtml/review_Space_Dandy.html")</f>
         <v>https://2danicritic.github.io/ReviewHtml/review_Space_Dandy.html</v>
       </c>
-      <c r="V224" s="5" t="str">
-        <f t="shared" si="6"/>
-        <v>Japan</v>
-      </c>
-      <c r="X224" s="5" t="str">
-        <f t="shared" si="7"/>
-        <v>TV</v>
-      </c>
-    </row>
-    <row r="225" spans="2:24" hidden="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="225" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B225" s="8">
         <v>222</v>
       </c>
@@ -22997,16 +21204,8 @@
         <f xml:space="preserve"> HYPERLINK("ReviewHtml/review_Spice_and_Wolf.html", "https://2danicritic.github.io/ReviewHtml/review_Spice_and_Wolf.html")</f>
         <v>https://2danicritic.github.io/ReviewHtml/review_Spice_and_Wolf.html</v>
       </c>
-      <c r="V225" s="5" t="str">
-        <f t="shared" si="6"/>
-        <v>Japan</v>
-      </c>
-      <c r="X225" s="5" t="str">
-        <f t="shared" si="7"/>
-        <v>TV</v>
-      </c>
-    </row>
-    <row r="226" spans="2:24" hidden="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="226" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B226" s="8">
         <v>223</v>
       </c>
@@ -23062,16 +21261,8 @@
         <f xml:space="preserve"> HYPERLINK("ReviewHtml/review_Spirited_Away.html", "https://2danicritic.github.io/ReviewHtml/review_Spirited_Away.html")</f>
         <v>https://2danicritic.github.io/ReviewHtml/review_Spirited_Away.html</v>
       </c>
-      <c r="V226" s="5" t="str">
-        <f t="shared" si="6"/>
-        <v>Japan</v>
-      </c>
-      <c r="X226" s="5" t="str">
-        <f t="shared" si="7"/>
-        <v>Film</v>
-      </c>
-    </row>
-    <row r="227" spans="2:24" hidden="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="227" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B227" s="8">
         <v>224</v>
       </c>
@@ -23127,16 +21318,8 @@
         <f xml:space="preserve"> HYPERLINK("ReviewHtml/review_Steins;Gate.html", "https://2danicritic.github.io/ReviewHtml/review_Steins;Gate.html")</f>
         <v>https://2danicritic.github.io/ReviewHtml/review_Steins;Gate.html</v>
       </c>
-      <c r="V227" s="5" t="str">
-        <f t="shared" si="6"/>
-        <v>Japan</v>
-      </c>
-      <c r="X227" s="5" t="str">
-        <f t="shared" si="7"/>
-        <v>TV</v>
-      </c>
-    </row>
-    <row r="228" spans="2:24" hidden="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="228" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B228" s="8">
         <v>225</v>
       </c>
@@ -23192,16 +21375,8 @@
         <f xml:space="preserve"> HYPERLINK("ReviewHtml/review_Steins;Gate_The_Movie_-_Load_Region_of_Deja_Vu.html", "https://2danicritic.github.io/ReviewHtml/review_Steins;Gate_The_Movie_-_Load_Region_of_Deja_Vu.html")</f>
         <v>https://2danicritic.github.io/ReviewHtml/review_Steins;Gate_The_Movie_-_Load_Region_of_Deja_Vu.html</v>
       </c>
-      <c r="V228" s="5" t="str">
-        <f t="shared" si="6"/>
-        <v>Japan</v>
-      </c>
-      <c r="X228" s="5" t="str">
-        <f t="shared" si="7"/>
-        <v>Film</v>
-      </c>
-    </row>
-    <row r="229" spans="2:24" hidden="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="229" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B229" s="8">
         <v>226</v>
       </c>
@@ -23257,16 +21432,8 @@
         <f xml:space="preserve"> HYPERLINK("ReviewHtml/review_Street_Fighter_II_-_The_Animated_Movie.html", "https://2danicritic.github.io/ReviewHtml/review_Street_Fighter_II_-_The_Animated_Movie.html")</f>
         <v>https://2danicritic.github.io/ReviewHtml/review_Street_Fighter_II_-_The_Animated_Movie.html</v>
       </c>
-      <c r="V229" s="5" t="str">
-        <f t="shared" si="6"/>
-        <v>Japan</v>
-      </c>
-      <c r="X229" s="5" t="str">
-        <f t="shared" si="7"/>
-        <v>Film</v>
-      </c>
-    </row>
-    <row r="230" spans="2:24" hidden="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="230" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B230" s="8">
         <v>227</v>
       </c>
@@ -23322,16 +21489,8 @@
         <f xml:space="preserve"> HYPERLINK("ReviewHtml/review_Summer_Wars.html", "https://2danicritic.github.io/ReviewHtml/review_Summer_Wars.html")</f>
         <v>https://2danicritic.github.io/ReviewHtml/review_Summer_Wars.html</v>
       </c>
-      <c r="V230" s="5" t="str">
-        <f t="shared" si="6"/>
-        <v>Japan</v>
-      </c>
-      <c r="X230" s="5" t="str">
-        <f t="shared" si="7"/>
-        <v>Film</v>
-      </c>
-    </row>
-    <row r="231" spans="2:24" hidden="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="231" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B231" s="8">
         <v>228</v>
       </c>
@@ -23387,16 +21546,8 @@
         <f xml:space="preserve"> HYPERLINK("ReviewHtml/review_Supernatural_-_The_Animation.html", "https://2danicritic.github.io/ReviewHtml/review_Supernatural_-_The_Animation.html")</f>
         <v>https://2danicritic.github.io/ReviewHtml/review_Supernatural_-_The_Animation.html</v>
       </c>
-      <c r="V231" s="5" t="str">
-        <f t="shared" si="6"/>
-        <v>Japan</v>
-      </c>
-      <c r="X231" s="5" t="str">
-        <f t="shared" si="7"/>
-        <v>TV</v>
-      </c>
-    </row>
-    <row r="232" spans="2:24" hidden="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="232" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B232" s="8">
         <v>229</v>
       </c>
@@ -23452,16 +21603,8 @@
         <f xml:space="preserve"> HYPERLINK("ReviewHtml/review_Sword_of_the_Stranger.html", "https://2danicritic.github.io/ReviewHtml/review_Sword_of_the_Stranger.html")</f>
         <v>https://2danicritic.github.io/ReviewHtml/review_Sword_of_the_Stranger.html</v>
       </c>
-      <c r="V232" s="5" t="str">
-        <f t="shared" si="6"/>
-        <v>Japan</v>
-      </c>
-      <c r="X232" s="5" t="str">
-        <f t="shared" si="7"/>
-        <v>Film</v>
-      </c>
-    </row>
-    <row r="233" spans="2:24" hidden="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="233" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B233" s="8">
         <v>230</v>
       </c>
@@ -23517,81 +21660,65 @@
         <f xml:space="preserve"> HYPERLINK("ReviewHtml/review_Tales_From_Earthsea.html", "https://2danicritic.github.io/ReviewHtml/review_Tales_From_Earthsea.html")</f>
         <v>https://2danicritic.github.io/ReviewHtml/review_Tales_From_Earthsea.html</v>
       </c>
-      <c r="V233" s="5" t="str">
-        <f t="shared" si="6"/>
-        <v>Japan</v>
-      </c>
-      <c r="X233" s="5" t="str">
-        <f t="shared" si="7"/>
-        <v>Film</v>
-      </c>
-    </row>
-    <row r="234" spans="2:24" x14ac:dyDescent="0.35">
+    </row>
+    <row r="234" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B234" s="8">
-        <v>265</v>
+        <v>231</v>
       </c>
       <c r="C234" t="s">
-        <v>852</v>
+        <v>799</v>
       </c>
       <c r="D234" s="8">
-        <v>2009</v>
+        <v>2018</v>
       </c>
       <c r="E234" t="s">
-        <v>1015</v>
+        <v>1007</v>
       </c>
       <c r="F234" t="s">
-        <v>784</v>
+        <v>800</v>
       </c>
       <c r="G234" t="s">
         <v>1018</v>
       </c>
       <c r="H234" t="s">
-        <v>353</v>
+        <v>260</v>
       </c>
       <c r="I234" s="8">
-        <v>3.79</v>
+        <v>2.71</v>
       </c>
       <c r="J234" s="8">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="K234" s="8">
-        <v>5</v>
+        <v>2.5</v>
       </c>
       <c r="L234" s="8">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="M234" s="8">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="N234" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O234" s="8">
         <v>3.5</v>
       </c>
       <c r="P234" s="8">
-        <v>4.5</v>
+        <v>2</v>
       </c>
       <c r="Q234" t="s">
-        <v>349</v>
+        <v>261</v>
       </c>
       <c r="R234" s="8">
-        <v>75</v>
+        <v>88</v>
       </c>
       <c r="S234" t="str">
-        <f xml:space="preserve"> HYPERLINK("ReviewHtml/review_The_Secret_of_Kells.html", "https://2danicritic.github.io/ReviewHtml/review_The_Secret_of_Kells.html")</f>
-        <v>https://2danicritic.github.io/ReviewHtml/review_The_Secret_of_Kells.html</v>
-      </c>
-      <c r="V234" s="5" t="str">
-        <f t="shared" si="6"/>
-        <v>Ireland</v>
-      </c>
-      <c r="X234" s="5" t="str">
-        <f t="shared" si="7"/>
-        <v>Film</v>
-      </c>
-    </row>
-    <row r="235" spans="2:24" hidden="1" x14ac:dyDescent="0.35">
+        <f xml:space="preserve"> HYPERLINK("ReviewHtml/review_Teen_Titans_Go_(To_The_Movies).html", "https://2danicritic.github.io/ReviewHtml/review_Teen_Titans_Go_(To_The_Movies).html")</f>
+        <v>https://2danicritic.github.io/ReviewHtml/review_Teen_Titans_Go_(To_The_Movies).html</v>
+      </c>
+    </row>
+    <row r="235" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B235" s="8">
         <v>232</v>
       </c>
@@ -23647,81 +21774,65 @@
         <f xml:space="preserve"> HYPERLINK("ReviewHtml/review_The_Animatrix.html", "https://2danicritic.github.io/ReviewHtml/review_The_Animatrix.html")</f>
         <v>https://2danicritic.github.io/ReviewHtml/review_The_Animatrix.html</v>
       </c>
-      <c r="V235" s="5" t="str">
-        <f t="shared" si="6"/>
-        <v>Japan</v>
-      </c>
-      <c r="X235" s="5" t="str">
-        <f t="shared" si="7"/>
-        <v>Anthology</v>
-      </c>
-    </row>
-    <row r="236" spans="2:24" x14ac:dyDescent="0.35">
+    </row>
+    <row r="236" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B236" s="8">
-        <v>193</v>
+        <v>233</v>
       </c>
       <c r="C236" t="s">
-        <v>733</v>
+        <v>801</v>
       </c>
       <c r="D236" s="8">
-        <v>2007</v>
+        <v>2017</v>
       </c>
       <c r="E236" t="s">
         <v>1006</v>
       </c>
       <c r="F236" t="s">
-        <v>734</v>
+        <v>802</v>
       </c>
       <c r="G236" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="H236" t="s">
-        <v>228</v>
+        <v>262</v>
       </c>
       <c r="I236" s="8">
-        <v>3.21</v>
+        <v>3.29</v>
       </c>
       <c r="J236" s="8">
         <v>3</v>
       </c>
       <c r="K236" s="8">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="L236" s="8">
         <v>3</v>
       </c>
       <c r="M236" s="8">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="N236" s="8">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="O236" s="8">
-        <v>2.5</v>
+        <v>4.5</v>
       </c>
       <c r="P236" s="8">
         <v>4</v>
       </c>
       <c r="Q236" t="s">
-        <v>229</v>
+        <v>186</v>
       </c>
       <c r="R236" s="8">
-        <v>96</v>
+        <v>79</v>
       </c>
       <c r="S236" t="str">
-        <f xml:space="preserve"> HYPERLINK("ReviewHtml/review_Persepolis.html", "https://2danicritic.github.io/ReviewHtml/review_Persepolis.html")</f>
-        <v>https://2danicritic.github.io/ReviewHtml/review_Persepolis.html</v>
-      </c>
-      <c r="V236" s="5" t="str">
-        <f t="shared" si="6"/>
-        <v>France</v>
-      </c>
-      <c r="X236" s="5" t="str">
-        <f t="shared" si="7"/>
-        <v>Film</v>
-      </c>
-    </row>
-    <row r="237" spans="2:24" hidden="1" x14ac:dyDescent="0.35">
+        <f xml:space="preserve"> HYPERLINK("ReviewHtml/review_The_Big_Bad_Fox_and_Other_Tales.html", "https://2danicritic.github.io/ReviewHtml/review_The_Big_Bad_Fox_and_Other_Tales.html")</f>
+        <v>https://2danicritic.github.io/ReviewHtml/review_The_Big_Bad_Fox_and_Other_Tales.html</v>
+      </c>
+    </row>
+    <row r="237" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B237" s="8">
         <v>234</v>
       </c>
@@ -23777,81 +21888,65 @@
         <f xml:space="preserve"> HYPERLINK("ReviewHtml/review_The_Boy_and_the_Beast.html", "https://2danicritic.github.io/ReviewHtml/review_The_Boy_and_the_Beast.html")</f>
         <v>https://2danicritic.github.io/ReviewHtml/review_The_Boy_and_the_Beast.html</v>
       </c>
-      <c r="V237" s="5" t="str">
-        <f t="shared" si="6"/>
-        <v>Japan</v>
-      </c>
-      <c r="X237" s="5" t="str">
-        <f t="shared" si="7"/>
-        <v>Film</v>
-      </c>
-    </row>
-    <row r="238" spans="2:24" x14ac:dyDescent="0.35">
+    </row>
+    <row r="238" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B238" s="8">
-        <v>37</v>
+        <v>235</v>
       </c>
       <c r="C238" t="s">
-        <v>455</v>
+        <v>804</v>
       </c>
       <c r="D238" s="8">
-        <v>2004</v>
+        <v>2017</v>
       </c>
       <c r="E238" t="s">
-        <v>1010</v>
+        <v>1015</v>
       </c>
       <c r="F238" t="s">
-        <v>90</v>
+        <v>784</v>
       </c>
       <c r="G238" t="s">
         <v>1018</v>
       </c>
       <c r="H238" t="s">
-        <v>91</v>
+        <v>805</v>
       </c>
       <c r="I238" s="8">
-        <v>1.57</v>
+        <v>4.8600000000000003</v>
       </c>
       <c r="J238" s="8">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="K238" s="8">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="L238" s="8">
-        <v>1.5</v>
+        <v>4</v>
       </c>
       <c r="M238" s="8">
-        <v>1.5</v>
+        <v>5</v>
       </c>
       <c r="N238" s="8">
-        <v>1.5</v>
+        <v>5</v>
       </c>
       <c r="O238" s="8">
-        <v>1.5</v>
+        <v>5</v>
       </c>
       <c r="P238" s="8">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="Q238" t="s">
-        <v>92</v>
+        <v>264</v>
       </c>
       <c r="R238" s="8">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="S238" t="str">
-        <f xml:space="preserve"> HYPERLINK("ReviewHtml/review_Blade_of_the_Phantom_Master.html", "https://2danicritic.github.io/ReviewHtml/review_Blade_of_the_Phantom_Master.html")</f>
-        <v>https://2danicritic.github.io/ReviewHtml/review_Blade_of_the_Phantom_Master.html</v>
-      </c>
-      <c r="V238" s="5" t="str">
-        <f t="shared" si="6"/>
-        <v>South Korea</v>
-      </c>
-      <c r="X238" s="5" t="str">
-        <f t="shared" si="7"/>
-        <v>Film</v>
-      </c>
-    </row>
-    <row r="239" spans="2:24" hidden="1" x14ac:dyDescent="0.35">
+        <f xml:space="preserve"> HYPERLINK("ReviewHtml/review_The_Breadwinner.html", "https://2danicritic.github.io/ReviewHtml/review_The_Breadwinner.html")</f>
+        <v>https://2danicritic.github.io/ReviewHtml/review_The_Breadwinner.html</v>
+      </c>
+    </row>
+    <row r="239" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B239" s="8">
         <v>236</v>
       </c>
@@ -23907,16 +22002,8 @@
         <f xml:space="preserve"> HYPERLINK("ReviewHtml/review_The_Cat_Returns.html", "https://2danicritic.github.io/ReviewHtml/review_The_Cat_Returns.html")</f>
         <v>https://2danicritic.github.io/ReviewHtml/review_The_Cat_Returns.html</v>
       </c>
-      <c r="V239" s="5" t="str">
-        <f t="shared" si="6"/>
-        <v>Japan</v>
-      </c>
-      <c r="X239" s="5" t="str">
-        <f t="shared" si="7"/>
-        <v>Film</v>
-      </c>
-    </row>
-    <row r="240" spans="2:24" hidden="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="240" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B240" s="8">
         <v>237</v>
       </c>
@@ -23972,16 +22059,8 @@
         <f xml:space="preserve"> HYPERLINK("ReviewHtml/review_The_Comic_Artist_&amp;_His_Assistants.html", "https://2danicritic.github.io/ReviewHtml/review_The_Comic_Artist_&amp;_His_Assistants.html")</f>
         <v>https://2danicritic.github.io/ReviewHtml/review_The_Comic_Artist_&amp;_His_Assistants.html</v>
       </c>
-      <c r="V240" s="5" t="str">
-        <f t="shared" si="6"/>
-        <v>Japan</v>
-      </c>
-      <c r="X240" s="5" t="str">
-        <f t="shared" si="7"/>
-        <v>TV</v>
-      </c>
-    </row>
-    <row r="241" spans="2:24" hidden="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="241" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B241" s="8">
         <v>238</v>
       </c>
@@ -24037,16 +22116,8 @@
         <f xml:space="preserve"> HYPERLINK("ReviewHtml/review_The_Disappearance_of_Haruhi_Suzumiya.html", "https://2danicritic.github.io/ReviewHtml/review_The_Disappearance_of_Haruhi_Suzumiya.html")</f>
         <v>https://2danicritic.github.io/ReviewHtml/review_The_Disappearance_of_Haruhi_Suzumiya.html</v>
       </c>
-      <c r="V241" s="5" t="str">
-        <f t="shared" si="6"/>
-        <v>Japan</v>
-      </c>
-      <c r="X241" s="5" t="str">
-        <f t="shared" si="7"/>
-        <v>Film</v>
-      </c>
-    </row>
-    <row r="242" spans="2:24" hidden="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="242" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B242" s="8">
         <v>239</v>
       </c>
@@ -24102,16 +22173,8 @@
         <f xml:space="preserve"> HYPERLINK("ReviewHtml/review_The_Disappearance_of_Nagato_Yuki-chan.html", "https://2danicritic.github.io/ReviewHtml/review_The_Disappearance_of_Nagato_Yuki-chan.html")</f>
         <v>https://2danicritic.github.io/ReviewHtml/review_The_Disappearance_of_Nagato_Yuki-chan.html</v>
       </c>
-      <c r="V242" s="5" t="str">
-        <f t="shared" si="6"/>
-        <v>Japan</v>
-      </c>
-      <c r="X242" s="5" t="str">
-        <f t="shared" si="7"/>
-        <v>TV</v>
-      </c>
-    </row>
-    <row r="243" spans="2:24" hidden="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="243" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B243" s="8">
         <v>240</v>
       </c>
@@ -24167,16 +22230,8 @@
         <f xml:space="preserve"> HYPERLINK("ReviewHtml/review_The_Dragon_Dentist.html", "https://2danicritic.github.io/ReviewHtml/review_The_Dragon_Dentist.html")</f>
         <v>https://2danicritic.github.io/ReviewHtml/review_The_Dragon_Dentist.html</v>
       </c>
-      <c r="V243" s="5" t="str">
-        <f t="shared" si="6"/>
-        <v>Japan</v>
-      </c>
-      <c r="X243" s="5" t="str">
-        <f t="shared" si="7"/>
-        <v>OVA</v>
-      </c>
-    </row>
-    <row r="244" spans="2:24" hidden="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="244" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B244" s="8">
         <v>241</v>
       </c>
@@ -24232,16 +22287,8 @@
         <f xml:space="preserve"> HYPERLINK("ReviewHtml/review_The_Empire_of_Corpses.html", "https://2danicritic.github.io/ReviewHtml/review_The_Empire_of_Corpses.html")</f>
         <v>https://2danicritic.github.io/ReviewHtml/review_The_Empire_of_Corpses.html</v>
       </c>
-      <c r="V244" s="5" t="str">
-        <f t="shared" si="6"/>
-        <v>Japan</v>
-      </c>
-      <c r="X244" s="5" t="str">
-        <f t="shared" si="7"/>
-        <v>Film</v>
-      </c>
-    </row>
-    <row r="245" spans="2:24" hidden="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="245" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B245" s="8">
         <v>242</v>
       </c>
@@ -24297,81 +22344,65 @@
         <f xml:space="preserve"> HYPERLINK("ReviewHtml/review_The_Fantastic_Adventures_of_Unico.html", "https://2danicritic.github.io/ReviewHtml/review_The_Fantastic_Adventures_of_Unico.html")</f>
         <v>https://2danicritic.github.io/ReviewHtml/review_The_Fantastic_Adventures_of_Unico.html</v>
       </c>
-      <c r="V245" s="5" t="str">
-        <f t="shared" si="6"/>
-        <v>Japan</v>
-      </c>
-      <c r="X245" s="5" t="str">
-        <f t="shared" si="7"/>
-        <v>Film</v>
-      </c>
-    </row>
-    <row r="246" spans="2:24" x14ac:dyDescent="0.35">
+    </row>
+    <row r="246" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B246" s="8">
-        <v>271</v>
+        <v>243</v>
       </c>
       <c r="C246" t="s">
-        <v>859</v>
+        <v>817</v>
       </c>
       <c r="D246" s="8">
-        <v>2003</v>
+        <v>1982</v>
       </c>
       <c r="E246" t="s">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="F246" t="s">
-        <v>860</v>
+        <v>818</v>
       </c>
       <c r="G246" t="s">
         <v>1018</v>
       </c>
       <c r="H246" t="s">
-        <v>829</v>
+        <v>269</v>
       </c>
       <c r="I246" s="8">
-        <v>3.93</v>
+        <v>3.21</v>
       </c>
       <c r="J246" s="8">
-        <v>4.5</v>
+        <v>2.5</v>
       </c>
       <c r="K246" s="8">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L246" s="8">
-        <v>4.5</v>
+        <v>3</v>
       </c>
       <c r="M246" s="8">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="N246" s="8">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="O246" s="8">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="P246" s="8">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="Q246" t="s">
-        <v>354</v>
+        <v>197</v>
       </c>
       <c r="R246" s="8">
-        <v>78</v>
+        <v>95</v>
       </c>
       <c r="S246" t="str">
-        <f xml:space="preserve"> HYPERLINK("ReviewHtml/review_The_Triplets_of_Belleville.html", "https://2danicritic.github.io/ReviewHtml/review_The_Triplets_of_Belleville.html")</f>
-        <v>https://2danicritic.github.io/ReviewHtml/review_The_Triplets_of_Belleville.html</v>
-      </c>
-      <c r="V246" s="5" t="str">
-        <f t="shared" si="6"/>
-        <v>France</v>
-      </c>
-      <c r="X246" s="5" t="str">
-        <f t="shared" si="7"/>
-        <v>Film</v>
-      </c>
-    </row>
-    <row r="247" spans="2:24" hidden="1" x14ac:dyDescent="0.35">
+        <f xml:space="preserve"> HYPERLINK("ReviewHtml/review_The_Flight_of_Dragons.html", "https://2danicritic.github.io/ReviewHtml/review_The_Flight_of_Dragons.html")</f>
+        <v>https://2danicritic.github.io/ReviewHtml/review_The_Flight_of_Dragons.html</v>
+      </c>
+    </row>
+    <row r="247" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B247" s="8">
         <v>244</v>
       </c>
@@ -24427,16 +22458,8 @@
         <f xml:space="preserve"> HYPERLINK("ReviewHtml/review_The_Future_Diary.html", "https://2danicritic.github.io/ReviewHtml/review_The_Future_Diary.html")</f>
         <v>https://2danicritic.github.io/ReviewHtml/review_The_Future_Diary.html</v>
       </c>
-      <c r="V247" s="5" t="str">
-        <f t="shared" si="6"/>
-        <v>Japan</v>
-      </c>
-      <c r="X247" s="5" t="str">
-        <f t="shared" si="7"/>
-        <v>TV</v>
-      </c>
-    </row>
-    <row r="248" spans="2:24" hidden="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="248" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B248" s="8">
         <v>245</v>
       </c>
@@ -24492,16 +22515,8 @@
         <f xml:space="preserve"> HYPERLINK("ReviewHtml/review_The_Garden_of_Sinners.html", "https://2danicritic.github.io/ReviewHtml/review_The_Garden_of_Sinners.html")</f>
         <v>https://2danicritic.github.io/ReviewHtml/review_The_Garden_of_Sinners.html</v>
       </c>
-      <c r="V248" s="5" t="str">
-        <f t="shared" si="6"/>
-        <v>Japan</v>
-      </c>
-      <c r="X248" s="5" t="str">
-        <f t="shared" si="7"/>
-        <v>Film</v>
-      </c>
-    </row>
-    <row r="249" spans="2:24" hidden="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="249" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B249" s="8">
         <v>246</v>
       </c>
@@ -24557,16 +22572,8 @@
         <f xml:space="preserve"> HYPERLINK("ReviewHtml/review_The_Garden_of_Words.html", "https://2danicritic.github.io/ReviewHtml/review_The_Garden_of_Words.html")</f>
         <v>https://2danicritic.github.io/ReviewHtml/review_The_Garden_of_Words.html</v>
       </c>
-      <c r="V249" s="5" t="str">
-        <f t="shared" si="6"/>
-        <v>Japan</v>
-      </c>
-      <c r="X249" s="5" t="str">
-        <f t="shared" si="7"/>
-        <v>Film</v>
-      </c>
-    </row>
-    <row r="250" spans="2:24" hidden="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="250" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B250" s="8">
         <v>247</v>
       </c>
@@ -24622,172 +22629,148 @@
         <f xml:space="preserve"> HYPERLINK("ReviewHtml/review_The_Girl_Who_Leapt_Through_Time.html", "https://2danicritic.github.io/ReviewHtml/review_The_Girl_Who_Leapt_Through_Time.html")</f>
         <v>https://2danicritic.github.io/ReviewHtml/review_The_Girl_Who_Leapt_Through_Time.html</v>
       </c>
-      <c r="V250" s="5" t="str">
-        <f t="shared" si="6"/>
-        <v>Japan</v>
-      </c>
-      <c r="X250" s="5" t="str">
-        <f t="shared" si="7"/>
-        <v>Film</v>
-      </c>
-    </row>
-    <row r="251" spans="2:24" x14ac:dyDescent="0.35">
+    </row>
+    <row r="251" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B251" s="8">
-        <v>160</v>
+        <v>248</v>
       </c>
       <c r="C251" t="s">
-        <v>682</v>
+        <v>825</v>
       </c>
       <c r="D251" s="8">
-        <v>2002</v>
+        <v>2016</v>
       </c>
       <c r="E251" t="s">
-        <v>1010</v>
+        <v>1016</v>
       </c>
       <c r="F251" t="s">
-        <v>683</v>
+        <v>826</v>
       </c>
       <c r="G251" t="s">
         <v>1018</v>
       </c>
       <c r="H251" t="s">
-        <v>684</v>
+        <v>273</v>
       </c>
       <c r="I251" s="8">
-        <v>1.43</v>
+        <v>3</v>
       </c>
       <c r="J251" s="8">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="K251" s="8">
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="L251" s="8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M251" s="8">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="N251" s="8">
-        <v>1.5</v>
+        <v>3.5</v>
       </c>
       <c r="O251" s="8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P251" s="8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q251" t="s">
-        <v>204</v>
+        <v>274</v>
       </c>
       <c r="R251" s="8">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="S251" t="str">
-        <f xml:space="preserve"> HYPERLINK("ReviewHtml/review_My_Beautiful_Girl_Mari.html", "https://2danicritic.github.io/ReviewHtml/review_My_Beautiful_Girl_Mari.html")</f>
-        <v>https://2danicritic.github.io/ReviewHtml/review_My_Beautiful_Girl_Mari.html</v>
-      </c>
-      <c r="V251" s="5" t="str">
-        <f t="shared" si="6"/>
-        <v>South Korea</v>
-      </c>
-      <c r="X251" s="5" t="str">
-        <f t="shared" si="7"/>
-        <v>Film</v>
-      </c>
-    </row>
-    <row r="252" spans="2:24" x14ac:dyDescent="0.35">
+        <f xml:space="preserve"> HYPERLINK("ReviewHtml/review_The_Girl_Without_Hands.html", "https://2danicritic.github.io/ReviewHtml/review_The_Girl_Without_Hands.html")</f>
+        <v>https://2danicritic.github.io/ReviewHtml/review_The_Girl_Without_Hands.html</v>
+      </c>
+    </row>
+    <row r="252" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B252" s="8">
-        <v>118</v>
+        <v>249</v>
       </c>
       <c r="C252" t="s">
-        <v>964</v>
+        <v>827</v>
       </c>
       <c r="D252" s="8">
-        <v>2000</v>
+        <v>2010</v>
       </c>
       <c r="E252" t="s">
-        <v>1007</v>
+        <v>1016</v>
       </c>
       <c r="F252" t="s">
-        <v>988</v>
+        <v>828</v>
       </c>
       <c r="G252" t="s">
         <v>1018</v>
       </c>
       <c r="H252" t="s">
-        <v>926</v>
+        <v>829</v>
       </c>
       <c r="I252" s="8">
-        <v>2.64</v>
+        <v>4.1399999999999997</v>
       </c>
       <c r="J252" s="8">
-        <v>2.5</v>
+        <v>5</v>
       </c>
       <c r="K252" s="8">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="L252" s="8">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="M252" s="8">
         <v>3</v>
       </c>
       <c r="N252" s="8">
-        <v>2.5</v>
+        <v>5</v>
       </c>
       <c r="O252" s="8">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="P252" s="8">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="Q252" t="s">
-        <v>204</v>
+        <v>351</v>
       </c>
       <c r="R252" s="8">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="S252" t="str">
-        <f xml:space="preserve"> HYPERLINK("ReviewHtml/review_Joseph_-_King_of_Dreams.html", "https://2danicritic.github.io/ReviewHtml/review_Joseph_-_King_of_Dreams.html")</f>
-        <v>https://2danicritic.github.io/ReviewHtml/review_Joseph_-_King_of_Dreams.html</v>
-      </c>
-      <c r="V252" s="5" t="str">
-        <f t="shared" si="6"/>
-        <v>USA</v>
-      </c>
-      <c r="X252" s="5" t="str">
-        <f t="shared" si="7"/>
-        <v>Film</v>
-      </c>
-    </row>
-    <row r="253" spans="2:24" x14ac:dyDescent="0.35">
+        <f xml:space="preserve"> HYPERLINK("ReviewHtml/review_The_Illusionist.html", "https://2danicritic.github.io/ReviewHtml/review_The_Illusionist.html")</f>
+        <v>https://2danicritic.github.io/ReviewHtml/review_The_Illusionist.html</v>
+      </c>
+    </row>
+    <row r="253" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B253" s="8">
-        <v>264</v>
+        <v>250</v>
       </c>
       <c r="C253" t="s">
-        <v>979</v>
+        <v>830</v>
       </c>
       <c r="D253" s="8">
-        <v>2000</v>
+        <v>1982</v>
       </c>
       <c r="E253" t="s">
         <v>1007</v>
       </c>
       <c r="F253" t="s">
-        <v>993</v>
+        <v>831</v>
       </c>
       <c r="G253" t="s">
         <v>1018</v>
       </c>
       <c r="H253" t="s">
-        <v>949</v>
+        <v>275</v>
       </c>
       <c r="I253" s="8">
-        <v>3.71</v>
+        <v>3.64</v>
       </c>
       <c r="J253" s="8">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="K253" s="8">
         <v>4</v>
@@ -24796,37 +22779,29 @@
         <v>3.5</v>
       </c>
       <c r="M253" s="8">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="N253" s="8">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="O253" s="8">
-        <v>4.5</v>
+        <v>3</v>
       </c>
       <c r="P253" s="8">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q253" t="s">
-        <v>186</v>
+        <v>82</v>
       </c>
       <c r="R253" s="8">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="S253" t="str">
-        <f xml:space="preserve"> HYPERLINK("ReviewHtml/review_The_Road_to_El_Dorado.html", "https://2danicritic.github.io/ReviewHtml/review_The_Road_to_El_Dorado.html")</f>
-        <v>https://2danicritic.github.io/ReviewHtml/review_The_Road_to_El_Dorado.html</v>
-      </c>
-      <c r="V253" s="5" t="str">
-        <f t="shared" si="6"/>
-        <v>USA</v>
-      </c>
-      <c r="X253" s="5" t="str">
-        <f t="shared" si="7"/>
-        <v>Film</v>
-      </c>
-    </row>
-    <row r="254" spans="2:24" hidden="1" x14ac:dyDescent="0.35">
+        <f xml:space="preserve"> HYPERLINK("ReviewHtml/review_The_Last_Unicorn.html", "https://2danicritic.github.io/ReviewHtml/review_The_Last_Unicorn.html")</f>
+        <v>https://2danicritic.github.io/ReviewHtml/review_The_Last_Unicorn.html</v>
+      </c>
+    </row>
+    <row r="254" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B254" s="8">
         <v>251</v>
       </c>
@@ -24882,16 +22857,8 @@
         <f xml:space="preserve"> HYPERLINK("ReviewHtml/review_The_Legend_of_the_Millennium_Dragon.html", "https://2danicritic.github.io/ReviewHtml/review_The_Legend_of_the_Millennium_Dragon.html")</f>
         <v>https://2danicritic.github.io/ReviewHtml/review_The_Legend_of_the_Millennium_Dragon.html</v>
       </c>
-      <c r="V254" s="5" t="str">
-        <f t="shared" si="6"/>
-        <v>Japan</v>
-      </c>
-      <c r="X254" s="5" t="str">
-        <f t="shared" si="7"/>
-        <v>Film</v>
-      </c>
-    </row>
-    <row r="255" spans="2:24" hidden="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="255" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B255" s="8">
         <v>252</v>
       </c>
@@ -24947,16 +22914,8 @@
         <f xml:space="preserve"> HYPERLINK("ReviewHtml/review_The_Life_of_Guskou_Budori.html", "https://2danicritic.github.io/ReviewHtml/review_The_Life_of_Guskou_Budori.html")</f>
         <v>https://2danicritic.github.io/ReviewHtml/review_The_Life_of_Guskou_Budori.html</v>
       </c>
-      <c r="V255" s="5" t="str">
-        <f t="shared" si="6"/>
-        <v>Japan</v>
-      </c>
-      <c r="X255" s="5" t="str">
-        <f t="shared" si="7"/>
-        <v>Film</v>
-      </c>
-    </row>
-    <row r="256" spans="2:24" hidden="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="256" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B256" s="8">
         <v>253</v>
       </c>
@@ -25012,16 +22971,8 @@
         <f xml:space="preserve"> HYPERLINK("ReviewHtml/review_The_Melancholy_of_Haruhi_Suzumiya.html", "https://2danicritic.github.io/ReviewHtml/review_The_Melancholy_of_Haruhi_Suzumiya.html")</f>
         <v>https://2danicritic.github.io/ReviewHtml/review_The_Melancholy_of_Haruhi_Suzumiya.html</v>
       </c>
-      <c r="V256" s="5" t="str">
-        <f t="shared" si="6"/>
-        <v>Japan</v>
-      </c>
-      <c r="X256" s="5" t="str">
-        <f t="shared" si="7"/>
-        <v>TV</v>
-      </c>
-    </row>
-    <row r="257" spans="2:24" hidden="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="257" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B257" s="8">
         <v>254</v>
       </c>
@@ -25077,16 +23028,8 @@
         <f xml:space="preserve"> HYPERLINK("ReviewHtml/review_The_Melancholy_of_Haruhi-Chan_Suzumiya.html", "https://2danicritic.github.io/ReviewHtml/review_The_Melancholy_of_Haruhi-Chan_Suzumiya.html")</f>
         <v>https://2danicritic.github.io/ReviewHtml/review_The_Melancholy_of_Haruhi-Chan_Suzumiya.html</v>
       </c>
-      <c r="V257" s="5" t="str">
-        <f t="shared" si="6"/>
-        <v>Japan</v>
-      </c>
-      <c r="X257" s="5" t="str">
-        <f t="shared" si="7"/>
-        <v>ONA</v>
-      </c>
-    </row>
-    <row r="258" spans="2:24" hidden="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="258" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B258" s="8">
         <v>255</v>
       </c>
@@ -25142,16 +23085,8 @@
         <f xml:space="preserve"> HYPERLINK("ReviewHtml/review_The_Mystic_Archives_of_Dantalian.html", "https://2danicritic.github.io/ReviewHtml/review_The_Mystic_Archives_of_Dantalian.html")</f>
         <v>https://2danicritic.github.io/ReviewHtml/review_The_Mystic_Archives_of_Dantalian.html</v>
       </c>
-      <c r="V258" s="5" t="str">
-        <f t="shared" si="6"/>
-        <v>Japan</v>
-      </c>
-      <c r="X258" s="5" t="str">
-        <f t="shared" si="7"/>
-        <v>TV</v>
-      </c>
-    </row>
-    <row r="259" spans="2:24" hidden="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="259" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B259" s="8">
         <v>256</v>
       </c>
@@ -25207,16 +23142,8 @@
         <f xml:space="preserve"> HYPERLINK("ReviewHtml/review_The_Night_Is_Short,_Walk_On_Girl.html", "https://2danicritic.github.io/ReviewHtml/review_The_Night_Is_Short,_Walk_On_Girl.html")</f>
         <v>https://2danicritic.github.io/ReviewHtml/review_The_Night_Is_Short,_Walk_On_Girl.html</v>
       </c>
-      <c r="V259" s="5" t="str">
-        <f t="shared" si="6"/>
-        <v>Japan</v>
-      </c>
-      <c r="X259" s="5" t="str">
-        <f t="shared" si="7"/>
-        <v>Film</v>
-      </c>
-    </row>
-    <row r="260" spans="2:24" hidden="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="260" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B260" s="8">
         <v>257</v>
       </c>
@@ -25272,16 +23199,8 @@
         <f xml:space="preserve"> HYPERLINK("ReviewHtml/review_The_Pet_Girl_of_Sakurasou.html", "https://2danicritic.github.io/ReviewHtml/review_The_Pet_Girl_of_Sakurasou.html")</f>
         <v>https://2danicritic.github.io/ReviewHtml/review_The_Pet_Girl_of_Sakurasou.html</v>
       </c>
-      <c r="V260" s="5" t="str">
-        <f t="shared" ref="V260:V306" si="8">TRIM(CLEAN(SUBSTITUTE(E260,CHAR(160)," ")))</f>
-        <v>Japan</v>
-      </c>
-      <c r="X260" s="5" t="str">
-        <f t="shared" ref="X260:X306" si="9">TRIM(CLEAN(SUBSTITUTE(G260,CHAR(160)," ")))</f>
-        <v>TV</v>
-      </c>
-    </row>
-    <row r="261" spans="2:24" hidden="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="261" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B261" s="8">
         <v>258</v>
       </c>
@@ -25337,54 +23256,46 @@
         <f xml:space="preserve"> HYPERLINK("ReviewHtml/review_The_Place_Promised_in_Our_Early_Days.html", "https://2danicritic.github.io/ReviewHtml/review_The_Place_Promised_in_Our_Early_Days.html")</f>
         <v>https://2danicritic.github.io/ReviewHtml/review_The_Place_Promised_in_Our_Early_Days.html</v>
       </c>
-      <c r="V261" s="5" t="str">
-        <f t="shared" si="8"/>
-        <v>Japan</v>
-      </c>
-      <c r="X261" s="5" t="str">
-        <f t="shared" si="9"/>
-        <v>Film</v>
-      </c>
-    </row>
-    <row r="262" spans="2:24" x14ac:dyDescent="0.35">
+    </row>
+    <row r="262" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B262" s="8">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C262" t="s">
-        <v>844</v>
+        <v>978</v>
       </c>
       <c r="D262" s="8">
-        <v>1998</v>
+        <v>1982</v>
       </c>
       <c r="E262" t="s">
-        <v>1007</v>
+        <v>58</v>
       </c>
       <c r="F262" t="s">
-        <v>845</v>
+        <v>992</v>
       </c>
       <c r="G262" t="s">
         <v>1018</v>
       </c>
       <c r="H262" t="s">
-        <v>281</v>
+        <v>1003</v>
       </c>
       <c r="I262" s="8">
-        <v>4.07</v>
+        <v>3.93</v>
       </c>
       <c r="J262" s="8">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="K262" s="8">
+        <v>3</v>
+      </c>
+      <c r="L262" s="8">
+        <v>3</v>
+      </c>
+      <c r="M262" s="8">
         <v>4.5</v>
       </c>
-      <c r="L262" s="8">
-        <v>4</v>
-      </c>
-      <c r="M262" s="8">
-        <v>4</v>
-      </c>
       <c r="N262" s="8">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="O262" s="8">
         <v>4</v>
@@ -25393,90 +23304,74 @@
         <v>4.5</v>
       </c>
       <c r="Q262" t="s">
+        <v>948</v>
+      </c>
+      <c r="R262" s="8">
+        <v>103</v>
+      </c>
+      <c r="S262" t="str">
+        <f xml:space="preserve"> HYPERLINK("ReviewHtml/review_The_Plague_Dogs.html", "https://2danicritic.github.io/ReviewHtml/review_The_Plague_Dogs.html")</f>
+        <v>https://2danicritic.github.io/ReviewHtml/review_The_Plague_Dogs.html</v>
+      </c>
+    </row>
+    <row r="263" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="B263" s="8">
+        <v>260</v>
+      </c>
+      <c r="C263" t="s">
+        <v>844</v>
+      </c>
+      <c r="D263" s="8">
+        <v>1998</v>
+      </c>
+      <c r="E263" t="s">
+        <v>1007</v>
+      </c>
+      <c r="F263" t="s">
+        <v>845</v>
+      </c>
+      <c r="G263" t="s">
+        <v>1018</v>
+      </c>
+      <c r="H263" t="s">
+        <v>281</v>
+      </c>
+      <c r="I263" s="8">
+        <v>4.07</v>
+      </c>
+      <c r="J263" s="8">
+        <v>4</v>
+      </c>
+      <c r="K263" s="8">
+        <v>4.5</v>
+      </c>
+      <c r="L263" s="8">
+        <v>4</v>
+      </c>
+      <c r="M263" s="8">
+        <v>4</v>
+      </c>
+      <c r="N263" s="8">
+        <v>3.5</v>
+      </c>
+      <c r="O263" s="8">
+        <v>4</v>
+      </c>
+      <c r="P263" s="8">
+        <v>4.5</v>
+      </c>
+      <c r="Q263" t="s">
         <v>282</v>
       </c>
-      <c r="R262" s="8">
+      <c r="R263" s="8">
         <v>98</v>
       </c>
-      <c r="S262" t="str">
+      <c r="S263" t="str">
         <f xml:space="preserve"> HYPERLINK("ReviewHtml/review_The_Prince_of_Egpyt.html", "https://2danicritic.github.io/ReviewHtml/review_The_Prince_of_Egpyt.html")</f>
         <v>https://2danicritic.github.io/ReviewHtml/review_The_Prince_of_Egpyt.html</v>
       </c>
-      <c r="V262" s="5" t="str">
-        <f t="shared" si="8"/>
-        <v>USA</v>
-      </c>
-      <c r="X262" s="5" t="str">
-        <f t="shared" si="9"/>
-        <v>Film</v>
-      </c>
-    </row>
-    <row r="263" spans="2:24" x14ac:dyDescent="0.35">
-      <c r="B263" s="8">
-        <v>19</v>
-      </c>
-      <c r="C263" t="s">
-        <v>955</v>
-      </c>
-      <c r="D263" s="8">
-        <v>1995</v>
-      </c>
-      <c r="E263" t="s">
-        <v>1007</v>
-      </c>
-      <c r="F263" t="s">
-        <v>984</v>
-      </c>
-      <c r="G263" t="s">
-        <v>1018</v>
-      </c>
-      <c r="H263" t="s">
-        <v>996</v>
-      </c>
-      <c r="I263" s="8">
-        <v>3.57</v>
-      </c>
-      <c r="J263" s="8">
-        <v>4</v>
-      </c>
-      <c r="K263" s="8">
-        <v>3.5</v>
-      </c>
-      <c r="L263" s="8">
-        <v>3</v>
-      </c>
-      <c r="M263" s="8">
-        <v>4</v>
-      </c>
-      <c r="N263" s="8">
-        <v>3.5</v>
-      </c>
-      <c r="O263" s="8">
-        <v>3.5</v>
-      </c>
-      <c r="P263" s="8">
-        <v>3.5</v>
-      </c>
-      <c r="Q263" t="s">
-        <v>915</v>
-      </c>
-      <c r="R263" s="8">
-        <v>77</v>
-      </c>
-      <c r="S263" t="str">
-        <f xml:space="preserve"> HYPERLINK("ReviewHtml/review_Balto.html", "https://2danicritic.github.io/ReviewHtml/review_Balto.html")</f>
-        <v>https://2danicritic.github.io/ReviewHtml/review_Balto.html</v>
-      </c>
-      <c r="V263" s="5" t="str">
-        <f t="shared" si="8"/>
-        <v>USA</v>
-      </c>
-      <c r="X263" s="5" t="str">
-        <f t="shared" si="9"/>
-        <v>Film</v>
-      </c>
-    </row>
-    <row r="264" spans="2:24" hidden="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="264" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B264" s="8">
         <v>261</v>
       </c>
@@ -25532,172 +23427,148 @@
         <f xml:space="preserve"> HYPERLINK("ReviewHtml/review_The_Princess_and_the_Pilot.html", "https://2danicritic.github.io/ReviewHtml/review_The_Princess_and_the_Pilot.html")</f>
         <v>https://2danicritic.github.io/ReviewHtml/review_The_Princess_and_the_Pilot.html</v>
       </c>
-      <c r="V264" s="5" t="str">
-        <f t="shared" si="8"/>
-        <v>Japan</v>
-      </c>
-      <c r="X264" s="5" t="str">
-        <f t="shared" si="9"/>
-        <v>Film</v>
-      </c>
-    </row>
-    <row r="265" spans="2:24" x14ac:dyDescent="0.35">
+    </row>
+    <row r="265" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B265" s="8">
-        <v>274</v>
+        <v>262</v>
       </c>
       <c r="C265" t="s">
-        <v>864</v>
+        <v>848</v>
       </c>
       <c r="D265" s="8">
-        <v>1994</v>
+        <v>2011</v>
       </c>
       <c r="E265" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="F265" t="s">
-        <v>767</v>
+        <v>849</v>
       </c>
       <c r="G265" t="s">
         <v>1018</v>
       </c>
       <c r="H265" t="s">
-        <v>295</v>
+        <v>284</v>
       </c>
       <c r="I265" s="8">
-        <v>3.79</v>
+        <v>3.14</v>
       </c>
       <c r="J265" s="8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K265" s="8">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="L265" s="8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M265" s="8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N265" s="8">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="O265" s="8">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="P265" s="8">
         <v>3</v>
       </c>
       <c r="Q265" t="s">
-        <v>296</v>
+        <v>285</v>
       </c>
       <c r="R265" s="8">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="S265" t="str">
-        <f xml:space="preserve"> HYPERLINK("ReviewHtml/review_Thumbelina.html", "https://2danicritic.github.io/ReviewHtml/review_Thumbelina.html")</f>
-        <v>https://2danicritic.github.io/ReviewHtml/review_Thumbelina.html</v>
-      </c>
-      <c r="V265" s="5" t="str">
-        <f t="shared" si="8"/>
-        <v>USA</v>
-      </c>
-      <c r="X265" s="5" t="str">
-        <f t="shared" si="9"/>
-        <v>Film</v>
-      </c>
-    </row>
-    <row r="266" spans="2:24" x14ac:dyDescent="0.35">
+        <f xml:space="preserve"> HYPERLINK("ReviewHtml/review_The_Rabbi's_Cat.html", "https://2danicritic.github.io/ReviewHtml/review_The_Rabbi's_Cat.html")</f>
+        <v>https://2danicritic.github.io/ReviewHtml/review_The_Rabbi's_Cat.html</v>
+      </c>
+    </row>
+    <row r="266" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B266" s="8">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="C266" t="s">
-        <v>857</v>
+        <v>850</v>
       </c>
       <c r="D266" s="8">
-        <v>1993</v>
+        <v>2016</v>
       </c>
       <c r="E266" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="F266" t="s">
-        <v>291</v>
+        <v>851</v>
       </c>
       <c r="G266" t="s">
         <v>1018</v>
       </c>
       <c r="H266" t="s">
-        <v>858</v>
+        <v>286</v>
       </c>
       <c r="I266" s="8">
-        <v>4</v>
+        <v>3.71</v>
       </c>
       <c r="J266" s="8">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K266" s="8">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L266" s="8">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M266" s="8">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="N266" s="8">
-        <v>2.5</v>
+        <v>4</v>
       </c>
       <c r="O266" s="8">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P266" s="8">
         <v>5</v>
       </c>
       <c r="Q266" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="R266" s="8">
         <v>80</v>
       </c>
       <c r="S266" t="str">
-        <f xml:space="preserve"> HYPERLINK("ReviewHtml/review_The_Thief_and_the_Cobbler.html", "https://2danicritic.github.io/ReviewHtml/review_The_Thief_and_the_Cobbler.html")</f>
-        <v>https://2danicritic.github.io/ReviewHtml/review_The_Thief_and_the_Cobbler.html</v>
-      </c>
-      <c r="V266" s="5" t="str">
-        <f t="shared" si="8"/>
-        <v>USA</v>
-      </c>
-      <c r="X266" s="5" t="str">
-        <f t="shared" si="9"/>
-        <v>Film</v>
-      </c>
-    </row>
-    <row r="267" spans="2:24" x14ac:dyDescent="0.35">
+        <f xml:space="preserve"> HYPERLINK("ReviewHtml/review_The_Red_Turtle.html", "https://2danicritic.github.io/ReviewHtml/review_The_Red_Turtle.html")</f>
+        <v>https://2danicritic.github.io/ReviewHtml/review_The_Red_Turtle.html</v>
+      </c>
+    </row>
+    <row r="267" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B267" s="8">
-        <v>11</v>
+        <v>264</v>
       </c>
       <c r="C267" t="s">
-        <v>954</v>
+        <v>979</v>
       </c>
       <c r="D267" s="8">
-        <v>1991</v>
+        <v>2000</v>
       </c>
       <c r="E267" t="s">
         <v>1007</v>
       </c>
       <c r="F267" t="s">
-        <v>984</v>
+        <v>993</v>
       </c>
       <c r="G267" t="s">
         <v>1018</v>
       </c>
       <c r="H267" t="s">
-        <v>914</v>
+        <v>949</v>
       </c>
       <c r="I267" s="8">
-        <v>3.29</v>
+        <v>3.71</v>
       </c>
       <c r="J267" s="8">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="K267" s="8">
         <v>4</v>
@@ -25709,113 +23580,97 @@
         <v>4</v>
       </c>
       <c r="N267" s="8">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="O267" s="8">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="P267" s="8">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="Q267" t="s">
-        <v>261</v>
+        <v>186</v>
       </c>
       <c r="R267" s="8">
-        <v>74</v>
+        <v>90</v>
       </c>
       <c r="S267" t="str">
-        <f xml:space="preserve"> HYPERLINK("ReviewHtml/review_An_American_Tail_-_Fievel_Goes_West.html", "https://2danicritic.github.io/ReviewHtml/review_An_American_Tail_-_Fievel_Goes_West.html")</f>
-        <v>https://2danicritic.github.io/ReviewHtml/review_An_American_Tail_-_Fievel_Goes_West.html</v>
-      </c>
-      <c r="V267" s="5" t="str">
-        <f t="shared" si="8"/>
-        <v>USA</v>
-      </c>
-      <c r="X267" s="5" t="str">
-        <f t="shared" si="9"/>
-        <v>Film</v>
-      </c>
-    </row>
-    <row r="268" spans="2:24" x14ac:dyDescent="0.35">
+        <f xml:space="preserve"> HYPERLINK("ReviewHtml/review_The_Road_to_El_Dorado.html", "https://2danicritic.github.io/ReviewHtml/review_The_Road_to_El_Dorado.html")</f>
+        <v>https://2danicritic.github.io/ReviewHtml/review_The_Road_to_El_Dorado.html</v>
+      </c>
+    </row>
+    <row r="268" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B268" s="8">
-        <v>209</v>
+        <v>265</v>
       </c>
       <c r="C268" t="s">
-        <v>766</v>
+        <v>852</v>
       </c>
       <c r="D268" s="8">
-        <v>1991</v>
+        <v>2009</v>
       </c>
       <c r="E268" t="s">
-        <v>1007</v>
+        <v>1015</v>
       </c>
       <c r="F268" t="s">
-        <v>767</v>
+        <v>784</v>
       </c>
       <c r="G268" t="s">
         <v>1018</v>
       </c>
       <c r="H268" t="s">
-        <v>768</v>
+        <v>353</v>
       </c>
       <c r="I268" s="8">
-        <v>3.14</v>
+        <v>3.79</v>
       </c>
       <c r="J268" s="8">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="K268" s="8">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="L268" s="8">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="M268" s="8">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="N268" s="8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O268" s="8">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="P268" s="8">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="Q268" t="s">
-        <v>242</v>
+        <v>349</v>
       </c>
       <c r="R268" s="8">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="S268" t="str">
-        <f xml:space="preserve"> HYPERLINK("ReviewHtml/review_Rock-a-Doodle.html", "https://2danicritic.github.io/ReviewHtml/review_Rock-a-Doodle.html")</f>
-        <v>https://2danicritic.github.io/ReviewHtml/review_Rock-a-Doodle.html</v>
-      </c>
-      <c r="V268" s="5" t="str">
-        <f t="shared" si="8"/>
-        <v>USA</v>
-      </c>
-      <c r="X268" s="5" t="str">
-        <f t="shared" si="9"/>
-        <v>Film</v>
-      </c>
-    </row>
-    <row r="269" spans="2:24" x14ac:dyDescent="0.35">
+        <f xml:space="preserve"> HYPERLINK("ReviewHtml/review_The_Secret_of_Kells.html", "https://2danicritic.github.io/ReviewHtml/review_The_Secret_of_Kells.html")</f>
+        <v>https://2danicritic.github.io/ReviewHtml/review_The_Secret_of_Kells.html</v>
+      </c>
+    </row>
+    <row r="269" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B269" s="8">
-        <v>10</v>
+        <v>266</v>
       </c>
       <c r="C269" t="s">
-        <v>953</v>
+        <v>853</v>
       </c>
       <c r="D269" s="8">
-        <v>1986</v>
+        <v>1982</v>
       </c>
       <c r="E269" t="s">
         <v>1007</v>
       </c>
       <c r="F269" t="s">
-        <v>983</v>
+        <v>767</v>
       </c>
       <c r="G269" t="s">
         <v>1018</v>
@@ -25824,49 +23679,41 @@
         <v>768</v>
       </c>
       <c r="I269" s="8">
-        <v>3.21</v>
+        <v>4.3600000000000003</v>
       </c>
       <c r="J269" s="8">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="K269" s="8">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="L269" s="8">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="M269" s="8">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="N269" s="8">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="O269" s="8">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="P269" s="8">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q269" t="s">
-        <v>298</v>
+        <v>288</v>
       </c>
       <c r="R269" s="8">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="S269" t="str">
-        <f xml:space="preserve"> HYPERLINK("ReviewHtml/review_An_American_Tail.html", "https://2danicritic.github.io/ReviewHtml/review_An_American_Tail.html")</f>
-        <v>https://2danicritic.github.io/ReviewHtml/review_An_American_Tail.html</v>
-      </c>
-      <c r="V269" s="5" t="str">
-        <f t="shared" si="8"/>
-        <v>USA</v>
-      </c>
-      <c r="X269" s="5" t="str">
-        <f t="shared" si="9"/>
-        <v>Film</v>
-      </c>
-    </row>
-    <row r="270" spans="2:24" hidden="1" x14ac:dyDescent="0.35">
+        <f xml:space="preserve"> HYPERLINK("ReviewHtml/review_The_Secret_of_Nimh.html", "https://2danicritic.github.io/ReviewHtml/review_The_Secret_of_Nimh.html")</f>
+        <v>https://2danicritic.github.io/ReviewHtml/review_The_Secret_of_Nimh.html</v>
+      </c>
+    </row>
+    <row r="270" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B270" s="8">
         <v>267</v>
       </c>
@@ -25922,16 +23769,8 @@
         <f xml:space="preserve"> HYPERLINK("ReviewHtml/review_The_Secret_World_of_Arrietty.html", "https://2danicritic.github.io/ReviewHtml/review_The_Secret_World_of_Arrietty.html")</f>
         <v>https://2danicritic.github.io/ReviewHtml/review_The_Secret_World_of_Arrietty.html</v>
       </c>
-      <c r="V270" s="5" t="str">
-        <f t="shared" si="8"/>
-        <v>Japan</v>
-      </c>
-      <c r="X270" s="5" t="str">
-        <f t="shared" si="9"/>
-        <v>Film</v>
-      </c>
-    </row>
-    <row r="271" spans="2:24" hidden="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="271" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B271" s="8">
         <v>268</v>
       </c>
@@ -25987,16 +23826,8 @@
         <f xml:space="preserve"> HYPERLINK("ReviewHtml/review_The_Sky_Crawlers.html", "https://2danicritic.github.io/ReviewHtml/review_The_Sky_Crawlers.html")</f>
         <v>https://2danicritic.github.io/ReviewHtml/review_The_Sky_Crawlers.html</v>
       </c>
-      <c r="V271" s="5" t="str">
-        <f t="shared" si="8"/>
-        <v>Japan</v>
-      </c>
-      <c r="X271" s="5" t="str">
-        <f t="shared" si="9"/>
-        <v>Film</v>
-      </c>
-    </row>
-    <row r="272" spans="2:24" hidden="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="272" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B272" s="8">
         <v>269</v>
       </c>
@@ -26052,146 +23883,122 @@
         <f xml:space="preserve"> HYPERLINK("ReviewHtml/review_The_Tale_of_Princess_Kaguya.html", "https://2danicritic.github.io/ReviewHtml/review_The_Tale_of_Princess_Kaguya.html")</f>
         <v>https://2danicritic.github.io/ReviewHtml/review_The_Tale_of_Princess_Kaguya.html</v>
       </c>
-      <c r="V272" s="5" t="str">
-        <f t="shared" si="8"/>
-        <v>Japan</v>
-      </c>
-      <c r="X272" s="5" t="str">
-        <f t="shared" si="9"/>
-        <v>Film</v>
-      </c>
-    </row>
-    <row r="273" spans="2:24" x14ac:dyDescent="0.35">
+    </row>
+    <row r="273" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B273" s="8">
-        <v>294</v>
+        <v>270</v>
       </c>
       <c r="C273" t="s">
-        <v>892</v>
+        <v>857</v>
       </c>
       <c r="D273" s="8">
-        <v>1986</v>
+        <v>1993</v>
       </c>
       <c r="E273" t="s">
-        <v>58</v>
+        <v>1007</v>
       </c>
       <c r="F273" t="s">
-        <v>893</v>
+        <v>291</v>
       </c>
       <c r="G273" t="s">
         <v>1018</v>
       </c>
       <c r="H273" t="s">
-        <v>894</v>
+        <v>858</v>
       </c>
       <c r="I273" s="8">
-        <v>3.79</v>
+        <v>4</v>
       </c>
       <c r="J273" s="8">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K273" s="8">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L273" s="8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M273" s="8">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="N273" s="8">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="O273" s="8">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P273" s="8">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q273" t="s">
-        <v>308</v>
+        <v>292</v>
       </c>
       <c r="R273" s="8">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="S273" t="str">
-        <f xml:space="preserve"> HYPERLINK("ReviewHtml/review_When_The_Wind_Blows.html", "https://2danicritic.github.io/ReviewHtml/review_When_The_Wind_Blows.html")</f>
-        <v>https://2danicritic.github.io/ReviewHtml/review_When_The_Wind_Blows.html</v>
-      </c>
-      <c r="V273" s="5" t="str">
-        <f t="shared" si="8"/>
-        <v>United Kingdom</v>
-      </c>
-      <c r="X273" s="5" t="str">
-        <f t="shared" si="9"/>
-        <v>Film</v>
-      </c>
-    </row>
-    <row r="274" spans="2:24" x14ac:dyDescent="0.35">
+        <f xml:space="preserve"> HYPERLINK("ReviewHtml/review_The_Thief_and_the_Cobbler.html", "https://2danicritic.github.io/ReviewHtml/review_The_Thief_and_the_Cobbler.html")</f>
+        <v>https://2danicritic.github.io/ReviewHtml/review_The_Thief_and_the_Cobbler.html</v>
+      </c>
+    </row>
+    <row r="274" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B274" s="8">
-        <v>81</v>
+        <v>271</v>
       </c>
       <c r="C274" t="s">
-        <v>961</v>
+        <v>859</v>
       </c>
       <c r="D274" s="8">
-        <v>1983</v>
+        <v>2003</v>
       </c>
       <c r="E274" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="F274" t="s">
-        <v>986</v>
+        <v>860</v>
       </c>
       <c r="G274" t="s">
         <v>1018</v>
       </c>
       <c r="H274" t="s">
-        <v>902</v>
+        <v>829</v>
       </c>
       <c r="I274" s="8">
-        <v>2.93</v>
+        <v>3.93</v>
       </c>
       <c r="J274" s="8">
+        <v>4.5</v>
+      </c>
+      <c r="K274" s="8">
+        <v>5</v>
+      </c>
+      <c r="L274" s="8">
+        <v>4.5</v>
+      </c>
+      <c r="M274" s="8">
+        <v>3</v>
+      </c>
+      <c r="N274" s="8">
+        <v>3.5</v>
+      </c>
+      <c r="O274" s="8">
         <v>2.5</v>
       </c>
-      <c r="K274" s="8">
-        <v>2.5</v>
-      </c>
-      <c r="L274" s="8">
-        <v>3</v>
-      </c>
-      <c r="M274" s="8">
-        <v>2.5</v>
-      </c>
-      <c r="N274" s="8">
-        <v>3</v>
-      </c>
-      <c r="O274" s="8">
-        <v>3.5</v>
-      </c>
       <c r="P274" s="8">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="Q274" t="s">
-        <v>923</v>
+        <v>354</v>
       </c>
       <c r="R274" s="8">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="S274" t="str">
-        <f xml:space="preserve"> HYPERLINK("ReviewHtml/review_Fire_and_Ice.html", "https://2danicritic.github.io/ReviewHtml/review_Fire_and_Ice.html")</f>
-        <v>https://2danicritic.github.io/ReviewHtml/review_Fire_and_Ice.html</v>
-      </c>
-      <c r="V274" s="5" t="str">
-        <f t="shared" si="8"/>
-        <v>USA</v>
-      </c>
-      <c r="X274" s="5" t="str">
-        <f t="shared" si="9"/>
-        <v>Film</v>
-      </c>
-    </row>
-    <row r="275" spans="2:24" hidden="1" x14ac:dyDescent="0.35">
+        <f xml:space="preserve"> HYPERLINK("ReviewHtml/review_The_Triplets_of_Belleville.html", "https://2danicritic.github.io/ReviewHtml/review_The_Triplets_of_Belleville.html")</f>
+        <v>https://2danicritic.github.io/ReviewHtml/review_The_Triplets_of_Belleville.html</v>
+      </c>
+    </row>
+    <row r="275" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B275" s="8">
         <v>272</v>
       </c>
@@ -26247,16 +24054,8 @@
         <f xml:space="preserve"> HYPERLINK("ReviewHtml/review_The_Wind_Rises.html", "https://2danicritic.github.io/ReviewHtml/review_The_Wind_Rises.html")</f>
         <v>https://2danicritic.github.io/ReviewHtml/review_The_Wind_Rises.html</v>
       </c>
-      <c r="V275" s="5" t="str">
-        <f t="shared" si="8"/>
-        <v>Japan</v>
-      </c>
-      <c r="X275" s="5" t="str">
-        <f t="shared" si="9"/>
-        <v>Film</v>
-      </c>
-    </row>
-    <row r="276" spans="2:24" hidden="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="276" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B276" s="8">
         <v>273</v>
       </c>
@@ -26312,81 +24111,65 @@
         <f xml:space="preserve"> HYPERLINK("ReviewHtml/review_This_Boy_Can_Fight_Aliens.html", "https://2danicritic.github.io/ReviewHtml/review_This_Boy_Can_Fight_Aliens.html")</f>
         <v>https://2danicritic.github.io/ReviewHtml/review_This_Boy_Can_Fight_Aliens.html</v>
       </c>
-      <c r="V276" s="5" t="str">
-        <f t="shared" si="8"/>
-        <v>Japan</v>
-      </c>
-      <c r="X276" s="5" t="str">
-        <f t="shared" si="9"/>
-        <v>OVA</v>
-      </c>
-    </row>
-    <row r="277" spans="2:24" x14ac:dyDescent="0.35">
+    </row>
+    <row r="277" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B277" s="8">
-        <v>208</v>
+        <v>274</v>
       </c>
       <c r="C277" t="s">
-        <v>763</v>
+        <v>864</v>
       </c>
       <c r="D277" s="8">
-        <v>1983</v>
+        <v>1994</v>
       </c>
       <c r="E277" t="s">
-        <v>1013</v>
+        <v>1007</v>
       </c>
       <c r="F277" t="s">
-        <v>764</v>
+        <v>767</v>
       </c>
       <c r="G277" t="s">
         <v>1018</v>
       </c>
       <c r="H277" t="s">
-        <v>765</v>
+        <v>295</v>
       </c>
       <c r="I277" s="8">
-        <v>2.86</v>
+        <v>3.79</v>
       </c>
       <c r="J277" s="8">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="K277" s="8">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="L277" s="8">
-        <v>2.5</v>
+        <v>4</v>
       </c>
       <c r="M277" s="8">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="N277" s="8">
-        <v>2</v>
+        <v>3.5</v>
       </c>
       <c r="O277" s="8">
-        <v>2.5</v>
+        <v>4</v>
       </c>
       <c r="P277" s="8">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="Q277" t="s">
-        <v>137</v>
+        <v>296</v>
       </c>
       <c r="R277" s="8">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="S277" t="str">
-        <f xml:space="preserve"> HYPERLINK("ReviewHtml/review_Rock_and_Rule.html", "https://2danicritic.github.io/ReviewHtml/review_Rock_and_Rule.html")</f>
-        <v>https://2danicritic.github.io/ReviewHtml/review_Rock_and_Rule.html</v>
-      </c>
-      <c r="V277" s="5" t="str">
-        <f t="shared" si="8"/>
-        <v>Canada</v>
-      </c>
-      <c r="X277" s="5" t="str">
-        <f t="shared" si="9"/>
-        <v>Film</v>
-      </c>
-    </row>
-    <row r="278" spans="2:24" hidden="1" x14ac:dyDescent="0.35">
+        <f xml:space="preserve"> HYPERLINK("ReviewHtml/review_Thumbelina.html", "https://2danicritic.github.io/ReviewHtml/review_Thumbelina.html")</f>
+        <v>https://2danicritic.github.io/ReviewHtml/review_Thumbelina.html</v>
+      </c>
+    </row>
+    <row r="278" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B278" s="8">
         <v>275</v>
       </c>
@@ -26442,81 +24225,65 @@
         <f xml:space="preserve"> HYPERLINK("ReviewHtml/review_Time_of_Eve.html", "https://2danicritic.github.io/ReviewHtml/review_Time_of_Eve.html")</f>
         <v>https://2danicritic.github.io/ReviewHtml/review_Time_of_Eve.html</v>
       </c>
-      <c r="V278" s="5" t="str">
-        <f t="shared" si="8"/>
-        <v>Japan</v>
-      </c>
-      <c r="X278" s="5" t="str">
-        <f t="shared" si="9"/>
-        <v>Film</v>
-      </c>
-    </row>
-    <row r="279" spans="2:24" x14ac:dyDescent="0.35">
+    </row>
+    <row r="279" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B279" s="8">
-        <v>243</v>
+        <v>276</v>
       </c>
       <c r="C279" t="s">
-        <v>817</v>
+        <v>980</v>
       </c>
       <c r="D279" s="8">
-        <v>1982</v>
+        <v>2018</v>
       </c>
       <c r="E279" t="s">
-        <v>1007</v>
+        <v>1011</v>
       </c>
       <c r="F279" t="s">
-        <v>818</v>
+        <v>994</v>
       </c>
       <c r="G279" t="s">
         <v>1018</v>
       </c>
       <c r="H279" t="s">
-        <v>269</v>
+        <v>950</v>
       </c>
       <c r="I279" s="8">
-        <v>3.21</v>
+        <v>3.43</v>
       </c>
       <c r="J279" s="8">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="K279" s="8">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="L279" s="8">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="M279" s="8">
         <v>3.5</v>
       </c>
       <c r="N279" s="8">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="O279" s="8">
         <v>3.5</v>
       </c>
       <c r="P279" s="8">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="Q279" t="s">
-        <v>197</v>
+        <v>951</v>
       </c>
       <c r="R279" s="8">
-        <v>95</v>
+        <v>73</v>
       </c>
       <c r="S279" t="str">
-        <f xml:space="preserve"> HYPERLINK("ReviewHtml/review_The_Flight_of_Dragons.html", "https://2danicritic.github.io/ReviewHtml/review_The_Flight_of_Dragons.html")</f>
-        <v>https://2danicritic.github.io/ReviewHtml/review_The_Flight_of_Dragons.html</v>
-      </c>
-      <c r="V279" s="5" t="str">
-        <f t="shared" si="8"/>
-        <v>USA</v>
-      </c>
-      <c r="X279" s="5" t="str">
-        <f t="shared" si="9"/>
-        <v>Film</v>
-      </c>
-    </row>
-    <row r="280" spans="2:24" hidden="1" x14ac:dyDescent="0.35">
+        <f xml:space="preserve"> HYPERLINK("ReviewHtml/review_Tito_and_the_Birds.html", "https://2danicritic.github.io/ReviewHtml/review_Tito_and_the_Birds.html")</f>
+        <v>https://2danicritic.github.io/ReviewHtml/review_Tito_and_the_Birds.html</v>
+      </c>
+    </row>
+    <row r="280" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B280" s="8">
         <v>277</v>
       </c>
@@ -26572,16 +24339,8 @@
         <f xml:space="preserve"> HYPERLINK("ReviewHtml/review_Tokyo_Godfathers.html", "https://2danicritic.github.io/ReviewHtml/review_Tokyo_Godfathers.html")</f>
         <v>https://2danicritic.github.io/ReviewHtml/review_Tokyo_Godfathers.html</v>
       </c>
-      <c r="V280" s="5" t="str">
-        <f t="shared" si="8"/>
-        <v>Japan</v>
-      </c>
-      <c r="X280" s="5" t="str">
-        <f t="shared" si="9"/>
-        <v>Film</v>
-      </c>
-    </row>
-    <row r="281" spans="2:24" hidden="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="281" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B281" s="8">
         <v>278</v>
       </c>
@@ -26637,16 +24396,8 @@
         <f xml:space="preserve"> HYPERLINK("ReviewHtml/review_Tomorrow's_Joe.html", "https://2danicritic.github.io/ReviewHtml/review_Tomorrow's_Joe.html")</f>
         <v>https://2danicritic.github.io/ReviewHtml/review_Tomorrow's_Joe.html</v>
       </c>
-      <c r="V281" s="5" t="str">
-        <f t="shared" si="8"/>
-        <v>Japan</v>
-      </c>
-      <c r="X281" s="5" t="str">
-        <f t="shared" si="9"/>
-        <v>Film</v>
-      </c>
-    </row>
-    <row r="282" spans="2:24" hidden="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="282" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B282" s="8">
         <v>279</v>
       </c>
@@ -26702,16 +24453,8 @@
         <f xml:space="preserve"> HYPERLINK("ReviewHtml/review_Tonari_No_Seki-Kun_-_The_Master_of_Killing_Time.html", "https://2danicritic.github.io/ReviewHtml/review_Tonari_No_Seki-Kun_-_The_Master_of_Killing_Time.html")</f>
         <v>https://2danicritic.github.io/ReviewHtml/review_Tonari_No_Seki-Kun_-_The_Master_of_Killing_Time.html</v>
       </c>
-      <c r="V282" s="5" t="str">
-        <f t="shared" si="8"/>
-        <v>Japan</v>
-      </c>
-      <c r="X282" s="5" t="str">
-        <f t="shared" si="9"/>
-        <v>TV</v>
-      </c>
-    </row>
-    <row r="283" spans="2:24" hidden="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="283" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B283" s="8">
         <v>280</v>
       </c>
@@ -26767,16 +24510,8 @@
         <f xml:space="preserve"> HYPERLINK("ReviewHtml/review_Toradora.html", "https://2danicritic.github.io/ReviewHtml/review_Toradora.html")</f>
         <v>https://2danicritic.github.io/ReviewHtml/review_Toradora.html</v>
       </c>
-      <c r="V283" s="5" t="str">
-        <f t="shared" si="8"/>
-        <v>Japan</v>
-      </c>
-      <c r="X283" s="5" t="str">
-        <f t="shared" si="9"/>
-        <v>TV</v>
-      </c>
-    </row>
-    <row r="284" spans="2:24" hidden="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="284" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B284" s="8">
         <v>281</v>
       </c>
@@ -26832,16 +24567,8 @@
         <f xml:space="preserve"> HYPERLINK("ReviewHtml/review_Towanoquon.html", "https://2danicritic.github.io/ReviewHtml/review_Towanoquon.html")</f>
         <v>https://2danicritic.github.io/ReviewHtml/review_Towanoquon.html</v>
       </c>
-      <c r="V284" s="5" t="str">
-        <f t="shared" si="8"/>
-        <v>Japan</v>
-      </c>
-      <c r="X284" s="5" t="str">
-        <f t="shared" si="9"/>
-        <v>Film</v>
-      </c>
-    </row>
-    <row r="285" spans="2:24" hidden="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="285" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B285" s="8">
         <v>282</v>
       </c>
@@ -26897,16 +24624,8 @@
         <f xml:space="preserve"> HYPERLINK("ReviewHtml/review_Trigun.html", "https://2danicritic.github.io/ReviewHtml/review_Trigun.html")</f>
         <v>https://2danicritic.github.io/ReviewHtml/review_Trigun.html</v>
       </c>
-      <c r="V285" s="5" t="str">
-        <f t="shared" si="8"/>
-        <v>Japan</v>
-      </c>
-      <c r="X285" s="5" t="str">
-        <f t="shared" si="9"/>
-        <v>TV</v>
-      </c>
-    </row>
-    <row r="286" spans="2:24" hidden="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="286" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B286" s="8">
         <v>283</v>
       </c>
@@ -26962,16 +24681,8 @@
         <f xml:space="preserve"> HYPERLINK("ReviewHtml/review_Trigun_-_Badlands_Rumble.html", "https://2danicritic.github.io/ReviewHtml/review_Trigun_-_Badlands_Rumble.html")</f>
         <v>https://2danicritic.github.io/ReviewHtml/review_Trigun_-_Badlands_Rumble.html</v>
       </c>
-      <c r="V286" s="5" t="str">
-        <f t="shared" si="8"/>
-        <v>Japan</v>
-      </c>
-      <c r="X286" s="5" t="str">
-        <f t="shared" si="9"/>
-        <v>Film</v>
-      </c>
-    </row>
-    <row r="287" spans="2:24" hidden="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="287" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B287" s="8">
         <v>284</v>
       </c>
@@ -27027,16 +24738,8 @@
         <f xml:space="preserve"> HYPERLINK("ReviewHtml/review_Trinity_Seven.html", "https://2danicritic.github.io/ReviewHtml/review_Trinity_Seven.html")</f>
         <v>https://2danicritic.github.io/ReviewHtml/review_Trinity_Seven.html</v>
       </c>
-      <c r="V287" s="5" t="str">
-        <f t="shared" si="8"/>
-        <v>Japan</v>
-      </c>
-      <c r="X287" s="5" t="str">
-        <f t="shared" si="9"/>
-        <v>TV</v>
-      </c>
-    </row>
-    <row r="288" spans="2:24" hidden="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="288" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B288" s="8">
         <v>285</v>
       </c>
@@ -27092,16 +24795,8 @@
         <f xml:space="preserve"> HYPERLINK("ReviewHtml/review_Typhoon_Noruda.html", "https://2danicritic.github.io/ReviewHtml/review_Typhoon_Noruda.html")</f>
         <v>https://2danicritic.github.io/ReviewHtml/review_Typhoon_Noruda.html</v>
       </c>
-      <c r="V288" s="5" t="str">
-        <f t="shared" si="8"/>
-        <v>Japan</v>
-      </c>
-      <c r="X288" s="5" t="str">
-        <f t="shared" si="9"/>
-        <v>OVA</v>
-      </c>
-    </row>
-    <row r="289" spans="2:24" hidden="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="289" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B289" s="8">
         <v>286</v>
       </c>
@@ -27157,16 +24852,8 @@
         <f xml:space="preserve"> HYPERLINK("ReviewHtml/review_Unico_in_the_Island_of_Magic.html", "https://2danicritic.github.io/ReviewHtml/review_Unico_in_the_Island_of_Magic.html")</f>
         <v>https://2danicritic.github.io/ReviewHtml/review_Unico_in_the_Island_of_Magic.html</v>
       </c>
-      <c r="V289" s="5" t="str">
-        <f t="shared" si="8"/>
-        <v>Japan</v>
-      </c>
-      <c r="X289" s="5" t="str">
-        <f t="shared" si="9"/>
-        <v>Film</v>
-      </c>
-    </row>
-    <row r="290" spans="2:24" hidden="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="290" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B290" s="8">
         <v>287</v>
       </c>
@@ -27222,16 +24909,8 @@
         <f xml:space="preserve"> HYPERLINK("ReviewHtml/review_Urusei_Yatsura_-_Beautiful_Dreamer.html", "https://2danicritic.github.io/ReviewHtml/review_Urusei_Yatsura_-_Beautiful_Dreamer.html")</f>
         <v>https://2danicritic.github.io/ReviewHtml/review_Urusei_Yatsura_-_Beautiful_Dreamer.html</v>
       </c>
-      <c r="V290" s="5" t="str">
-        <f t="shared" si="8"/>
-        <v>Japan</v>
-      </c>
-      <c r="X290" s="5" t="str">
-        <f t="shared" si="9"/>
-        <v>Film</v>
-      </c>
-    </row>
-    <row r="291" spans="2:24" hidden="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="291" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B291" s="8">
         <v>288</v>
       </c>
@@ -27287,16 +24966,8 @@
         <f xml:space="preserve"> HYPERLINK("ReviewHtml/review_Vampire_Hunter_D.html", "https://2danicritic.github.io/ReviewHtml/review_Vampire_Hunter_D.html")</f>
         <v>https://2danicritic.github.io/ReviewHtml/review_Vampire_Hunter_D.html</v>
       </c>
-      <c r="V291" s="5" t="str">
-        <f t="shared" si="8"/>
-        <v>Japan</v>
-      </c>
-      <c r="X291" s="5" t="str">
-        <f t="shared" si="9"/>
-        <v>Film</v>
-      </c>
-    </row>
-    <row r="292" spans="2:24" hidden="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="292" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B292" s="8">
         <v>289</v>
       </c>
@@ -27352,16 +25023,8 @@
         <f xml:space="preserve"> HYPERLINK("ReviewHtml/review_Vampire_Hunter_D_-_Bloodlust.html", "https://2danicritic.github.io/ReviewHtml/review_Vampire_Hunter_D_-_Bloodlust.html")</f>
         <v>https://2danicritic.github.io/ReviewHtml/review_Vampire_Hunter_D_-_Bloodlust.html</v>
       </c>
-      <c r="V292" s="5" t="str">
-        <f t="shared" si="8"/>
-        <v>Japan</v>
-      </c>
-      <c r="X292" s="5" t="str">
-        <f t="shared" si="9"/>
-        <v>Film</v>
-      </c>
-    </row>
-    <row r="293" spans="2:24" hidden="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="293" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B293" s="8">
         <v>290</v>
       </c>
@@ -27417,81 +25080,65 @@
         <f xml:space="preserve"> HYPERLINK("ReviewHtml/review_Voices_of_a_Distant_Star.html", "https://2danicritic.github.io/ReviewHtml/review_Voices_of_a_Distant_Star.html")</f>
         <v>https://2danicritic.github.io/ReviewHtml/review_Voices_of_a_Distant_Star.html</v>
       </c>
-      <c r="V293" s="5" t="str">
-        <f t="shared" si="8"/>
-        <v>Japan</v>
-      </c>
-      <c r="X293" s="5" t="str">
-        <f t="shared" si="9"/>
-        <v>OVA</v>
-      </c>
-    </row>
-    <row r="294" spans="2:24" x14ac:dyDescent="0.35">
+    </row>
+    <row r="294" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B294" s="8">
-        <v>250</v>
+        <v>291</v>
       </c>
       <c r="C294" t="s">
-        <v>830</v>
+        <v>982</v>
       </c>
       <c r="D294" s="8">
-        <v>1982</v>
+        <v>1978</v>
       </c>
       <c r="E294" t="s">
-        <v>1007</v>
+        <v>58</v>
       </c>
       <c r="F294" t="s">
-        <v>831</v>
+        <v>992</v>
       </c>
       <c r="G294" t="s">
         <v>1018</v>
       </c>
       <c r="H294" t="s">
-        <v>275</v>
+        <v>1003</v>
       </c>
       <c r="I294" s="8">
-        <v>3.64</v>
+        <v>4.21</v>
       </c>
       <c r="J294" s="8">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="K294" s="8">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="L294" s="8">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="M294" s="8">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="N294" s="8">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="O294" s="8">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P294" s="8">
         <v>5</v>
       </c>
       <c r="Q294" t="s">
-        <v>82</v>
+        <v>952</v>
       </c>
       <c r="R294" s="8">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="S294" t="str">
-        <f xml:space="preserve"> HYPERLINK("ReviewHtml/review_The_Last_Unicorn.html", "https://2danicritic.github.io/ReviewHtml/review_The_Last_Unicorn.html")</f>
-        <v>https://2danicritic.github.io/ReviewHtml/review_The_Last_Unicorn.html</v>
-      </c>
-      <c r="V294" s="5" t="str">
-        <f t="shared" si="8"/>
-        <v>USA</v>
-      </c>
-      <c r="X294" s="5" t="str">
-        <f t="shared" si="9"/>
-        <v>Film</v>
-      </c>
-    </row>
-    <row r="295" spans="2:24" hidden="1" x14ac:dyDescent="0.35">
+        <f xml:space="preserve"> HYPERLINK("ReviewHtml/review_Watership_Down.html", "https://2danicritic.github.io/ReviewHtml/review_Watership_Down.html")</f>
+        <v>https://2danicritic.github.io/ReviewHtml/review_Watership_Down.html</v>
+      </c>
+    </row>
+    <row r="295" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B295" s="8">
         <v>292</v>
       </c>
@@ -27547,16 +25194,8 @@
         <f xml:space="preserve"> HYPERLINK("ReviewHtml/review_Welcome_to_the_N.H.K..html", "https://2danicritic.github.io/ReviewHtml/review_Welcome_to_the_N.H.K..html")</f>
         <v>https://2danicritic.github.io/ReviewHtml/review_Welcome_to_the_N.H.K..html</v>
       </c>
-      <c r="V295" s="5" t="str">
-        <f t="shared" si="8"/>
-        <v>Japan</v>
-      </c>
-      <c r="X295" s="5" t="str">
-        <f t="shared" si="9"/>
-        <v>TV</v>
-      </c>
-    </row>
-    <row r="296" spans="2:24" hidden="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="296" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B296" s="8">
         <v>293</v>
       </c>
@@ -27612,81 +25251,65 @@
         <f xml:space="preserve"> HYPERLINK("ReviewHtml/review_When_Marnie_Was_There.html", "https://2danicritic.github.io/ReviewHtml/review_When_Marnie_Was_There.html")</f>
         <v>https://2danicritic.github.io/ReviewHtml/review_When_Marnie_Was_There.html</v>
       </c>
-      <c r="V296" s="5" t="str">
-        <f t="shared" si="8"/>
-        <v>Japan</v>
-      </c>
-      <c r="X296" s="5" t="str">
-        <f t="shared" si="9"/>
-        <v>Film</v>
-      </c>
-    </row>
-    <row r="297" spans="2:24" x14ac:dyDescent="0.35">
+    </row>
+    <row r="297" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B297" s="8">
-        <v>259</v>
+        <v>294</v>
       </c>
       <c r="C297" t="s">
-        <v>978</v>
+        <v>892</v>
       </c>
       <c r="D297" s="8">
-        <v>1982</v>
+        <v>1986</v>
       </c>
       <c r="E297" t="s">
         <v>58</v>
       </c>
       <c r="F297" t="s">
-        <v>992</v>
+        <v>893</v>
       </c>
       <c r="G297" t="s">
         <v>1018</v>
       </c>
       <c r="H297" t="s">
-        <v>1003</v>
+        <v>894</v>
       </c>
       <c r="I297" s="8">
-        <v>3.93</v>
+        <v>3.79</v>
       </c>
       <c r="J297" s="8">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="K297" s="8">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L297" s="8">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M297" s="8">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="N297" s="8">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="O297" s="8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P297" s="8">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="Q297" t="s">
-        <v>948</v>
+        <v>308</v>
       </c>
       <c r="R297" s="8">
-        <v>103</v>
+        <v>85</v>
       </c>
       <c r="S297" t="str">
-        <f xml:space="preserve"> HYPERLINK("ReviewHtml/review_The_Plague_Dogs.html", "https://2danicritic.github.io/ReviewHtml/review_The_Plague_Dogs.html")</f>
-        <v>https://2danicritic.github.io/ReviewHtml/review_The_Plague_Dogs.html</v>
-      </c>
-      <c r="V297" s="5" t="str">
-        <f t="shared" si="8"/>
-        <v>United Kingdom</v>
-      </c>
-      <c r="X297" s="5" t="str">
-        <f t="shared" si="9"/>
-        <v>Film</v>
-      </c>
-    </row>
-    <row r="298" spans="2:24" hidden="1" x14ac:dyDescent="0.35">
+        <f xml:space="preserve"> HYPERLINK("ReviewHtml/review_When_The_Wind_Blows.html", "https://2danicritic.github.io/ReviewHtml/review_When_The_Wind_Blows.html")</f>
+        <v>https://2danicritic.github.io/ReviewHtml/review_When_The_Wind_Blows.html</v>
+      </c>
+    </row>
+    <row r="298" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B298" s="8">
         <v>295</v>
       </c>
@@ -27742,146 +25365,122 @@
         <f xml:space="preserve"> HYPERLINK("ReviewHtml/review_Whisper_of_the_Heart.html", "https://2danicritic.github.io/ReviewHtml/review_Whisper_of_the_Heart.html")</f>
         <v>https://2danicritic.github.io/ReviewHtml/review_Whisper_of_the_Heart.html</v>
       </c>
-      <c r="V298" s="5" t="str">
-        <f t="shared" si="8"/>
-        <v>Japan</v>
-      </c>
-      <c r="X298" s="5" t="str">
-        <f t="shared" si="9"/>
-        <v>Film</v>
-      </c>
-    </row>
-    <row r="299" spans="2:24" x14ac:dyDescent="0.35">
+    </row>
+    <row r="299" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B299" s="8">
-        <v>266</v>
+        <v>296</v>
       </c>
       <c r="C299" t="s">
-        <v>853</v>
+        <v>897</v>
       </c>
       <c r="D299" s="8">
-        <v>1982</v>
+        <v>2016</v>
       </c>
       <c r="E299" t="s">
-        <v>1007</v>
+        <v>1013</v>
       </c>
       <c r="F299" t="s">
-        <v>767</v>
+        <v>898</v>
       </c>
       <c r="G299" t="s">
         <v>1018</v>
       </c>
       <c r="H299" t="s">
-        <v>768</v>
+        <v>899</v>
       </c>
       <c r="I299" s="8">
-        <v>4.3600000000000003</v>
+        <v>3.14</v>
       </c>
       <c r="J299" s="8">
-        <v>4.5</v>
+        <v>2</v>
       </c>
       <c r="K299" s="8">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L299" s="8">
-        <v>4.5</v>
+        <v>2.5</v>
       </c>
       <c r="M299" s="8">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="N299" s="8">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="O299" s="8">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="P299" s="8">
         <v>4</v>
       </c>
       <c r="Q299" t="s">
-        <v>288</v>
+        <v>112</v>
       </c>
       <c r="R299" s="8">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="S299" t="str">
-        <f xml:space="preserve"> HYPERLINK("ReviewHtml/review_The_Secret_of_Nimh.html", "https://2danicritic.github.io/ReviewHtml/review_The_Secret_of_Nimh.html")</f>
-        <v>https://2danicritic.github.io/ReviewHtml/review_The_Secret_of_Nimh.html</v>
-      </c>
-      <c r="V299" s="5" t="str">
-        <f t="shared" si="8"/>
-        <v>USA</v>
-      </c>
-      <c r="X299" s="5" t="str">
-        <f t="shared" si="9"/>
-        <v>Film</v>
-      </c>
-    </row>
-    <row r="300" spans="2:24" x14ac:dyDescent="0.35">
+        <f xml:space="preserve"> HYPERLINK("ReviewHtml/review_Window_Horses_-_The_Poetic_Persian_Epiphany_of_Rosie_Ming.html", "https://2danicritic.github.io/ReviewHtml/review_Window_Horses_-_The_Poetic_Persian_Epiphany_of_Rosie_Ming.html")</f>
+        <v>https://2danicritic.github.io/ReviewHtml/review_Window_Horses_-_The_Poetic_Persian_Epiphany_of_Rosie_Ming.html</v>
+      </c>
+    </row>
+    <row r="300" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B300" s="8">
-        <v>291</v>
+        <v>297</v>
       </c>
       <c r="C300" t="s">
-        <v>982</v>
+        <v>900</v>
       </c>
       <c r="D300" s="8">
-        <v>1978</v>
+        <v>1977</v>
       </c>
       <c r="E300" t="s">
-        <v>58</v>
+        <v>1007</v>
       </c>
       <c r="F300" t="s">
-        <v>992</v>
+        <v>901</v>
       </c>
       <c r="G300" t="s">
         <v>1018</v>
       </c>
       <c r="H300" t="s">
-        <v>1003</v>
+        <v>902</v>
       </c>
       <c r="I300" s="8">
-        <v>4.21</v>
+        <v>1.79</v>
       </c>
       <c r="J300" s="8">
-        <v>3.5</v>
+        <v>1.5</v>
       </c>
       <c r="K300" s="8">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="L300" s="8">
-        <v>4</v>
+        <v>2.5</v>
       </c>
       <c r="M300" s="8">
-        <v>4.5</v>
+        <v>2.5</v>
       </c>
       <c r="N300" s="8">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="O300" s="8">
-        <v>4</v>
+        <v>1.5</v>
       </c>
       <c r="P300" s="8">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="Q300" t="s">
-        <v>952</v>
+        <v>267</v>
       </c>
       <c r="R300" s="8">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="S300" t="str">
-        <f xml:space="preserve"> HYPERLINK("ReviewHtml/review_Watership_Down.html", "https://2danicritic.github.io/ReviewHtml/review_Watership_Down.html")</f>
-        <v>https://2danicritic.github.io/ReviewHtml/review_Watership_Down.html</v>
-      </c>
-      <c r="V300" s="5" t="str">
-        <f t="shared" si="8"/>
-        <v>United Kingdom</v>
-      </c>
-      <c r="X300" s="5" t="str">
-        <f t="shared" si="9"/>
-        <v>Film</v>
-      </c>
-    </row>
-    <row r="301" spans="2:24" hidden="1" x14ac:dyDescent="0.35">
+        <f xml:space="preserve"> HYPERLINK("ReviewHtml/review_Wizards.html", "https://2danicritic.github.io/ReviewHtml/review_Wizards.html")</f>
+        <v>https://2danicritic.github.io/ReviewHtml/review_Wizards.html</v>
+      </c>
+    </row>
+    <row r="301" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B301" s="8">
         <v>298</v>
       </c>
@@ -27937,81 +25536,65 @@
         <f xml:space="preserve"> HYPERLINK("ReviewHtml/review_Wolf_Children.html", "https://2danicritic.github.io/ReviewHtml/review_Wolf_Children.html")</f>
         <v>https://2danicritic.github.io/ReviewHtml/review_Wolf_Children.html</v>
       </c>
-      <c r="V301" s="5" t="str">
-        <f t="shared" si="8"/>
-        <v>Japan</v>
-      </c>
-      <c r="X301" s="5" t="str">
-        <f t="shared" si="9"/>
-        <v>Film</v>
-      </c>
-    </row>
-    <row r="302" spans="2:24" x14ac:dyDescent="0.35">
+    </row>
+    <row r="302" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B302" s="8">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="C302" t="s">
-        <v>900</v>
+        <v>905</v>
       </c>
       <c r="D302" s="8">
-        <v>1977</v>
+        <v>2011</v>
       </c>
       <c r="E302" t="s">
-        <v>1007</v>
+        <v>1009</v>
       </c>
       <c r="F302" t="s">
-        <v>901</v>
+        <v>906</v>
       </c>
       <c r="G302" t="s">
         <v>1018</v>
       </c>
       <c r="H302" t="s">
-        <v>902</v>
+        <v>907</v>
       </c>
       <c r="I302" s="8">
-        <v>1.79</v>
+        <v>3.5</v>
       </c>
       <c r="J302" s="8">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="K302" s="8">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="L302" s="8">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="M302" s="8">
-        <v>2.5</v>
+        <v>4</v>
       </c>
       <c r="N302" s="8">
-        <v>1</v>
+        <v>4.5</v>
       </c>
       <c r="O302" s="8">
-        <v>1.5</v>
+        <v>3.5</v>
       </c>
       <c r="P302" s="8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q302" t="s">
-        <v>267</v>
+        <v>248</v>
       </c>
       <c r="R302" s="8">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="S302" t="str">
-        <f xml:space="preserve"> HYPERLINK("ReviewHtml/review_Wizards.html", "https://2danicritic.github.io/ReviewHtml/review_Wizards.html")</f>
-        <v>https://2danicritic.github.io/ReviewHtml/review_Wizards.html</v>
-      </c>
-      <c r="V302" s="5" t="str">
-        <f t="shared" si="8"/>
-        <v>USA</v>
-      </c>
-      <c r="X302" s="5" t="str">
-        <f t="shared" si="9"/>
-        <v>Film</v>
-      </c>
-    </row>
-    <row r="303" spans="2:24" hidden="1" x14ac:dyDescent="0.35">
+        <f xml:space="preserve"> HYPERLINK("ReviewHtml/review_Wrinkles.html", "https://2danicritic.github.io/ReviewHtml/review_Wrinkles.html")</f>
+        <v>https://2danicritic.github.io/ReviewHtml/review_Wrinkles.html</v>
+      </c>
+    </row>
+    <row r="303" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B303" s="8">
         <v>300</v>
       </c>
@@ -28067,16 +25650,8 @@
         <f xml:space="preserve"> HYPERLINK("ReviewHtml/review_xxxHolic.html", "https://2danicritic.github.io/ReviewHtml/review_xxxHolic.html")</f>
         <v>https://2danicritic.github.io/ReviewHtml/review_xxxHolic.html</v>
       </c>
-      <c r="V303" s="5" t="str">
-        <f t="shared" si="8"/>
-        <v>Japan</v>
-      </c>
-      <c r="X303" s="5" t="str">
-        <f t="shared" si="9"/>
-        <v>TV</v>
-      </c>
-    </row>
-    <row r="304" spans="2:24" x14ac:dyDescent="0.35">
+    </row>
+    <row r="304" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B304" s="8">
         <v>301</v>
       </c>
@@ -28132,16 +25707,8 @@
         <f xml:space="preserve"> HYPERLINK("ReviewHtml/review_Yellow_Submarine.html", "https://2danicritic.github.io/ReviewHtml/review_Yellow_Submarine.html")</f>
         <v>https://2danicritic.github.io/ReviewHtml/review_Yellow_Submarine.html</v>
       </c>
-      <c r="V304" s="5" t="str">
-        <f t="shared" si="8"/>
-        <v>United Kingdom</v>
-      </c>
-      <c r="X304" s="5" t="str">
-        <f t="shared" si="9"/>
-        <v>Film</v>
-      </c>
-    </row>
-    <row r="305" spans="2:24" hidden="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="305" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B305" s="8">
         <v>302</v>
       </c>
@@ -28197,16 +25764,8 @@
         <f xml:space="preserve"> HYPERLINK("ReviewHtml/review_Your_Name..html", "https://2danicritic.github.io/ReviewHtml/review_Your_Name..html")</f>
         <v>https://2danicritic.github.io/ReviewHtml/review_Your_Name..html</v>
       </c>
-      <c r="V305" s="5" t="str">
-        <f t="shared" si="8"/>
-        <v>Japan</v>
-      </c>
-      <c r="X305" s="5" t="str">
-        <f t="shared" si="9"/>
-        <v>Film</v>
-      </c>
-    </row>
-    <row r="306" spans="2:24" hidden="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="306" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B306" s="8">
         <v>303</v>
       </c>
@@ -28261,14 +25820,6 @@
       <c r="S306" t="str">
         <f xml:space="preserve"> HYPERLINK("ReviewHtml/review_Yuri_on_Ice.html", "https://2danicritic.github.io/ReviewHtml/review_Yuri_on_Ice.html")</f>
         <v>https://2danicritic.github.io/ReviewHtml/review_Yuri_on_Ice.html</v>
-      </c>
-      <c r="V306" s="5" t="str">
-        <f t="shared" si="8"/>
-        <v>Japan</v>
-      </c>
-      <c r="X306" s="5" t="str">
-        <f t="shared" si="9"/>
-        <v>TV</v>
       </c>
     </row>
   </sheetData>

--- a/reviewsummary_public.xlsx
+++ b/reviewsummary_public.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85915D3D-7DF7-4DF6-A548-E13217998B06}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3682F833-5D29-4A1B-A626-35D109595784}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="27580" windowHeight="17860" xr2:uid="{A58E8F5E-137C-4732-BF16-A9BCF0B50BB6}"/>
   </bookViews>
@@ -9395,20 +9395,7 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C50BF76C-923B-42AF-BD58-C5AF21145B26}" name="Table1" displayName="Table1" ref="B2:S370" totalsRowShown="0" dataDxfId="77">
-  <autoFilter ref="B2:S370" xr:uid="{BF850E12-6FCD-45DC-BC44-9D63E95AAFF8}">
-    <filterColumn colId="3">
-      <filters>
-        <filter val="Japan"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="5">
-      <filters>
-        <filter val="ONA"/>
-        <filter val="OVA"/>
-        <filter val="TV"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="B2:S370" xr:uid="{BF850E12-6FCD-45DC-BC44-9D63E95AAFF8}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:S370">
     <sortCondition ref="B2:B370"/>
   </sortState>
@@ -9989,7 +9976,7 @@
   <dimension ref="B2:S370"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8:S370"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -10065,7 +10052,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="3" spans="2:19" hidden="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B3">
         <v>0</v>
       </c>
@@ -10122,7 +10109,7 @@
         <v>https://2danicritic.github.io/ReviewHtml/review_5_Centimeters_per_Second.html</v>
       </c>
     </row>
-    <row r="4" spans="2:19" hidden="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B4">
         <v>1</v>
       </c>
@@ -10179,7 +10166,7 @@
         <v>https://2danicritic.github.io/ReviewHtml/review_A_Boy_Named_Charlie_Brown.html</v>
       </c>
     </row>
-    <row r="5" spans="2:19" hidden="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B5">
         <v>2</v>
       </c>
@@ -10236,7 +10223,7 @@
         <v>https://2danicritic.github.io/ReviewHtml/review_A_Cat_in_Paris.html</v>
       </c>
     </row>
-    <row r="6" spans="2:19" hidden="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B6">
         <v>3</v>
       </c>
@@ -10293,7 +10280,7 @@
         <v>https://2danicritic.github.io/ReviewHtml/review_A_Liar's_Autobiography_-_The_Untrue_Story_of_Monty_Python's_Graham_Chapman.html</v>
       </c>
     </row>
-    <row r="7" spans="2:19" hidden="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B7">
         <v>4</v>
       </c>
@@ -10407,7 +10394,7 @@
         <v>https://2danicritic.github.io/ReviewHtml/review_A_Spirit_of_the_Sun.html</v>
       </c>
     </row>
-    <row r="9" spans="2:19" hidden="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B9">
         <v>6</v>
       </c>
@@ -10521,7 +10508,7 @@
         <v>https://2danicritic.github.io/ReviewHtml/review_Afro_Samurai.html</v>
       </c>
     </row>
-    <row r="11" spans="2:19" hidden="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B11">
         <v>8</v>
       </c>
@@ -10578,7 +10565,7 @@
         <v>https://2danicritic.github.io/ReviewHtml/review_Afro_Samurai_-_Resurrection.html</v>
       </c>
     </row>
-    <row r="12" spans="2:19" hidden="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B12">
         <v>9</v>
       </c>
@@ -10749,7 +10736,7 @@
         <v>https://2danicritic.github.io/ReviewHtml/review_Amagi_Brilliant_Park.html</v>
       </c>
     </row>
-    <row r="15" spans="2:19" hidden="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B15">
         <v>12</v>
       </c>
@@ -10806,7 +10793,7 @@
         <v>https://2danicritic.github.io/ReviewHtml/review_An_American_Tail.html</v>
       </c>
     </row>
-    <row r="16" spans="2:19" hidden="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B16">
         <v>13</v>
       </c>
@@ -10920,7 +10907,7 @@
         <v>https://2danicritic.github.io/ReviewHtml/review_Angel_Beats.html</v>
       </c>
     </row>
-    <row r="18" spans="2:19" hidden="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B18">
         <v>15</v>
       </c>
@@ -11034,7 +11021,7 @@
         <v>https://2danicritic.github.io/ReviewHtml/review_Attack_on_Titan_-_Season_1.html</v>
       </c>
     </row>
-    <row r="20" spans="2:19" hidden="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B20">
         <v>17</v>
       </c>
@@ -11319,7 +11306,7 @@
         <v>https://2danicritic.github.io/ReviewHtml/review_Bakemonogatari.html</v>
       </c>
     </row>
-    <row r="25" spans="2:19" hidden="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B25">
         <v>22</v>
       </c>
@@ -11376,7 +11363,7 @@
         <v>https://2danicritic.github.io/ReviewHtml/review_Balto.html</v>
       </c>
     </row>
-    <row r="26" spans="2:19" hidden="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B26">
         <v>23</v>
       </c>
@@ -11433,7 +11420,7 @@
         <v>https://2danicritic.github.io/ReviewHtml/review_Barefoot_Gen.html</v>
       </c>
     </row>
-    <row r="27" spans="2:19" hidden="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B27">
         <v>24</v>
       </c>
@@ -11490,7 +11477,7 @@
         <v>https://2danicritic.github.io/ReviewHtml/review_Barefoot_Gen_2.html</v>
       </c>
     </row>
-    <row r="28" spans="2:19" hidden="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B28">
         <v>25</v>
       </c>
@@ -11547,7 +11534,7 @@
         <v>https://2danicritic.github.io/ReviewHtml/review_Batman_Ninja.html</v>
       </c>
     </row>
-    <row r="29" spans="2:19" hidden="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B29">
         <v>26</v>
       </c>
@@ -11604,7 +11591,7 @@
         <v>https://2danicritic.github.io/ReviewHtml/review_Bayonetta_-_Bloody_Fate.html</v>
       </c>
     </row>
-    <row r="30" spans="2:19" hidden="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B30">
         <v>27</v>
       </c>
@@ -11661,7 +11648,7 @@
         <v>https://2danicritic.github.io/ReviewHtml/review_Belladonna_of_Sadness.html</v>
       </c>
     </row>
-    <row r="31" spans="2:19" hidden="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B31">
         <v>28</v>
       </c>
@@ -11775,7 +11762,7 @@
         <v>https://2danicritic.github.io/ReviewHtml/review_Beyond_the_Boundary.html</v>
       </c>
     </row>
-    <row r="33" spans="2:19" hidden="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B33">
         <v>30</v>
       </c>
@@ -11832,7 +11819,7 @@
         <v>https://2danicritic.github.io/ReviewHtml/review_Beyond_the_Boundary_-_I'll_Be_Here.html</v>
       </c>
     </row>
-    <row r="34" spans="2:19" hidden="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B34">
         <v>31</v>
       </c>
@@ -11889,7 +11876,7 @@
         <v>https://2danicritic.github.io/ReviewHtml/review_Big_Fish_and_Begonia.html</v>
       </c>
     </row>
-    <row r="35" spans="2:19" hidden="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B35">
         <v>32</v>
       </c>
@@ -12174,7 +12161,7 @@
         <v>https://2danicritic.github.io/ReviewHtml/review_Black_Butler_-_Book_of_Murder.html</v>
       </c>
     </row>
-    <row r="40" spans="2:19" hidden="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B40">
         <v>37</v>
       </c>
@@ -12402,7 +12389,7 @@
         <v>https://2danicritic.github.io/ReviewHtml/review_Black_Lagoon_-_Roberta's_Blood_Trail.html</v>
       </c>
     </row>
-    <row r="44" spans="2:19" hidden="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B44">
         <v>41</v>
       </c>
@@ -12573,7 +12560,7 @@
         <v>https://2danicritic.github.io/ReviewHtml/review_Blazblue_-_Alter_Memory.html</v>
       </c>
     </row>
-    <row r="47" spans="2:19" hidden="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B47">
         <v>44</v>
       </c>
@@ -12744,7 +12731,7 @@
         <v>https://2danicritic.github.io/ReviewHtml/review_Blood_Blockade_Battlefront_&amp;_Beyond.html</v>
       </c>
     </row>
-    <row r="50" spans="2:19" hidden="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B50">
         <v>47</v>
       </c>
@@ -12858,7 +12845,7 @@
         <v>https://2danicritic.github.io/ReviewHtml/review_Bludgeoning_Angel_Dokuro-Chan.html</v>
       </c>
     </row>
-    <row r="52" spans="2:19" hidden="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B52">
         <v>49</v>
       </c>
@@ -13086,7 +13073,7 @@
         <v>https://2danicritic.github.io/ReviewHtml/review_Canaan.html</v>
       </c>
     </row>
-    <row r="56" spans="2:19" hidden="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B56">
         <v>53</v>
       </c>
@@ -13257,7 +13244,7 @@
         <v>https://2danicritic.github.io/ReviewHtml/review_Cat_Soup.html</v>
       </c>
     </row>
-    <row r="59" spans="2:19" hidden="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B59">
         <v>56</v>
       </c>
@@ -13314,7 +13301,7 @@
         <v>https://2danicritic.github.io/ReviewHtml/review_Chico_and_Rita.html</v>
       </c>
     </row>
-    <row r="60" spans="2:19" hidden="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B60">
         <v>57</v>
       </c>
@@ -13485,7 +13472,7 @@
         <v>https://2danicritic.github.io/ReviewHtml/review_Code_Geass_-_Lelouch_of_the_Rebellion.html</v>
       </c>
     </row>
-    <row r="63" spans="2:19" hidden="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B63">
         <v>60</v>
       </c>
@@ -13542,7 +13529,7 @@
         <v>https://2danicritic.github.io/ReviewHtml/review_Code_Geass_-_Lelouch_of_the_Rebellion_-_Movie_Trilogy.html</v>
       </c>
     </row>
-    <row r="64" spans="2:19" hidden="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B64">
         <v>61</v>
       </c>
@@ -13713,7 +13700,7 @@
         <v>https://2danicritic.github.io/ReviewHtml/review_Coicent_&amp;_Five_Numbers.html</v>
       </c>
     </row>
-    <row r="67" spans="2:19" hidden="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B67">
         <v>64</v>
       </c>
@@ -13827,7 +13814,7 @@
         <v>https://2danicritic.github.io/ReviewHtml/review_Corpse_Princess.html</v>
       </c>
     </row>
-    <row r="69" spans="2:19" hidden="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B69">
         <v>66</v>
       </c>
@@ -14055,7 +14042,7 @@
         <v>https://2danicritic.github.io/ReviewHtml/review_Dance_in_the_Vampire_Bund.html</v>
       </c>
     </row>
-    <row r="73" spans="2:19" hidden="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B73">
         <v>70</v>
       </c>
@@ -14454,7 +14441,7 @@
         <v>https://2danicritic.github.io/ReviewHtml/review_Dog_and_Scissors.html</v>
       </c>
     </row>
-    <row r="80" spans="2:19" hidden="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B80">
         <v>77</v>
       </c>
@@ -14682,7 +14669,7 @@
         <v>https://2danicritic.github.io/ReviewHtml/review_Eden_of_the_East.html</v>
       </c>
     </row>
-    <row r="84" spans="2:19" hidden="1" x14ac:dyDescent="0.35">
+    <row r="84" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B84">
         <v>81</v>
       </c>
@@ -14853,7 +14840,7 @@
         <v>https://2danicritic.github.io/ReviewHtml/review_Ergo_Proxy.html</v>
       </c>
     </row>
-    <row r="87" spans="2:19" hidden="1" x14ac:dyDescent="0.35">
+    <row r="87" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B87">
         <v>84</v>
       </c>
@@ -14910,7 +14897,7 @@
         <v>https://2danicritic.github.io/ReviewHtml/review_Ernest_and_Celestine.html</v>
       </c>
     </row>
-    <row r="88" spans="2:19" hidden="1" x14ac:dyDescent="0.35">
+    <row r="88" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B88">
         <v>85</v>
       </c>
@@ -14967,7 +14954,7 @@
         <v>https://2danicritic.github.io/ReviewHtml/review_Ethel_&amp;_Ernest_.html</v>
       </c>
     </row>
-    <row r="89" spans="2:19" hidden="1" x14ac:dyDescent="0.35">
+    <row r="89" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B89">
         <v>86</v>
       </c>
@@ -15024,7 +15011,7 @@
         <v>https://2danicritic.github.io/ReviewHtml/review_Evangelion_1.11_-_You_Are_(Not)_Alone.html</v>
       </c>
     </row>
-    <row r="90" spans="2:19" hidden="1" x14ac:dyDescent="0.35">
+    <row r="90" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B90">
         <v>87</v>
       </c>
@@ -15081,7 +15068,7 @@
         <v>https://2danicritic.github.io/ReviewHtml/review_Evangelion_2.22_-_You_Can_(Not)_Advance.html</v>
       </c>
     </row>
-    <row r="91" spans="2:19" hidden="1" x14ac:dyDescent="0.35">
+    <row r="91" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B91">
         <v>88</v>
       </c>
@@ -15138,7 +15125,7 @@
         <v>https://2danicritic.github.io/ReviewHtml/review_Evangelion_3.33_-_You_Can_(Not)_Redo.html</v>
       </c>
     </row>
-    <row r="92" spans="2:19" hidden="1" x14ac:dyDescent="0.35">
+    <row r="92" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B92">
         <v>89</v>
       </c>
@@ -15195,7 +15182,7 @@
         <v>https://2danicritic.github.io/ReviewHtml/review_Fairy_Tail_-_Dragon_Cry.html</v>
       </c>
     </row>
-    <row r="93" spans="2:19" hidden="1" x14ac:dyDescent="0.35">
+    <row r="93" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B93">
         <v>90</v>
       </c>
@@ -15309,7 +15296,7 @@
         <v>https://2danicritic.github.io/ReviewHtml/review_Fate_-_Stay_Night.html</v>
       </c>
     </row>
-    <row r="95" spans="2:19" hidden="1" x14ac:dyDescent="0.35">
+    <row r="95" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B95">
         <v>92</v>
       </c>
@@ -15480,7 +15467,7 @@
         <v>https://2danicritic.github.io/ReviewHtml/review_Fate_-_Zero.html</v>
       </c>
     </row>
-    <row r="98" spans="2:19" hidden="1" x14ac:dyDescent="0.35">
+    <row r="98" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B98">
         <v>95</v>
       </c>
@@ -15537,7 +15524,7 @@
         <v>https://2danicritic.github.io/ReviewHtml/review_Fire_and_Ice.html</v>
       </c>
     </row>
-    <row r="99" spans="2:19" hidden="1" x14ac:dyDescent="0.35">
+    <row r="99" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B99">
         <v>96</v>
       </c>
@@ -15708,7 +15695,7 @@
         <v>https://2danicritic.github.io/ReviewHtml/review_Flip_Flappers.html</v>
       </c>
     </row>
-    <row r="102" spans="2:19" hidden="1" x14ac:dyDescent="0.35">
+    <row r="102" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B102">
         <v>99</v>
       </c>
@@ -15936,7 +15923,7 @@
         <v>https://2danicritic.github.io/ReviewHtml/review_Full_Metal_Panic!_-_The_Second_Raid.html</v>
       </c>
     </row>
-    <row r="106" spans="2:19" hidden="1" x14ac:dyDescent="0.35">
+    <row r="106" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B106">
         <v>103</v>
       </c>
@@ -16221,7 +16208,7 @@
         <v>https://2danicritic.github.io/ReviewHtml/review_Gargantia_on_the_Verdurous_Planet.html</v>
       </c>
     </row>
-    <row r="111" spans="2:19" hidden="1" x14ac:dyDescent="0.35">
+    <row r="111" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B111">
         <v>108</v>
       </c>
@@ -16278,7 +16265,7 @@
         <v>https://2danicritic.github.io/ReviewHtml/review_Genocidal_Organ.html</v>
       </c>
     </row>
-    <row r="112" spans="2:19" hidden="1" x14ac:dyDescent="0.35">
+    <row r="112" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B112">
         <v>109</v>
       </c>
@@ -16335,7 +16322,7 @@
         <v>https://2danicritic.github.io/ReviewHtml/review_Ghost_in_the_Shell.html</v>
       </c>
     </row>
-    <row r="113" spans="2:19" hidden="1" x14ac:dyDescent="0.35">
+    <row r="113" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B113">
         <v>110</v>
       </c>
@@ -16449,7 +16436,7 @@
         <v>https://2danicritic.github.io/ReviewHtml/review_Ghost_in_the_Shell_-_Stand_Alone_Complex.html</v>
       </c>
     </row>
-    <row r="115" spans="2:19" hidden="1" x14ac:dyDescent="0.35">
+    <row r="115" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B115">
         <v>112</v>
       </c>
@@ -16563,7 +16550,7 @@
         <v>https://2danicritic.github.io/ReviewHtml/review_Girls_und_Panzer.html</v>
       </c>
     </row>
-    <row r="117" spans="2:19" hidden="1" x14ac:dyDescent="0.35">
+    <row r="117" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B117">
         <v>114</v>
       </c>
@@ -16734,7 +16721,7 @@
         <v>https://2danicritic.github.io/ReviewHtml/review_Good_Luck_Girl!.html</v>
       </c>
     </row>
-    <row r="120" spans="2:19" hidden="1" x14ac:dyDescent="0.35">
+    <row r="120" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B120">
         <v>117</v>
       </c>
@@ -17019,7 +17006,7 @@
         <v>https://2danicritic.github.io/ReviewHtml/review_Gunbuster_2.html</v>
       </c>
     </row>
-    <row r="125" spans="2:19" hidden="1" x14ac:dyDescent="0.35">
+    <row r="125" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B125">
         <v>122</v>
       </c>
@@ -17076,7 +17063,7 @@
         <v>https://2danicritic.github.io/ReviewHtml/review_Harmony.html</v>
       </c>
     </row>
-    <row r="126" spans="2:19" hidden="1" x14ac:dyDescent="0.35">
+    <row r="126" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B126">
         <v>123</v>
       </c>
@@ -17190,7 +17177,7 @@
         <v>https://2danicritic.github.io/ReviewHtml/review_Heaven's_Lost_Property.html</v>
       </c>
     </row>
-    <row r="128" spans="2:19" hidden="1" x14ac:dyDescent="0.35">
+    <row r="128" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B128">
         <v>125</v>
       </c>
@@ -17304,7 +17291,7 @@
         <v>https://2danicritic.github.io/ReviewHtml/review_Heaven's_Memo_Pad.html</v>
       </c>
     </row>
-    <row r="130" spans="2:19" hidden="1" x14ac:dyDescent="0.35">
+    <row r="130" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B130">
         <v>127</v>
       </c>
@@ -17646,7 +17633,7 @@
         <v>https://2danicritic.github.io/ReviewHtml/review_Himouto!_Umaru-Chan.html</v>
       </c>
     </row>
-    <row r="136" spans="2:19" hidden="1" x14ac:dyDescent="0.35">
+    <row r="136" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B136">
         <v>133</v>
       </c>
@@ -17703,7 +17690,7 @@
         <v>https://2danicritic.github.io/ReviewHtml/review_Howl's_Moving_Castle.html</v>
       </c>
     </row>
-    <row r="137" spans="2:19" hidden="1" x14ac:dyDescent="0.35">
+    <row r="137" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B137">
         <v>134</v>
       </c>
@@ -17760,7 +17747,7 @@
         <v>https://2danicritic.github.io/ReviewHtml/review_I_Want_To_Eat_Your_Pancreas.html</v>
       </c>
     </row>
-    <row r="138" spans="2:19" hidden="1" x14ac:dyDescent="0.35">
+    <row r="138" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B138">
         <v>135</v>
       </c>
@@ -17817,7 +17804,7 @@
         <v>https://2danicritic.github.io/ReviewHtml/review_I'll_Just_Live_In_Bando.html</v>
       </c>
     </row>
-    <row r="139" spans="2:19" hidden="1" x14ac:dyDescent="0.35">
+    <row r="139" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B139">
         <v>136</v>
       </c>
@@ -17931,7 +17918,7 @@
         <v>https://2danicritic.github.io/ReviewHtml/review_Indian_Summer.html</v>
       </c>
     </row>
-    <row r="141" spans="2:19" hidden="1" x14ac:dyDescent="0.35">
+    <row r="141" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B141">
         <v>138</v>
       </c>
@@ -18045,7 +18032,7 @@
         <v>https://2danicritic.github.io/ReviewHtml/review_Is_It_Wrong_To_Try_To_Pick_Up_Girls_In_A_Dungeon.html</v>
       </c>
     </row>
-    <row r="143" spans="2:19" hidden="1" x14ac:dyDescent="0.35">
+    <row r="143" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B143">
         <v>140</v>
       </c>
@@ -18102,7 +18089,7 @@
         <v>https://2danicritic.github.io/ReviewHtml/review_It's_Such_a_Beautiful_Day.html</v>
       </c>
     </row>
-    <row r="144" spans="2:19" hidden="1" x14ac:dyDescent="0.35">
+    <row r="144" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B144">
         <v>141</v>
       </c>
@@ -18159,7 +18146,7 @@
         <v>https://2danicritic.github.io/ReviewHtml/review_Japan_Animator_Expo.html</v>
       </c>
     </row>
-    <row r="145" spans="2:19" hidden="1" x14ac:dyDescent="0.35">
+    <row r="145" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B145">
         <v>142</v>
       </c>
@@ -18273,7 +18260,7 @@
         <v>https://2danicritic.github.io/ReviewHtml/review_Jormungand.html</v>
       </c>
     </row>
-    <row r="147" spans="2:19" hidden="1" x14ac:dyDescent="0.35">
+    <row r="147" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B147">
         <v>144</v>
       </c>
@@ -18387,7 +18374,7 @@
         <v>https://2danicritic.github.io/ReviewHtml/review_K.html</v>
       </c>
     </row>
-    <row r="149" spans="2:19" hidden="1" x14ac:dyDescent="0.35">
+    <row r="149" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B149">
         <v>146</v>
       </c>
@@ -18729,7 +18716,7 @@
         <v>https://2danicritic.github.io/ReviewHtml/review_Keijo.html</v>
       </c>
     </row>
-    <row r="155" spans="2:19" hidden="1" x14ac:dyDescent="0.35">
+    <row r="155" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B155">
         <v>152</v>
       </c>
@@ -18900,7 +18887,7 @@
         <v>https://2danicritic.github.io/ReviewHtml/review_Kino's_Journey.html</v>
       </c>
     </row>
-    <row r="158" spans="2:19" hidden="1" x14ac:dyDescent="0.35">
+    <row r="158" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B158">
         <v>155</v>
       </c>
@@ -19128,7 +19115,7 @@
         <v>https://2danicritic.github.io/ReviewHtml/review_Last_Exile.html</v>
       </c>
     </row>
-    <row r="162" spans="2:19" hidden="1" x14ac:dyDescent="0.35">
+    <row r="162" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B162">
         <v>159</v>
       </c>
@@ -19185,7 +19172,7 @@
         <v>https://2danicritic.github.io/ReviewHtml/review_Liz_and_the_Blue_Bird.html</v>
       </c>
     </row>
-    <row r="163" spans="2:19" hidden="1" x14ac:dyDescent="0.35">
+    <row r="163" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B163">
         <v>160</v>
       </c>
@@ -19242,7 +19229,7 @@
         <v>https://2danicritic.github.io/ReviewHtml/review_Long_Way_North.html</v>
       </c>
     </row>
-    <row r="164" spans="2:19" hidden="1" x14ac:dyDescent="0.35">
+    <row r="164" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B164">
         <v>161</v>
       </c>
@@ -19299,7 +19286,7 @@
         <v>https://2danicritic.github.io/ReviewHtml/review_Louise_By_The_Shore.html</v>
       </c>
     </row>
-    <row r="165" spans="2:19" hidden="1" x14ac:dyDescent="0.35">
+    <row r="165" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B165">
         <v>162</v>
       </c>
@@ -19413,7 +19400,7 @@
         <v>https://2danicritic.github.io/ReviewHtml/review_Love,_Chunibyo_&amp;_Other_Delusions!.html</v>
       </c>
     </row>
-    <row r="167" spans="2:19" hidden="1" x14ac:dyDescent="0.35">
+    <row r="167" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B167">
         <v>164</v>
       </c>
@@ -19470,7 +19457,7 @@
         <v>https://2danicritic.github.io/ReviewHtml/review_Loving_Vincent.html</v>
       </c>
     </row>
-    <row r="168" spans="2:19" hidden="1" x14ac:dyDescent="0.35">
+    <row r="168" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B168">
         <v>165</v>
       </c>
@@ -19584,7 +19571,7 @@
         <v>https://2danicritic.github.io/ReviewHtml/review_Lunar_Legend_-_Tsukihime.html</v>
       </c>
     </row>
-    <row r="170" spans="2:19" hidden="1" x14ac:dyDescent="0.35">
+    <row r="170" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B170">
         <v>167</v>
       </c>
@@ -19641,7 +19628,7 @@
         <v>https://2danicritic.github.io/ReviewHtml/review_Lupin_the_Third_-_Blood_Seal_of_the_Eternal_Mermaid.html</v>
       </c>
     </row>
-    <row r="171" spans="2:19" hidden="1" x14ac:dyDescent="0.35">
+    <row r="171" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B171">
         <v>168</v>
       </c>
@@ -19755,7 +19742,7 @@
         <v>https://2danicritic.github.io/ReviewHtml/review_Lupin_the_Third_-_Green_VS_Red.html</v>
       </c>
     </row>
-    <row r="173" spans="2:19" hidden="1" x14ac:dyDescent="0.35">
+    <row r="173" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B173">
         <v>170</v>
       </c>
@@ -19869,7 +19856,7 @@
         <v>https://2danicritic.github.io/ReviewHtml/review_Lupin_the_Third_-_Part_I.html</v>
       </c>
     </row>
-    <row r="175" spans="2:19" hidden="1" x14ac:dyDescent="0.35">
+    <row r="175" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B175">
         <v>172</v>
       </c>
@@ -19926,7 +19913,7 @@
         <v>https://2danicritic.github.io/ReviewHtml/review_Lupin_the_Third_-_The_Castle_of_Cagliostro.html</v>
       </c>
     </row>
-    <row r="176" spans="2:19" hidden="1" x14ac:dyDescent="0.35">
+    <row r="176" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B176">
         <v>173</v>
       </c>
@@ -19983,7 +19970,7 @@
         <v>https://2danicritic.github.io/ReviewHtml/review_Lupin_the_Third_-_The_Fuma_Conspiracy.html</v>
       </c>
     </row>
-    <row r="177" spans="2:19" hidden="1" x14ac:dyDescent="0.35">
+    <row r="177" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B177">
         <v>174</v>
       </c>
@@ -20097,7 +20084,7 @@
         <v>https://2danicritic.github.io/ReviewHtml/review_Lupin_the_Third_-_The_Woman_Called_Fujiko_Mine.html</v>
       </c>
     </row>
-    <row r="179" spans="2:19" hidden="1" x14ac:dyDescent="0.35">
+    <row r="179" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B179">
         <v>176</v>
       </c>
@@ -20154,7 +20141,7 @@
         <v>https://2danicritic.github.io/ReviewHtml/review_Madoka_Magica_The_Movie_1_&amp;_2_-_Beginnings,_Eternal.html</v>
       </c>
     </row>
-    <row r="180" spans="2:19" hidden="1" x14ac:dyDescent="0.35">
+    <row r="180" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B180">
         <v>177</v>
       </c>
@@ -20211,7 +20198,7 @@
         <v>https://2danicritic.github.io/ReviewHtml/review_Madoka_Magica_The_Movie_3_-_Rebellion.html</v>
       </c>
     </row>
-    <row r="181" spans="2:19" hidden="1" x14ac:dyDescent="0.35">
+    <row r="181" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B181">
         <v>178</v>
       </c>
@@ -20268,7 +20255,7 @@
         <v>https://2danicritic.github.io/ReviewHtml/review_Maquia_-_When_the_Promised_Flower_Blooms.html</v>
       </c>
     </row>
-    <row r="182" spans="2:19" hidden="1" x14ac:dyDescent="0.35">
+    <row r="182" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B182">
         <v>179</v>
       </c>
@@ -20439,7 +20426,7 @@
         <v>https://2danicritic.github.io/ReviewHtml/review_Megalobox.html</v>
       </c>
     </row>
-    <row r="185" spans="2:19" hidden="1" x14ac:dyDescent="0.35">
+    <row r="185" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B185">
         <v>182</v>
       </c>
@@ -20610,7 +20597,7 @@
         <v>https://2danicritic.github.io/ReviewHtml/review_Mezzo_Forte.html</v>
       </c>
     </row>
-    <row r="188" spans="2:19" hidden="1" x14ac:dyDescent="0.35">
+    <row r="188" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B188">
         <v>185</v>
       </c>
@@ -20667,7 +20654,7 @@
         <v>https://2danicritic.github.io/ReviewHtml/review_MFKZ.html</v>
       </c>
     </row>
-    <row r="189" spans="2:19" hidden="1" x14ac:dyDescent="0.35">
+    <row r="189" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B189">
         <v>186</v>
       </c>
@@ -20724,7 +20711,7 @@
         <v>https://2danicritic.github.io/ReviewHtml/review_Millennium_Actress.html</v>
       </c>
     </row>
-    <row r="190" spans="2:19" hidden="1" x14ac:dyDescent="0.35">
+    <row r="190" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B190">
         <v>187</v>
       </c>
@@ -20781,7 +20768,7 @@
         <v>https://2danicritic.github.io/ReviewHtml/review_Mind_Game.html</v>
       </c>
     </row>
-    <row r="191" spans="2:19" hidden="1" x14ac:dyDescent="0.35">
+    <row r="191" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B191">
         <v>188</v>
       </c>
@@ -20895,7 +20882,7 @@
         <v>https://2danicritic.github.io/ReviewHtml/review_Miss_Kobayashi's_Dragon_Maid.html</v>
       </c>
     </row>
-    <row r="193" spans="2:19" hidden="1" x14ac:dyDescent="0.35">
+    <row r="193" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B193">
         <v>190</v>
       </c>
@@ -20952,7 +20939,7 @@
         <v>https://2danicritic.github.io/ReviewHtml/review_Modest_Heroes.html</v>
       </c>
     </row>
-    <row r="194" spans="2:19" hidden="1" x14ac:dyDescent="0.35">
+    <row r="194" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B194">
         <v>191</v>
       </c>
@@ -21237,7 +21224,7 @@
         <v>https://2danicritic.github.io/ReviewHtml/review_Mushi-Shi.html</v>
       </c>
     </row>
-    <row r="199" spans="2:19" hidden="1" x14ac:dyDescent="0.35">
+    <row r="199" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B199">
         <v>196</v>
       </c>
@@ -21294,7 +21281,7 @@
         <v>https://2danicritic.github.io/ReviewHtml/review_My_Beautiful_Girl_Mari.html</v>
       </c>
     </row>
-    <row r="200" spans="2:19" hidden="1" x14ac:dyDescent="0.35">
+    <row r="200" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B200">
         <v>197</v>
       </c>
@@ -21351,7 +21338,7 @@
         <v>https://2danicritic.github.io/ReviewHtml/review_My_Dogs,_Jinjin_and_Akida.html</v>
       </c>
     </row>
-    <row r="201" spans="2:19" hidden="1" x14ac:dyDescent="0.35">
+    <row r="201" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B201">
         <v>198</v>
       </c>
@@ -21408,7 +21395,7 @@
         <v>https://2danicritic.github.io/ReviewHtml/review_My_Entire_High_School_Sinking_Into_The_Sea.html</v>
       </c>
     </row>
-    <row r="202" spans="2:19" hidden="1" x14ac:dyDescent="0.35">
+    <row r="202" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B202">
         <v>199</v>
       </c>
@@ -21465,7 +21452,7 @@
         <v>https://2danicritic.github.io/ReviewHtml/review_My_Neighbor_Totoro.html</v>
       </c>
     </row>
-    <row r="203" spans="2:19" hidden="1" x14ac:dyDescent="0.35">
+    <row r="203" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B203">
         <v>200</v>
       </c>
@@ -21579,7 +21566,7 @@
         <v>https://2danicritic.github.io/ReviewHtml/review_Nadia_-_The_Secret_of_Blue_Water.html</v>
       </c>
     </row>
-    <row r="205" spans="2:19" hidden="1" x14ac:dyDescent="0.35">
+    <row r="205" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B205">
         <v>202</v>
       </c>
@@ -21636,7 +21623,7 @@
         <v>https://2danicritic.github.io/ReviewHtml/review_Napping_Princess.html</v>
       </c>
     </row>
-    <row r="206" spans="2:19" hidden="1" x14ac:dyDescent="0.35">
+    <row r="206" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B206">
         <v>203</v>
       </c>
@@ -21750,7 +21737,7 @@
         <v>https://2danicritic.github.io/ReviewHtml/review_Neon_Genesis_Evangelion.html</v>
       </c>
     </row>
-    <row r="208" spans="2:19" hidden="1" x14ac:dyDescent="0.35">
+    <row r="208" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B208">
         <v>205</v>
       </c>
@@ -21807,7 +21794,7 @@
         <v>https://2danicritic.github.io/ReviewHtml/review_Neon_Genesis_Evangelion_-_Death_and_Rebirth.html</v>
       </c>
     </row>
-    <row r="209" spans="2:19" hidden="1" x14ac:dyDescent="0.35">
+    <row r="209" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B209">
         <v>206</v>
       </c>
@@ -21864,7 +21851,7 @@
         <v>https://2danicritic.github.io/ReviewHtml/review_Neon_Genesis_Evangelion_-_The_End_of_Evangelion.html</v>
       </c>
     </row>
-    <row r="210" spans="2:19" hidden="1" x14ac:dyDescent="0.35">
+    <row r="210" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B210">
         <v>207</v>
       </c>
@@ -21978,7 +21965,7 @@
         <v>https://2danicritic.github.io/ReviewHtml/review_Nichijou.html</v>
       </c>
     </row>
-    <row r="212" spans="2:19" hidden="1" x14ac:dyDescent="0.35">
+    <row r="212" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B212">
         <v>209</v>
       </c>
@@ -22092,7 +22079,7 @@
         <v>https://2danicritic.github.io/ReviewHtml/review_Ninja_Nonsense.html</v>
       </c>
     </row>
-    <row r="214" spans="2:19" hidden="1" x14ac:dyDescent="0.35">
+    <row r="214" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B214">
         <v>211</v>
       </c>
@@ -22320,7 +22307,7 @@
         <v>https://2danicritic.github.io/ReviewHtml/review_No_Game_No_Life.html</v>
       </c>
     </row>
-    <row r="218" spans="2:19" hidden="1" x14ac:dyDescent="0.35">
+    <row r="218" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B218">
         <v>215</v>
       </c>
@@ -22434,7 +22421,7 @@
         <v>https://2danicritic.github.io/ReviewHtml/review_Noragami.html</v>
       </c>
     </row>
-    <row r="220" spans="2:19" hidden="1" x14ac:dyDescent="0.35">
+    <row r="220" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B220">
         <v>217</v>
       </c>
@@ -22491,7 +22478,7 @@
         <v>https://2danicritic.github.io/ReviewHtml/review_Nova_Seed.html</v>
       </c>
     </row>
-    <row r="221" spans="2:19" hidden="1" x14ac:dyDescent="0.35">
+    <row r="221" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B221">
         <v>218</v>
       </c>
@@ -22605,7 +22592,7 @@
         <v>https://2danicritic.github.io/ReviewHtml/review_Oh!_Edo_Rocket.html</v>
       </c>
     </row>
-    <row r="223" spans="2:19" hidden="1" x14ac:dyDescent="0.35">
+    <row r="223" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B223">
         <v>220</v>
       </c>
@@ -22662,7 +22649,7 @@
         <v>https://2danicritic.github.io/ReviewHtml/review_One_Piece_Film_-_Gold.html</v>
       </c>
     </row>
-    <row r="224" spans="2:19" hidden="1" x14ac:dyDescent="0.35">
+    <row r="224" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B224">
         <v>221</v>
       </c>
@@ -22776,7 +22763,7 @@
         <v>https://2danicritic.github.io/ReviewHtml/review_One_Punch_Man.html</v>
       </c>
     </row>
-    <row r="226" spans="2:19" hidden="1" x14ac:dyDescent="0.35">
+    <row r="226" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B226">
         <v>223</v>
       </c>
@@ -22833,7 +22820,7 @@
         <v>https://2danicritic.github.io/ReviewHtml/review_Only_Yesterday.html</v>
       </c>
     </row>
-    <row r="227" spans="2:19" hidden="1" x14ac:dyDescent="0.35">
+    <row r="227" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B227">
         <v>224</v>
       </c>
@@ -22947,7 +22934,7 @@
         <v>https://2danicritic.github.io/ReviewHtml/review_Panty_and_Stocking_with_Garterbelt.html</v>
       </c>
     </row>
-    <row r="229" spans="2:19" hidden="1" x14ac:dyDescent="0.35">
+    <row r="229" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B229">
         <v>226</v>
       </c>
@@ -23118,7 +23105,7 @@
         <v>https://2danicritic.github.io/ReviewHtml/review_Parasite_Dolls.html</v>
       </c>
     </row>
-    <row r="232" spans="2:19" hidden="1" x14ac:dyDescent="0.35">
+    <row r="232" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B232">
         <v>229</v>
       </c>
@@ -23175,7 +23162,7 @@
         <v>https://2danicritic.github.io/ReviewHtml/review_Patlabor_2.html</v>
       </c>
     </row>
-    <row r="233" spans="2:19" hidden="1" x14ac:dyDescent="0.35">
+    <row r="233" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B233">
         <v>230</v>
       </c>
@@ -23232,7 +23219,7 @@
         <v>https://2danicritic.github.io/ReviewHtml/review_Penguin_Highway.html</v>
       </c>
     </row>
-    <row r="234" spans="2:19" hidden="1" x14ac:dyDescent="0.35">
+    <row r="234" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B234">
         <v>231</v>
       </c>
@@ -23289,7 +23276,7 @@
         <v>https://2danicritic.github.io/ReviewHtml/review_Perfect_Blue.html</v>
       </c>
     </row>
-    <row r="235" spans="2:19" hidden="1" x14ac:dyDescent="0.35">
+    <row r="235" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B235">
         <v>232</v>
       </c>
@@ -23346,7 +23333,7 @@
         <v>https://2danicritic.github.io/ReviewHtml/review_Persepolis.html</v>
       </c>
     </row>
-    <row r="236" spans="2:19" hidden="1" x14ac:dyDescent="0.35">
+    <row r="236" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B236">
         <v>233</v>
       </c>
@@ -23517,7 +23504,7 @@
         <v>https://2danicritic.github.io/ReviewHtml/review_Ping_Pong_the_Animation.html</v>
       </c>
     </row>
-    <row r="239" spans="2:19" hidden="1" x14ac:dyDescent="0.35">
+    <row r="239" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B239">
         <v>236</v>
       </c>
@@ -23631,7 +23618,7 @@
         <v>https://2danicritic.github.io/ReviewHtml/review_Planetes.html</v>
       </c>
     </row>
-    <row r="241" spans="2:19" hidden="1" x14ac:dyDescent="0.35">
+    <row r="241" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B241">
         <v>238</v>
       </c>
@@ -23688,7 +23675,7 @@
         <v>https://2danicritic.github.io/ReviewHtml/review_Pom_Poko.html</v>
       </c>
     </row>
-    <row r="242" spans="2:19" hidden="1" x14ac:dyDescent="0.35">
+    <row r="242" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B242">
         <v>239</v>
       </c>
@@ -23745,7 +23732,7 @@
         <v>https://2danicritic.github.io/ReviewHtml/review_Ponyo.html</v>
       </c>
     </row>
-    <row r="243" spans="2:19" hidden="1" x14ac:dyDescent="0.35">
+    <row r="243" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B243">
         <v>240</v>
       </c>
@@ -23802,7 +23789,7 @@
         <v>https://2danicritic.github.io/ReviewHtml/review_Porco_Rosso.html</v>
       </c>
     </row>
-    <row r="244" spans="2:19" hidden="1" x14ac:dyDescent="0.35">
+    <row r="244" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B244">
         <v>241</v>
       </c>
@@ -23973,7 +23960,7 @@
         <v>https://2danicritic.github.io/ReviewHtml/review_Prison_School.html</v>
       </c>
     </row>
-    <row r="247" spans="2:19" hidden="1" x14ac:dyDescent="0.35">
+    <row r="247" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B247">
         <v>244</v>
       </c>
@@ -24030,7 +24017,7 @@
         <v>https://2danicritic.github.io/ReviewHtml/review_Promare.html</v>
       </c>
     </row>
-    <row r="248" spans="2:19" hidden="1" x14ac:dyDescent="0.35">
+    <row r="248" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B248">
         <v>245</v>
       </c>
@@ -24315,7 +24302,7 @@
         <v>https://2danicritic.github.io/ReviewHtml/review_Rail_Wars.html</v>
       </c>
     </row>
-    <row r="253" spans="2:19" hidden="1" x14ac:dyDescent="0.35">
+    <row r="253" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B253">
         <v>250</v>
       </c>
@@ -24429,7 +24416,7 @@
         <v>https://2danicritic.github.io/ReviewHtml/review_Rin_-_Daughters_of_Mnemosyne.html</v>
       </c>
     </row>
-    <row r="255" spans="2:19" hidden="1" x14ac:dyDescent="0.35">
+    <row r="255" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B255">
         <v>252</v>
       </c>
@@ -24486,7 +24473,7 @@
         <v>https://2danicritic.github.io/ReviewHtml/review_Ringing_Bell.html</v>
       </c>
     </row>
-    <row r="256" spans="2:19" hidden="1" x14ac:dyDescent="0.35">
+    <row r="256" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B256">
         <v>253</v>
       </c>
@@ -24543,7 +24530,7 @@
         <v>https://2danicritic.github.io/ReviewHtml/review_Robot_Carnival.html</v>
       </c>
     </row>
-    <row r="257" spans="2:19" hidden="1" x14ac:dyDescent="0.35">
+    <row r="257" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B257">
         <v>254</v>
       </c>
@@ -24600,7 +24587,7 @@
         <v>https://2danicritic.github.io/ReviewHtml/review_Rock_and_Rule.html</v>
       </c>
     </row>
-    <row r="258" spans="2:19" hidden="1" x14ac:dyDescent="0.35">
+    <row r="258" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B258">
         <v>255</v>
       </c>
@@ -24771,7 +24758,7 @@
         <v>https://2danicritic.github.io/ReviewHtml/review_Romeo_x_Juliet.html</v>
       </c>
     </row>
-    <row r="261" spans="2:19" hidden="1" x14ac:dyDescent="0.35">
+    <row r="261" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B261">
         <v>258</v>
       </c>
@@ -24942,7 +24929,7 @@
         <v>https://2danicritic.github.io/ReviewHtml/review_Sankarea_-_Undying_Love.html</v>
       </c>
     </row>
-    <row r="264" spans="2:19" hidden="1" x14ac:dyDescent="0.35">
+    <row r="264" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B264">
         <v>261</v>
       </c>
@@ -25284,7 +25271,7 @@
         <v>https://2danicritic.github.io/ReviewHtml/review_Shirobako.html</v>
       </c>
     </row>
-    <row r="270" spans="2:19" hidden="1" x14ac:dyDescent="0.35">
+    <row r="270" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B270">
         <v>267</v>
       </c>
@@ -25398,7 +25385,7 @@
         <v>https://2danicritic.github.io/ReviewHtml/review_Sin_-_The_Movie.html</v>
       </c>
     </row>
-    <row r="272" spans="2:19" hidden="1" x14ac:dyDescent="0.35">
+    <row r="272" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B272">
         <v>269</v>
       </c>
@@ -25512,7 +25499,7 @@
         <v>https://2danicritic.github.io/ReviewHtml/review_So_I_Can't_Play_H!.html</v>
       </c>
     </row>
-    <row r="274" spans="2:19" hidden="1" x14ac:dyDescent="0.35">
+    <row r="274" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B274">
         <v>271</v>
       </c>
@@ -25797,7 +25784,7 @@
         <v>https://2danicritic.github.io/ReviewHtml/review_Spice_and_Wolf.html</v>
       </c>
     </row>
-    <row r="279" spans="2:19" hidden="1" x14ac:dyDescent="0.35">
+    <row r="279" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B279">
         <v>276</v>
       </c>
@@ -25854,7 +25841,7 @@
         <v>https://2danicritic.github.io/ReviewHtml/review_Spirit_-_Stallion_of_the_Cimarron.html</v>
       </c>
     </row>
-    <row r="280" spans="2:19" hidden="1" x14ac:dyDescent="0.35">
+    <row r="280" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B280">
         <v>277</v>
       </c>
@@ -25968,7 +25955,7 @@
         <v>https://2danicritic.github.io/ReviewHtml/review_Steins;Gate.html</v>
       </c>
     </row>
-    <row r="282" spans="2:19" hidden="1" x14ac:dyDescent="0.35">
+    <row r="282" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B282">
         <v>279</v>
       </c>
@@ -26025,7 +26012,7 @@
         <v>https://2danicritic.github.io/ReviewHtml/review_Steins;Gate_The_Movie_-_Load_Region_of_Deja_Vu.html</v>
       </c>
     </row>
-    <row r="283" spans="2:19" hidden="1" x14ac:dyDescent="0.35">
+    <row r="283" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B283">
         <v>280</v>
       </c>
@@ -26082,7 +26069,7 @@
         <v>https://2danicritic.github.io/ReviewHtml/review_Street_Fighter_II_-_The_Animated_Movie.html</v>
       </c>
     </row>
-    <row r="284" spans="2:19" hidden="1" x14ac:dyDescent="0.35">
+    <row r="284" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B284">
         <v>281</v>
       </c>
@@ -26196,7 +26183,7 @@
         <v>https://2danicritic.github.io/ReviewHtml/review_Supernatural_-_The_Animation.html</v>
       </c>
     </row>
-    <row r="286" spans="2:19" hidden="1" x14ac:dyDescent="0.35">
+    <row r="286" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B286">
         <v>283</v>
       </c>
@@ -26253,7 +26240,7 @@
         <v>https://2danicritic.github.io/ReviewHtml/review_Sword_of_the_Stranger.html</v>
       </c>
     </row>
-    <row r="287" spans="2:19" hidden="1" x14ac:dyDescent="0.35">
+    <row r="287" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B287">
         <v>284</v>
       </c>
@@ -26310,7 +26297,7 @@
         <v>https://2danicritic.github.io/ReviewHtml/review_Tales_From_Earthsea.html</v>
       </c>
     </row>
-    <row r="288" spans="2:19" hidden="1" x14ac:dyDescent="0.35">
+    <row r="288" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B288">
         <v>285</v>
       </c>
@@ -26367,7 +26354,7 @@
         <v>https://2danicritic.github.io/ReviewHtml/review_Tales_of_Vesperia_-_The_First_Strike.html</v>
       </c>
     </row>
-    <row r="289" spans="2:19" hidden="1" x14ac:dyDescent="0.35">
+    <row r="289" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B289">
         <v>286</v>
       </c>
@@ -26481,7 +26468,7 @@
         <v>https://2danicritic.github.io/ReviewHtml/review_Terror_in_Resonance.html</v>
       </c>
     </row>
-    <row r="291" spans="2:19" hidden="1" x14ac:dyDescent="0.35">
+    <row r="291" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B291">
         <v>288</v>
       </c>
@@ -26538,7 +26525,7 @@
         <v>https://2danicritic.github.io/ReviewHtml/review_The_Animatrix.html</v>
       </c>
     </row>
-    <row r="292" spans="2:19" hidden="1" x14ac:dyDescent="0.35">
+    <row r="292" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B292">
         <v>289</v>
       </c>
@@ -26652,7 +26639,7 @@
         <v>https://2danicritic.github.io/ReviewHtml/review_The_Book_of_Bantorra.html</v>
       </c>
     </row>
-    <row r="294" spans="2:19" hidden="1" x14ac:dyDescent="0.35">
+    <row r="294" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B294">
         <v>291</v>
       </c>
@@ -26709,7 +26696,7 @@
         <v>https://2danicritic.github.io/ReviewHtml/review_The_Boy_and_the_Beast.html</v>
       </c>
     </row>
-    <row r="295" spans="2:19" hidden="1" x14ac:dyDescent="0.35">
+    <row r="295" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B295">
         <v>292</v>
       </c>
@@ -26766,7 +26753,7 @@
         <v>https://2danicritic.github.io/ReviewHtml/review_The_Breadwinner.html</v>
       </c>
     </row>
-    <row r="296" spans="2:19" hidden="1" x14ac:dyDescent="0.35">
+    <row r="296" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B296">
         <v>293</v>
       </c>
@@ -26880,7 +26867,7 @@
         <v>https://2danicritic.github.io/ReviewHtml/review_The_Comic_Artist_&amp;_His_Assistants.html</v>
       </c>
     </row>
-    <row r="298" spans="2:19" hidden="1" x14ac:dyDescent="0.35">
+    <row r="298" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B298">
         <v>295</v>
       </c>
@@ -27051,7 +27038,7 @@
         <v>https://2danicritic.github.io/ReviewHtml/review_The_Dragon_Dentist.html</v>
       </c>
     </row>
-    <row r="301" spans="2:19" hidden="1" x14ac:dyDescent="0.35">
+    <row r="301" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B301">
         <v>298</v>
       </c>
@@ -27108,7 +27095,7 @@
         <v>https://2danicritic.github.io/ReviewHtml/review_The_Empire_of_Corpses.html</v>
       </c>
     </row>
-    <row r="302" spans="2:19" hidden="1" x14ac:dyDescent="0.35">
+    <row r="302" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B302">
         <v>299</v>
       </c>
@@ -27165,7 +27152,7 @@
         <v>https://2danicritic.github.io/ReviewHtml/review_The_Fantastic_Adventures_of_Unico.html</v>
       </c>
     </row>
-    <row r="303" spans="2:19" hidden="1" x14ac:dyDescent="0.35">
+    <row r="303" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B303">
         <v>300</v>
       </c>
@@ -27336,7 +27323,7 @@
         <v>https://2danicritic.github.io/ReviewHtml/review_The_Future_Diary.html</v>
       </c>
     </row>
-    <row r="306" spans="2:19" hidden="1" x14ac:dyDescent="0.35">
+    <row r="306" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B306">
         <v>303</v>
       </c>
@@ -27393,7 +27380,7 @@
         <v>https://2danicritic.github.io/ReviewHtml/review_The_Garden_of_Sinners.html</v>
       </c>
     </row>
-    <row r="307" spans="2:19" hidden="1" x14ac:dyDescent="0.35">
+    <row r="307" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B307">
         <v>304</v>
       </c>
@@ -27450,7 +27437,7 @@
         <v>https://2danicritic.github.io/ReviewHtml/review_The_Garden_of_Words.html</v>
       </c>
     </row>
-    <row r="308" spans="2:19" hidden="1" x14ac:dyDescent="0.35">
+    <row r="308" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B308">
         <v>305</v>
       </c>
@@ -27507,7 +27494,7 @@
         <v>https://2danicritic.github.io/ReviewHtml/review_The_Girl_Who_Leapt_Through_Time.html</v>
       </c>
     </row>
-    <row r="309" spans="2:19" hidden="1" x14ac:dyDescent="0.35">
+    <row r="309" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B309">
         <v>306</v>
       </c>
@@ -27564,7 +27551,7 @@
         <v>https://2danicritic.github.io/ReviewHtml/review_The_Girl_Without_Hands.html</v>
       </c>
     </row>
-    <row r="310" spans="2:19" hidden="1" x14ac:dyDescent="0.35">
+    <row r="310" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B310">
         <v>307</v>
       </c>
@@ -27621,7 +27608,7 @@
         <v>https://2danicritic.github.io/ReviewHtml/review_The_Hobbit.html</v>
       </c>
     </row>
-    <row r="311" spans="2:19" hidden="1" x14ac:dyDescent="0.35">
+    <row r="311" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B311">
         <v>308</v>
       </c>
@@ -27678,7 +27665,7 @@
         <v>https://2danicritic.github.io/ReviewHtml/review_The_Illusionist.html</v>
       </c>
     </row>
-    <row r="312" spans="2:19" hidden="1" x14ac:dyDescent="0.35">
+    <row r="312" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B312">
         <v>309</v>
       </c>
@@ -27735,7 +27722,7 @@
         <v>https://2danicritic.github.io/ReviewHtml/review_The_Last_Unicorn.html</v>
       </c>
     </row>
-    <row r="313" spans="2:19" hidden="1" x14ac:dyDescent="0.35">
+    <row r="313" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B313">
         <v>310</v>
       </c>
@@ -27792,7 +27779,7 @@
         <v>https://2danicritic.github.io/ReviewHtml/review_The_Legend_of_the_Millennium_Dragon.html</v>
       </c>
     </row>
-    <row r="314" spans="2:19" hidden="1" x14ac:dyDescent="0.35">
+    <row r="314" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B314">
         <v>311</v>
       </c>
@@ -27849,7 +27836,7 @@
         <v>https://2danicritic.github.io/ReviewHtml/review_The_Life_of_Guskou_Budori.html</v>
       </c>
     </row>
-    <row r="315" spans="2:19" hidden="1" x14ac:dyDescent="0.35">
+    <row r="315" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B315">
         <v>312</v>
       </c>
@@ -28077,7 +28064,7 @@
         <v>https://2danicritic.github.io/ReviewHtml/review_The_Mystic_Archives_of_Dantalian.html</v>
       </c>
     </row>
-    <row r="319" spans="2:19" hidden="1" x14ac:dyDescent="0.35">
+    <row r="319" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B319">
         <v>316</v>
       </c>
@@ -28191,7 +28178,7 @@
         <v>https://2danicritic.github.io/ReviewHtml/review_The_Pet_Girl_of_Sakurasou.html</v>
       </c>
     </row>
-    <row r="321" spans="2:19" hidden="1" x14ac:dyDescent="0.35">
+    <row r="321" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B321">
         <v>318</v>
       </c>
@@ -28248,7 +28235,7 @@
         <v>https://2danicritic.github.io/ReviewHtml/review_The_Place_Promised_in_Our_Early_Days.html</v>
       </c>
     </row>
-    <row r="322" spans="2:19" hidden="1" x14ac:dyDescent="0.35">
+    <row r="322" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B322">
         <v>319</v>
       </c>
@@ -28305,7 +28292,7 @@
         <v>https://2danicritic.github.io/ReviewHtml/review_The_Plague_Dogs.html</v>
       </c>
     </row>
-    <row r="323" spans="2:19" hidden="1" x14ac:dyDescent="0.35">
+    <row r="323" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B323">
         <v>320</v>
       </c>
@@ -28362,7 +28349,7 @@
         <v>https://2danicritic.github.io/ReviewHtml/review_The_Prince_of_Egpyt.html</v>
       </c>
     </row>
-    <row r="324" spans="2:19" hidden="1" x14ac:dyDescent="0.35">
+    <row r="324" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B324">
         <v>321</v>
       </c>
@@ -28419,7 +28406,7 @@
         <v>https://2danicritic.github.io/ReviewHtml/review_The_Princess_and_the_Pilot.html</v>
       </c>
     </row>
-    <row r="325" spans="2:19" hidden="1" x14ac:dyDescent="0.35">
+    <row r="325" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B325">
         <v>322</v>
       </c>
@@ -28476,7 +28463,7 @@
         <v>https://2danicritic.github.io/ReviewHtml/review_The_Rabbi's_Cat.html</v>
       </c>
     </row>
-    <row r="326" spans="2:19" hidden="1" x14ac:dyDescent="0.35">
+    <row r="326" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B326">
         <v>323</v>
       </c>
@@ -28533,7 +28520,7 @@
         <v>https://2danicritic.github.io/ReviewHtml/review_The_Red_Turtle.html</v>
       </c>
     </row>
-    <row r="327" spans="2:19" hidden="1" x14ac:dyDescent="0.35">
+    <row r="327" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B327">
         <v>324</v>
       </c>
@@ -28590,7 +28577,7 @@
         <v>https://2danicritic.github.io/ReviewHtml/review_The_Return_of_the_King.html</v>
       </c>
     </row>
-    <row r="328" spans="2:19" hidden="1" x14ac:dyDescent="0.35">
+    <row r="328" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B328">
         <v>325</v>
       </c>
@@ -28647,7 +28634,7 @@
         <v>https://2danicritic.github.io/ReviewHtml/review_The_Road_to_El_Dorado.html</v>
       </c>
     </row>
-    <row r="329" spans="2:19" hidden="1" x14ac:dyDescent="0.35">
+    <row r="329" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B329">
         <v>326</v>
       </c>
@@ -28704,7 +28691,7 @@
         <v>https://2danicritic.github.io/ReviewHtml/review_The_Secret_of_Kells.html</v>
       </c>
     </row>
-    <row r="330" spans="2:19" hidden="1" x14ac:dyDescent="0.35">
+    <row r="330" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B330">
         <v>327</v>
       </c>
@@ -28761,7 +28748,7 @@
         <v>https://2danicritic.github.io/ReviewHtml/review_The_Secret_of_Nimh.html</v>
       </c>
     </row>
-    <row r="331" spans="2:19" hidden="1" x14ac:dyDescent="0.35">
+    <row r="331" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B331">
         <v>328</v>
       </c>
@@ -28818,7 +28805,7 @@
         <v>https://2danicritic.github.io/ReviewHtml/review_The_Secret_World_of_Arrietty.html</v>
       </c>
     </row>
-    <row r="332" spans="2:19" hidden="1" x14ac:dyDescent="0.35">
+    <row r="332" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B332">
         <v>329</v>
       </c>
@@ -28875,7 +28862,7 @@
         <v>https://2danicritic.github.io/ReviewHtml/review_The_Sky_Crawlers.html</v>
       </c>
     </row>
-    <row r="333" spans="2:19" hidden="1" x14ac:dyDescent="0.35">
+    <row r="333" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B333">
         <v>330</v>
       </c>
@@ -28932,7 +28919,7 @@
         <v>https://2danicritic.github.io/ReviewHtml/review_The_Tale_of_Princess_Kaguya.html</v>
       </c>
     </row>
-    <row r="334" spans="2:19" hidden="1" x14ac:dyDescent="0.35">
+    <row r="334" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B334">
         <v>331</v>
       </c>
@@ -28989,7 +28976,7 @@
         <v>https://2danicritic.github.io/ReviewHtml/review_The_Thief_and_the_Cobbler.html</v>
       </c>
     </row>
-    <row r="335" spans="2:19" hidden="1" x14ac:dyDescent="0.35">
+    <row r="335" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B335">
         <v>332</v>
       </c>
@@ -29046,7 +29033,7 @@
         <v>https://2danicritic.github.io/ReviewHtml/review_The_Triplets_of_Belleville.html</v>
       </c>
     </row>
-    <row r="336" spans="2:19" hidden="1" x14ac:dyDescent="0.35">
+    <row r="336" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B336">
         <v>333</v>
       </c>
@@ -29160,7 +29147,7 @@
         <v>https://2danicritic.github.io/ReviewHtml/review_This_Boy_Can_Fight_Aliens.html</v>
       </c>
     </row>
-    <row r="338" spans="2:19" hidden="1" x14ac:dyDescent="0.35">
+    <row r="338" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B338">
         <v>335</v>
       </c>
@@ -29217,7 +29204,7 @@
         <v>https://2danicritic.github.io/ReviewHtml/review_Thumbelina.html</v>
       </c>
     </row>
-    <row r="339" spans="2:19" hidden="1" x14ac:dyDescent="0.35">
+    <row r="339" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B339">
         <v>336</v>
       </c>
@@ -29274,7 +29261,7 @@
         <v>https://2danicritic.github.io/ReviewHtml/review_Time_of_Eve.html</v>
       </c>
     </row>
-    <row r="340" spans="2:19" hidden="1" x14ac:dyDescent="0.35">
+    <row r="340" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B340">
         <v>337</v>
       </c>
@@ -29331,7 +29318,7 @@
         <v>https://2danicritic.github.io/ReviewHtml/review_Tito_and_the_Birds.html</v>
       </c>
     </row>
-    <row r="341" spans="2:19" hidden="1" x14ac:dyDescent="0.35">
+    <row r="341" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B341">
         <v>338</v>
       </c>
@@ -29388,7 +29375,7 @@
         <v>https://2danicritic.github.io/ReviewHtml/review_Tokyo_Godfathers.html</v>
       </c>
     </row>
-    <row r="342" spans="2:19" hidden="1" x14ac:dyDescent="0.35">
+    <row r="342" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B342">
         <v>339</v>
       </c>
@@ -29559,7 +29546,7 @@
         <v>https://2danicritic.github.io/ReviewHtml/review_Toradora.html</v>
       </c>
     </row>
-    <row r="345" spans="2:19" hidden="1" x14ac:dyDescent="0.35">
+    <row r="345" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B345">
         <v>342</v>
       </c>
@@ -29673,7 +29660,7 @@
         <v>https://2danicritic.github.io/ReviewHtml/review_Trigun.html</v>
       </c>
     </row>
-    <row r="347" spans="2:19" hidden="1" x14ac:dyDescent="0.35">
+    <row r="347" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B347">
         <v>344</v>
       </c>
@@ -29901,7 +29888,7 @@
         <v>https://2danicritic.github.io/ReviewHtml/review_Unbreakable_Machine_Doll.html</v>
       </c>
     </row>
-    <row r="351" spans="2:19" hidden="1" x14ac:dyDescent="0.35">
+    <row r="351" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B351">
         <v>348</v>
       </c>
@@ -29958,7 +29945,7 @@
         <v>https://2danicritic.github.io/ReviewHtml/review_Unico_in_the_Island_of_Magic.html</v>
       </c>
     </row>
-    <row r="352" spans="2:19" hidden="1" x14ac:dyDescent="0.35">
+    <row r="352" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B352">
         <v>349</v>
       </c>
@@ -30015,7 +30002,7 @@
         <v>https://2danicritic.github.io/ReviewHtml/review_Urusei_Yatsura_-_Beautiful_Dreamer.html</v>
       </c>
     </row>
-    <row r="353" spans="2:19" hidden="1" x14ac:dyDescent="0.35">
+    <row r="353" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B353">
         <v>350</v>
       </c>
@@ -30072,7 +30059,7 @@
         <v>https://2danicritic.github.io/ReviewHtml/review_Vampire_Hunter_D.html</v>
       </c>
     </row>
-    <row r="354" spans="2:19" hidden="1" x14ac:dyDescent="0.35">
+    <row r="354" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B354">
         <v>351</v>
       </c>
@@ -30186,7 +30173,7 @@
         <v>https://2danicritic.github.io/ReviewHtml/review_Voices_of_a_Distant_Star.html</v>
       </c>
     </row>
-    <row r="356" spans="2:19" hidden="1" x14ac:dyDescent="0.35">
+    <row r="356" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B356">
         <v>353</v>
       </c>
@@ -30300,7 +30287,7 @@
         <v>https://2danicritic.github.io/ReviewHtml/review_Welcome_to_the_N.H.K..html</v>
       </c>
     </row>
-    <row r="358" spans="2:19" hidden="1" x14ac:dyDescent="0.35">
+    <row r="358" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B358">
         <v>355</v>
       </c>
@@ -30357,7 +30344,7 @@
         <v>https://2danicritic.github.io/ReviewHtml/review_When_Marnie_Was_There.html</v>
       </c>
     </row>
-    <row r="359" spans="2:19" hidden="1" x14ac:dyDescent="0.35">
+    <row r="359" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B359">
         <v>356</v>
       </c>
@@ -30414,7 +30401,7 @@
         <v>https://2danicritic.github.io/ReviewHtml/review_When_The_Wind_Blows.html</v>
       </c>
     </row>
-    <row r="360" spans="2:19" hidden="1" x14ac:dyDescent="0.35">
+    <row r="360" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B360">
         <v>357</v>
       </c>
@@ -30471,7 +30458,7 @@
         <v>https://2danicritic.github.io/ReviewHtml/review_Whisper_of_the_Heart.html</v>
       </c>
     </row>
-    <row r="361" spans="2:19" hidden="1" x14ac:dyDescent="0.35">
+    <row r="361" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B361">
         <v>358</v>
       </c>
@@ -30585,7 +30572,7 @@
         <v>https://2danicritic.github.io/ReviewHtml/review_Windy_Tales.html</v>
       </c>
     </row>
-    <row r="363" spans="2:19" hidden="1" x14ac:dyDescent="0.35">
+    <row r="363" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B363">
         <v>360</v>
       </c>
@@ -30642,7 +30629,7 @@
         <v>https://2danicritic.github.io/ReviewHtml/review_Wizards.html</v>
       </c>
     </row>
-    <row r="364" spans="2:19" hidden="1" x14ac:dyDescent="0.35">
+    <row r="364" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B364">
         <v>361</v>
       </c>
@@ -30699,7 +30686,7 @@
         <v>https://2danicritic.github.io/ReviewHtml/review_Wolf_Children.html</v>
       </c>
     </row>
-    <row r="365" spans="2:19" hidden="1" x14ac:dyDescent="0.35">
+    <row r="365" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B365">
         <v>362</v>
       </c>
@@ -30870,7 +30857,7 @@
         <v>https://2danicritic.github.io/ReviewHtml/review_xxxHolic.html</v>
       </c>
     </row>
-    <row r="368" spans="2:19" hidden="1" x14ac:dyDescent="0.35">
+    <row r="368" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B368">
         <v>365</v>
       </c>
@@ -30927,7 +30914,7 @@
         <v>https://2danicritic.github.io/ReviewHtml/review_Yellow_Submarine.html</v>
       </c>
     </row>
-    <row r="369" spans="2:19" hidden="1" x14ac:dyDescent="0.35">
+    <row r="369" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B369">
         <v>366</v>
       </c>
